--- a/myExcel.xlsx
+++ b/myExcel.xlsx
@@ -346,7 +346,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#.0"/>
+    <numFmt numFmtId="164" formatCode="'#0.0000'"/>
     <numFmt numFmtId="165" formatCode="yyyy-MM-dd HH:mm:ss"/>
   </numFmts>
   <fonts count="3">
@@ -799,10 +799,10 @@
         <v>0.0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>1.0668797153635117</v>
+        <v>0.0</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>-0.06687971536351166</v>
+        <v>0.0</v>
       </c>
       <c r="X2" s="2" t="n">
         <v>0.0</v>
@@ -817,10 +817,10 @@
         <v>0.0</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>0.12935635931487544</v>
+        <v>0.0</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>-0.09334716635464588</v>
+        <v>0.0</v>
       </c>
       <c r="AD2" s="2" t="n">
         <v>0.0</v>
@@ -874,7 +874,7 @@
         <v>0.0</v>
       </c>
       <c r="AU2" s="2" t="n">
-        <v>0.029320987654320986</v>
+        <v>0.0</v>
       </c>
       <c r="AV2" s="2" t="n">
         <v>0.0728744939271255</v>
@@ -904,7 +904,7 @@
         <v>0.0</v>
       </c>
       <c r="BE2" s="2" t="n">
-        <v>0.11143695014662756</v>
+        <v>0.0</v>
       </c>
       <c r="BF2"/>
       <c r="BG2"/>
@@ -1099,7 +1099,7 @@
         <v>1.715686274509804E-4</v>
       </c>
       <c r="AU3" s="2" t="n">
-        <v>0.07561728395061729</v>
+        <v>0.0</v>
       </c>
       <c r="AV3" s="2" t="n">
         <v>0.38461538461538464</v>
@@ -1129,7 +1129,7 @@
         <v>1.5083545604310042E-6</v>
       </c>
       <c r="BE3" s="2" t="n">
-        <v>0.2873900293255132</v>
+        <v>0.0</v>
       </c>
       <c r="BF3" s="2" t="n">
         <v>22.666666666666668</v>
@@ -1180,10 +1180,10 @@
         <v>5.425044745031183</v>
       </c>
       <c r="BV3" s="2" t="n">
-        <v>186.0562962962963</v>
+        <v>0.0</v>
       </c>
       <c r="BW3" s="2" t="n">
-        <v>1.6975925925925928</v>
+        <v>0.0</v>
       </c>
       <c r="BX3" s="2" t="n">
         <v>0.5738396624472574</v>
@@ -1198,10 +1198,10 @@
         <v>0.07568088693773423</v>
       </c>
       <c r="CB3" s="2" t="n">
-        <v>0.1867925703444038</v>
+        <v>0.0</v>
       </c>
       <c r="CC3" s="2" t="n">
-        <v>0.004074847711345914</v>
+        <v>0.0</v>
       </c>
       <c r="CD3" s="2" t="n">
         <v>34.0</v>
@@ -1267,7 +1267,7 @@
         <v>83.03842592592589</v>
       </c>
       <c r="CY3" s="2" t="n">
-        <v>0.08667695473251029</v>
+        <v>0.0</v>
       </c>
       <c r="CZ3" s="2" t="n">
         <v>0.4597544338335607</v>
@@ -1285,7 +1285,7 @@
         <v>0.09297732777282638</v>
       </c>
       <c r="DE3" s="2" t="n">
-        <v>0.45975443383356074</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1509,10 +1509,10 @@
         <v>0.02492794572546906</v>
       </c>
       <c r="BV4" s="2" t="n">
-        <v>253.9298611111111</v>
+        <v>0.0</v>
       </c>
       <c r="BW4" s="2" t="n">
-        <v>69.69430555555556</v>
+        <v>0.0</v>
       </c>
       <c r="BX4" s="2" t="n">
         <v>0.10126582278481013</v>
@@ -1527,10 +1527,10 @@
         <v>3.477517938938871E-4</v>
       </c>
       <c r="CB4" s="2" t="n">
-        <v>0.2549347288339315</v>
+        <v>0.0</v>
       </c>
       <c r="CC4" s="2" t="n">
-        <v>0.16729201265727622</v>
+        <v>0.0</v>
       </c>
       <c r="CD4" s="2" t="n">
         <v>3.75</v>
@@ -1596,7 +1596,7 @@
         <v>35.778958333333335</v>
       </c>
       <c r="CY4" s="2" t="n">
-        <v>0.008680555555555556</v>
+        <v>0.0</v>
       </c>
       <c r="CZ4" s="2" t="n">
         <v>0.04604365620736698</v>
@@ -1614,7 +1614,7 @@
         <v>0.040061355923294364</v>
       </c>
       <c r="DE4" s="2" t="n">
-        <v>0.04604365620736699</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -1757,7 +1757,7 @@
         <v>1.8933024691358022</v>
       </c>
       <c r="AU5" s="2" t="n">
-        <v>0.011574074074074073</v>
+        <v>0.0</v>
       </c>
       <c r="AV5" s="2" t="n">
         <v>0.05263157894736842</v>
@@ -1787,7 +1787,7 @@
         <v>0.016645067667818248</v>
       </c>
       <c r="BE5" s="2" t="n">
-        <v>0.0439882697947214</v>
+        <v>0.0</v>
       </c>
       <c r="BF5" s="2" t="n">
         <v>6.333333333333333</v>
@@ -1838,10 +1838,10 @@
         <v>0.004426519002717164</v>
       </c>
       <c r="BV5" s="2" t="n">
-        <v>187.69268518518518</v>
+        <v>0.0</v>
       </c>
       <c r="BW5" s="2" t="n">
-        <v>244.17972222222224</v>
+        <v>0.0</v>
       </c>
       <c r="BX5" s="2" t="n">
         <v>0.1518987341772152</v>
@@ -1856,10 +1856,10 @@
         <v>6.175117439892085E-5</v>
       </c>
       <c r="CB5" s="2" t="n">
-        <v>0.18843543485758213</v>
+        <v>0.0</v>
       </c>
       <c r="CC5" s="2" t="n">
-        <v>0.5861213029533368</v>
+        <v>0.0</v>
       </c>
       <c r="CD5" s="2" t="n">
         <v>9.333333333333334</v>
@@ -1925,7 +1925,7 @@
         <v>19.30416666666667</v>
       </c>
       <c r="CY5" s="2" t="n">
-        <v>0.019032921810699585</v>
+        <v>0.0</v>
       </c>
       <c r="CZ5" s="2" t="n">
         <v>0.1009549795361528</v>
@@ -1943,7 +1943,7 @@
         <v>0.0216146899647282</v>
       </c>
       <c r="DE5" s="2" t="n">
-        <v>0.10095497953615278</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -2086,7 +2086,7 @@
         <v>0.35087164750957844</v>
       </c>
       <c r="AU6" s="2" t="n">
-        <v>0.04089506172839506</v>
+        <v>0.0</v>
       </c>
       <c r="AV6" s="2" t="n">
         <v>0.10931174089068826</v>
@@ -2116,7 +2116,7 @@
         <v>0.0030847064379425867</v>
       </c>
       <c r="BE6" s="2" t="n">
-        <v>0.15542521994134897</v>
+        <v>0.0</v>
       </c>
       <c r="BF6" s="2" t="n">
         <v>4.666666666666667</v>
@@ -2167,10 +2167,10 @@
         <v>2.020576584192089</v>
       </c>
       <c r="BV6" s="2" t="n">
-        <v>312.61</v>
+        <v>0.0</v>
       </c>
       <c r="BW6" s="2" t="n">
-        <v>11.822222222222223</v>
+        <v>0.0</v>
       </c>
       <c r="BX6" s="2" t="n">
         <v>0.4894514767932489</v>
@@ -2185,10 +2185,10 @@
         <v>0.028187606776392725</v>
       </c>
       <c r="CB6" s="2" t="n">
-        <v>0.3138470805759368</v>
+        <v>0.0</v>
       </c>
       <c r="CC6" s="2" t="n">
-        <v>0.02837768930864221</v>
+        <v>0.0</v>
       </c>
       <c r="CD6" s="2" t="n">
         <v>14.333333333333334</v>
@@ -2254,7 +2254,7 @@
         <v>16.21833333333333</v>
       </c>
       <c r="CY6" s="2" t="n">
-        <v>0.03935185185185185</v>
+        <v>0.0</v>
       </c>
       <c r="CZ6" s="2" t="n">
         <v>0.208731241473397</v>
@@ -2272,7 +2272,7 @@
         <v>0.01815951202648565</v>
       </c>
       <c r="DE6" s="2" t="n">
-        <v>0.208731241473397</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -2340,10 +2340,10 @@
         <v>0.01327955700815149</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.4344738082990398</v>
+        <v>0.0</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.5652308384773663</v>
+        <v>0.0</v>
       </c>
       <c r="X7" s="2" t="n">
         <v>0.888888888888889</v>
@@ -2358,10 +2358,10 @@
         <v>4.6313380799190644E-5</v>
       </c>
       <c r="AB7" s="2" t="n">
-        <v>0.05267880647640165</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>0.7889192832436761</v>
+        <v>0.0</v>
       </c>
       <c r="AD7" s="2" t="n">
         <v>0.23809523809523808</v>
@@ -2415,7 +2415,7 @@
         <v>4.54141975308642</v>
       </c>
       <c r="AU7" s="2" t="n">
-        <v>0.02546296296296296</v>
+        <v>0.0</v>
       </c>
       <c r="AV7" s="2" t="n">
         <v>0.06072874493927125</v>
@@ -2445,7 +2445,7 @@
         <v>0.03992612925318477</v>
       </c>
       <c r="BE7" s="2" t="n">
-        <v>0.0967741935483871</v>
+        <v>0.0</v>
       </c>
       <c r="BF7" s="2" t="n">
         <v>6.333333333333333</v>
@@ -2496,10 +2496,10 @@
         <v>0.004426519002717164</v>
       </c>
       <c r="BV7" s="2" t="n">
-        <v>187.69268518518518</v>
+        <v>0.0</v>
       </c>
       <c r="BW7" s="2" t="n">
-        <v>244.17972222222224</v>
+        <v>0.0</v>
       </c>
       <c r="BX7" s="2" t="n">
         <v>0.1518987341772152</v>
@@ -2514,10 +2514,10 @@
         <v>6.175117439892085E-5</v>
       </c>
       <c r="CB7" s="2" t="n">
-        <v>0.18843543485758213</v>
+        <v>0.0</v>
       </c>
       <c r="CC7" s="2" t="n">
-        <v>0.5861213029533368</v>
+        <v>0.0</v>
       </c>
       <c r="CD7" s="2" t="n">
         <v>9.333333333333334</v>
@@ -2583,7 +2583,7 @@
         <v>19.30416666666667</v>
       </c>
       <c r="CY7" s="2" t="n">
-        <v>0.019032921810699585</v>
+        <v>0.0</v>
       </c>
       <c r="CZ7" s="2" t="n">
         <v>0.1009549795361528</v>
@@ -2601,7 +2601,7 @@
         <v>0.0216146899647282</v>
       </c>
       <c r="DE7" s="2" t="n">
-        <v>0.10095497953615278</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -2744,7 +2744,7 @@
         <v>0.0</v>
       </c>
       <c r="AU8" s="2" t="n">
-        <v>0.004629629629629629</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" s="2" t="n">
         <v>0.024291497975708502</v>
@@ -2774,7 +2774,7 @@
         <v>0.0</v>
       </c>
       <c r="BE8" s="2" t="n">
-        <v>0.01759530791788856</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" s="2" t="n">
         <v>3.75</v>
@@ -2825,10 +2825,10 @@
         <v>71.6831549489449</v>
       </c>
       <c r="BV8" s="2" t="n">
-        <v>138.9295138888889</v>
+        <v>0.0</v>
       </c>
       <c r="BW8" s="2" t="n">
-        <v>9.053888888888888</v>
+        <v>0.0</v>
       </c>
       <c r="BX8" s="2" t="n">
         <v>0.0379746835443038</v>
@@ -2843,10 +2843,10 @@
         <v>1.0</v>
       </c>
       <c r="CB8" s="2" t="n">
-        <v>0.13947929477579682</v>
+        <v>0.0</v>
       </c>
       <c r="CC8" s="2" t="n">
-        <v>0.021732669298070585</v>
+        <v>0.0</v>
       </c>
       <c r="CD8" s="2" t="n">
         <v>4.5</v>
@@ -2912,7 +2912,7 @@
         <v>29.463194444444447</v>
       </c>
       <c r="CY8" s="2" t="n">
-        <v>0.006558641975308642</v>
+        <v>0.0</v>
       </c>
       <c r="CZ8" s="2" t="n">
         <v>0.034788540245566164</v>
@@ -2930,7 +2930,7 @@
         <v>0.03298965577140525</v>
       </c>
       <c r="DE8" s="2" t="n">
-        <v>0.034788540245566164</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -3073,7 +3073,7 @@
         <v>0.0</v>
       </c>
       <c r="AU9" s="2" t="n">
-        <v>0.0030864197530864196</v>
+        <v>0.0</v>
       </c>
       <c r="AV9" s="2" t="n">
         <v>0.016194331983805668</v>
@@ -3103,7 +3103,7 @@
         <v>0.0</v>
       </c>
       <c r="BE9" s="2" t="n">
-        <v>0.011730205278592375</v>
+        <v>0.0</v>
       </c>
       <c r="BF9" s="2" t="n">
         <v>4.666666666666667</v>
@@ -3154,10 +3154,10 @@
         <v>2.020576584192089</v>
       </c>
       <c r="BV9" s="2" t="n">
-        <v>312.61</v>
+        <v>0.0</v>
       </c>
       <c r="BW9" s="2" t="n">
-        <v>11.822222222222223</v>
+        <v>0.0</v>
       </c>
       <c r="BX9" s="2" t="n">
         <v>0.4894514767932489</v>
@@ -3172,10 +3172,10 @@
         <v>0.028187606776392725</v>
       </c>
       <c r="CB9" s="2" t="n">
-        <v>0.3138470805759368</v>
+        <v>0.0</v>
       </c>
       <c r="CC9" s="2" t="n">
-        <v>0.02837768930864221</v>
+        <v>0.0</v>
       </c>
       <c r="CD9" s="2" t="n">
         <v>14.333333333333334</v>
@@ -3241,7 +3241,7 @@
         <v>16.21833333333333</v>
       </c>
       <c r="CY9" s="2" t="n">
-        <v>0.03935185185185185</v>
+        <v>0.0</v>
       </c>
       <c r="CZ9" s="2" t="n">
         <v>0.208731241473397</v>
@@ -3259,7 +3259,7 @@
         <v>0.01815951202648565</v>
       </c>
       <c r="DE9" s="2" t="n">
-        <v>0.208731241473397</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -3327,10 +3327,10 @@
         <v>6.061729752576267</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0.7236342592592593</v>
+        <v>0.0</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.027366255144032924</v>
+        <v>0.0</v>
       </c>
       <c r="X10" s="2" t="n">
         <v>0.888888888888889</v>
@@ -3345,10 +3345,10 @@
         <v>0.021140705082294542</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0.08773875058764279</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>0.03819637026785923</v>
+        <v>0.0</v>
       </c>
       <c r="AD10" s="2" t="n">
         <v>0.6201550387596899</v>
@@ -3402,7 +3402,7 @@
         <v>1.3268869731800765</v>
       </c>
       <c r="AU10" s="2" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.0</v>
       </c>
       <c r="AV10" s="2" t="n">
         <v>0.1659919028340081</v>
@@ -3432,7 +3432,7 @@
         <v>0.01166539621437779</v>
       </c>
       <c r="BE10" s="2" t="n">
-        <v>0.281524926686217</v>
+        <v>0.0</v>
       </c>
       <c r="BF10" s="2" t="n">
         <v>4.666666666666667</v>
@@ -3483,10 +3483,10 @@
         <v>2.020576584192089</v>
       </c>
       <c r="BV10" s="2" t="n">
-        <v>312.61</v>
+        <v>0.0</v>
       </c>
       <c r="BW10" s="2" t="n">
-        <v>11.822222222222223</v>
+        <v>0.0</v>
       </c>
       <c r="BX10" s="2" t="n">
         <v>0.4894514767932489</v>
@@ -3501,10 +3501,10 @@
         <v>0.028187606776392725</v>
       </c>
       <c r="CB10" s="2" t="n">
-        <v>0.3138470805759368</v>
+        <v>0.0</v>
       </c>
       <c r="CC10" s="2" t="n">
-        <v>0.02837768930864221</v>
+        <v>0.0</v>
       </c>
       <c r="CD10" s="2" t="n">
         <v>14.333333333333334</v>
@@ -3570,7 +3570,7 @@
         <v>16.21833333333333</v>
       </c>
       <c r="CY10" s="2" t="n">
-        <v>0.03935185185185185</v>
+        <v>0.0</v>
       </c>
       <c r="CZ10" s="2" t="n">
         <v>0.208731241473397</v>
@@ -3588,7 +3588,7 @@
         <v>0.01815951202648565</v>
       </c>
       <c r="DE10" s="2" t="n">
-        <v>0.208731241473397</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -3731,7 +3731,7 @@
         <v>0.0</v>
       </c>
       <c r="AU11" s="2" t="n">
-        <v>0.020061728395061727</v>
+        <v>0.0</v>
       </c>
       <c r="AV11" s="2" t="n">
         <v>0.10526315789473684</v>
@@ -3761,7 +3761,7 @@
         <v>0.0</v>
       </c>
       <c r="BE11" s="2" t="n">
-        <v>0.07624633431085044</v>
+        <v>0.0</v>
       </c>
       <c r="BF11" s="2" t="n">
         <v>12.25</v>
@@ -3812,10 +3812,10 @@
         <v>26.280764549924626</v>
       </c>
       <c r="BV11" s="2" t="n">
-        <v>139.7025</v>
+        <v>0.0</v>
       </c>
       <c r="BW11" s="2" t="n">
-        <v>-2.870833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="BX11" s="2" t="n">
         <v>0.06329113924050633</v>
@@ -3830,10 +3830,10 @@
         <v>0.36662399372129545</v>
       </c>
       <c r="CB11" s="2" t="n">
-        <v>0.14025533979770258</v>
+        <v>0.0</v>
       </c>
       <c r="CC11" s="2" t="n">
-        <v>-0.0068910577773688255</v>
+        <v>0.0</v>
       </c>
       <c r="CD11" s="2" t="n">
         <v>13.5</v>
@@ -3899,7 +3899,7 @@
         <v>0.84125</v>
       </c>
       <c r="CY11" s="2" t="n">
-        <v>0.03780864197530864</v>
+        <v>0.0</v>
       </c>
       <c r="CZ11" s="2" t="n">
         <v>0.20054570259208732</v>
@@ -3917,7 +3917,7 @@
         <v>9.419395432502963E-4</v>
       </c>
       <c r="DE11" s="2" t="n">
-        <v>0.20054570259208732</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -4141,10 +4141,10 @@
         <v>14.234958765398778</v>
       </c>
       <c r="BV12" s="2" t="n">
-        <v>170.0326388888889</v>
+        <v>0.0</v>
       </c>
       <c r="BW12" s="2" t="n">
-        <v>0.8380555555555556</v>
+        <v>0.0</v>
       </c>
       <c r="BX12" s="2" t="n">
         <v>0.10126582278481013</v>
@@ -4159,10 +4159,10 @@
         <v>0.19858164411900373</v>
       </c>
       <c r="CB12" s="2" t="n">
-        <v>0.17070550308019666</v>
+        <v>0.0</v>
       </c>
       <c r="CC12" s="2" t="n">
-        <v>0.0020116421203988147</v>
+        <v>0.0</v>
       </c>
       <c r="CD12" s="2" t="n">
         <v>4.25</v>
@@ -4228,7 +4228,7 @@
         <v>10.627847222222222</v>
       </c>
       <c r="CY12" s="2" t="n">
-        <v>0.005208333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="CZ12" s="2" t="n">
         <v>0.02762619372442019</v>
@@ -4246,7 +4246,7 @@
         <v>0.011899898434750585</v>
       </c>
       <c r="DE12" s="2" t="n">
-        <v>0.02762619372442019</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -4389,7 +4389,7 @@
         <v>0.0</v>
       </c>
       <c r="AU13" s="2" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.0</v>
       </c>
       <c r="AV13" s="2" t="n">
         <v>0.032388663967611336</v>
@@ -4419,7 +4419,7 @@
         <v>0.0</v>
       </c>
       <c r="BE13" s="2" t="n">
-        <v>0.02346041055718475</v>
+        <v>0.0</v>
       </c>
       <c r="BF13" s="2" t="n">
         <v>2.6666666666666665</v>
@@ -4470,10 +4470,10 @@
         <v>0.0</v>
       </c>
       <c r="BV13" s="2" t="n">
-        <v>170.82416666666666</v>
+        <v>0.0</v>
       </c>
       <c r="BW13" s="2" t="n">
-        <v>151.52601851851853</v>
+        <v>0.0</v>
       </c>
       <c r="BX13" s="2" t="n">
         <v>0.03375527426160337</v>
@@ -4488,10 +4488,10 @@
         <v>0.0</v>
       </c>
       <c r="CB13" s="2" t="n">
-        <v>0.17150016314305552</v>
+        <v>0.0</v>
       </c>
       <c r="CC13" s="2" t="n">
-        <v>0.36371827519968764</v>
+        <v>0.0</v>
       </c>
       <c r="CD13" s="2" t="n">
         <v>3.3333333333333335</v>
@@ -4557,7 +4557,7 @@
         <v>25.60675925925926</v>
       </c>
       <c r="CY13" s="2" t="n">
-        <v>0.008230452674897118</v>
+        <v>0.0</v>
       </c>
       <c r="CZ13" s="2" t="n">
         <v>0.043656207366984986</v>
@@ -4575,7 +4575,7 @@
         <v>0.02867164234268881</v>
       </c>
       <c r="DE13" s="2" t="n">
-        <v>0.043656207366984986</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -4718,7 +4718,7 @@
         <v>0.0</v>
       </c>
       <c r="AU14" s="2" t="n">
-        <v>0.02546296296296296</v>
+        <v>0.0</v>
       </c>
       <c r="AV14" s="2" t="n">
         <v>0.13360323886639677</v>
@@ -4748,7 +4748,7 @@
         <v>0.0</v>
       </c>
       <c r="BE14" s="2" t="n">
-        <v>0.0967741935483871</v>
+        <v>0.0</v>
       </c>
       <c r="BF14"/>
       <c r="BG14"/>
@@ -4943,7 +4943,7 @@
         <v>0.004</v>
       </c>
       <c r="AU15" s="2" t="n">
-        <v>0.03009259259259259</v>
+        <v>0.0</v>
       </c>
       <c r="AV15" s="2" t="n">
         <v>0.14979757085020243</v>
@@ -4973,7 +4973,7 @@
         <v>3.516620918033427E-5</v>
       </c>
       <c r="BE15" s="2" t="n">
-        <v>0.11436950146627566</v>
+        <v>0.0</v>
       </c>
       <c r="BF15" s="2" t="n">
         <v>12.25</v>
@@ -5024,10 +5024,10 @@
         <v>26.280764549924626</v>
       </c>
       <c r="BV15" s="2" t="n">
-        <v>139.7025</v>
+        <v>0.0</v>
       </c>
       <c r="BW15" s="2" t="n">
-        <v>-2.870833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="BX15" s="2" t="n">
         <v>0.06329113924050633</v>
@@ -5042,10 +5042,10 @@
         <v>0.36662399372129545</v>
       </c>
       <c r="CB15" s="2" t="n">
-        <v>0.14025533979770258</v>
+        <v>0.0</v>
       </c>
       <c r="CC15" s="2" t="n">
-        <v>-0.0068910577773688255</v>
+        <v>0.0</v>
       </c>
       <c r="CD15" s="2" t="n">
         <v>13.5</v>
@@ -5111,7 +5111,7 @@
         <v>0.84125</v>
       </c>
       <c r="CY15" s="2" t="n">
-        <v>0.03780864197530864</v>
+        <v>0.0</v>
       </c>
       <c r="CZ15" s="2" t="n">
         <v>0.20054570259208732</v>
@@ -5129,7 +5129,7 @@
         <v>9.419395432502963E-4</v>
       </c>
       <c r="DE15" s="2" t="n">
-        <v>0.20054570259208732</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -5197,10 +5197,10 @@
         <v>16.27513423509355</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>0.4306858710562414</v>
+        <v>0.0</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.003929612482853223</v>
+        <v>0.0</v>
       </c>
       <c r="X16" s="2" t="n">
         <v>0.888888888888889</v>
@@ -5215,10 +5215,10 @@
         <v>0.05676066520330067</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0.05221952904897893</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>0.005484745085298645</v>
+        <v>0.0</v>
       </c>
       <c r="AD16" s="2" t="n">
         <v>0.20588235294117646</v>
@@ -5272,7 +5272,7 @@
         <v>7.326748366013069</v>
       </c>
       <c r="AU16" s="2" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="AV16" s="2" t="n">
         <v>0.38461538461538464</v>
@@ -5302,7 +5302,7 @@
         <v>0.06441349141272197</v>
       </c>
       <c r="BE16" s="2" t="n">
-        <v>0.4750733137829912</v>
+        <v>0.0</v>
       </c>
       <c r="BF16" s="2" t="n">
         <v>22.666666666666668</v>
@@ -5353,10 +5353,10 @@
         <v>5.425044745031183</v>
       </c>
       <c r="BV16" s="2" t="n">
-        <v>186.0562962962963</v>
+        <v>0.0</v>
       </c>
       <c r="BW16" s="2" t="n">
-        <v>1.6975925925925928</v>
+        <v>0.0</v>
       </c>
       <c r="BX16" s="2" t="n">
         <v>0.5738396624472574</v>
@@ -5371,10 +5371,10 @@
         <v>0.07568088693773423</v>
       </c>
       <c r="CB16" s="2" t="n">
-        <v>0.1867925703444038</v>
+        <v>0.0</v>
       </c>
       <c r="CC16" s="2" t="n">
-        <v>0.004074847711345914</v>
+        <v>0.0</v>
       </c>
       <c r="CD16" s="2" t="n">
         <v>34.0</v>
@@ -5440,7 +5440,7 @@
         <v>83.03842592592589</v>
       </c>
       <c r="CY16" s="2" t="n">
-        <v>0.08667695473251029</v>
+        <v>0.0</v>
       </c>
       <c r="CZ16" s="2" t="n">
         <v>0.4597544338335607</v>
@@ -5458,7 +5458,7 @@
         <v>0.09297732777282638</v>
       </c>
       <c r="DE16" s="2" t="n">
-        <v>0.45975443383356074</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -5601,7 +5601,7 @@
         <v>0.2870959595959596</v>
       </c>
       <c r="AU17" s="2" t="n">
-        <v>0.03009259259259259</v>
+        <v>0.0</v>
       </c>
       <c r="AV17" s="2" t="n">
         <v>0.145748987854251</v>
@@ -5631,7 +5631,7 @@
         <v>0.002524019142495078</v>
       </c>
       <c r="BE17" s="2" t="n">
-        <v>0.11436950146627566</v>
+        <v>0.0</v>
       </c>
       <c r="BF17" s="2" t="n">
         <v>6.25</v>
@@ -5682,10 +5682,10 @@
         <v>5.852152990071137</v>
       </c>
       <c r="BV17" s="2" t="n">
-        <v>134.19256944444444</v>
+        <v>0.0</v>
       </c>
       <c r="BW17" s="2" t="n">
-        <v>26.206180555555555</v>
+        <v>0.0</v>
       </c>
       <c r="BX17" s="2" t="n">
         <v>0.27848101265822783</v>
@@ -5700,10 +5700,10 @@
         <v>0.08163916605287858</v>
       </c>
       <c r="CB17" s="2" t="n">
-        <v>0.13472360498743657</v>
+        <v>0.0</v>
       </c>
       <c r="CC17" s="2" t="n">
-        <v>0.0629044891724213</v>
+        <v>0.0</v>
       </c>
       <c r="CD17" s="2" t="n">
         <v>11.75</v>
@@ -5769,7 +5769,7 @@
         <v>1.6766666666666667</v>
       </c>
       <c r="CY17" s="2" t="n">
-        <v>0.02565586419753086</v>
+        <v>0.0</v>
       </c>
       <c r="CZ17" s="2" t="n">
         <v>0.13608458390177353</v>
@@ -5787,7 +5787,7 @@
         <v>0.0018773475592071284</v>
       </c>
       <c r="DE17" s="2" t="n">
-        <v>0.13608458390177353</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -6259,7 +6259,7 @@
         <v>0.0</v>
       </c>
       <c r="AU19" s="2" t="n">
-        <v>0.0030864197530864196</v>
+        <v>0.0</v>
       </c>
       <c r="AV19" s="2" t="n">
         <v>0.016194331983805668</v>
@@ -6289,7 +6289,7 @@
         <v>0.0</v>
       </c>
       <c r="BE19" s="2" t="n">
-        <v>0.011730205278592375</v>
+        <v>0.0</v>
       </c>
       <c r="BF19" s="2" t="n">
         <v>2.25</v>
@@ -6340,10 +6340,10 @@
         <v>14.234958765398778</v>
       </c>
       <c r="BV19" s="2" t="n">
-        <v>170.0326388888889</v>
+        <v>0.0</v>
       </c>
       <c r="BW19" s="2" t="n">
-        <v>0.8380555555555556</v>
+        <v>0.0</v>
       </c>
       <c r="BX19" s="2" t="n">
         <v>0.10126582278481013</v>
@@ -6358,10 +6358,10 @@
         <v>0.19858164411900373</v>
       </c>
       <c r="CB19" s="2" t="n">
-        <v>0.17070550308019666</v>
+        <v>0.0</v>
       </c>
       <c r="CC19" s="2" t="n">
-        <v>0.0020116421203988147</v>
+        <v>0.0</v>
       </c>
       <c r="CD19" s="2" t="n">
         <v>4.25</v>
@@ -6427,7 +6427,7 @@
         <v>10.627847222222222</v>
       </c>
       <c r="CY19" s="2" t="n">
-        <v>0.005208333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="CZ19" s="2" t="n">
         <v>0.02762619372442019</v>
@@ -6445,7 +6445,7 @@
         <v>0.011899898434750585</v>
       </c>
       <c r="DE19" s="2" t="n">
-        <v>0.02762619372442019</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -6669,10 +6669,10 @@
         <v>0.01771849276895105</v>
       </c>
       <c r="BV20" s="2" t="n">
-        <v>471.01618055555554</v>
+        <v>0.0</v>
       </c>
       <c r="BW20" s="2" t="n">
-        <v>176.354375</v>
+        <v>0.0</v>
       </c>
       <c r="BX20" s="2" t="n">
         <v>0.5949367088607594</v>
@@ -6687,10 +6687,10 @@
         <v>2.4717791483327907E-4</v>
       </c>
       <c r="CB20" s="2" t="n">
-        <v>0.4728801163474919</v>
+        <v>0.0</v>
       </c>
       <c r="CC20" s="2" t="n">
-        <v>0.4233154789260151</v>
+        <v>0.0</v>
       </c>
       <c r="CD20" s="2" t="n">
         <v>13.75</v>
@@ -6756,7 +6756,7 @@
         <v>38.75861111111111</v>
       </c>
       <c r="CY20" s="2" t="n">
-        <v>0.016203703703703703</v>
+        <v>0.0</v>
       </c>
       <c r="CZ20" s="2" t="n">
         <v>0.0859481582537517</v>
@@ -6774,7 +6774,7 @@
         <v>0.04339764451354039</v>
       </c>
       <c r="DE20" s="2" t="n">
-        <v>0.0859481582537517</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -6917,7 +6917,7 @@
         <v>0.0</v>
       </c>
       <c r="AU21" s="2" t="n">
-        <v>0.0015432098765432098</v>
+        <v>0.0</v>
       </c>
       <c r="AV21" s="2" t="n">
         <v>0.008097165991902834</v>
@@ -6947,7 +6947,7 @@
         <v>0.0</v>
       </c>
       <c r="BE21" s="2" t="n">
-        <v>0.005865102639296188</v>
+        <v>0.0</v>
       </c>
       <c r="BF21" s="2" t="n">
         <v>2.25</v>
@@ -6998,10 +6998,10 @@
         <v>14.234958765398778</v>
       </c>
       <c r="BV21" s="2" t="n">
-        <v>170.0326388888889</v>
+        <v>0.0</v>
       </c>
       <c r="BW21" s="2" t="n">
-        <v>0.8380555555555556</v>
+        <v>0.0</v>
       </c>
       <c r="BX21" s="2" t="n">
         <v>0.10126582278481013</v>
@@ -7016,10 +7016,10 @@
         <v>0.19858164411900373</v>
       </c>
       <c r="CB21" s="2" t="n">
-        <v>0.17070550308019666</v>
+        <v>0.0</v>
       </c>
       <c r="CC21" s="2" t="n">
-        <v>0.0020116421203988147</v>
+        <v>0.0</v>
       </c>
       <c r="CD21" s="2" t="n">
         <v>4.25</v>
@@ -7085,7 +7085,7 @@
         <v>10.627847222222222</v>
       </c>
       <c r="CY21" s="2" t="n">
-        <v>0.005208333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="CZ21" s="2" t="n">
         <v>0.02762619372442019</v>
@@ -7103,7 +7103,7 @@
         <v>0.011899898434750585</v>
       </c>
       <c r="DE21" s="2" t="n">
-        <v>0.02762619372442019</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -7246,7 +7246,7 @@
         <v>0.0</v>
       </c>
       <c r="AU22" s="2" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="AV22" s="2" t="n">
         <v>0.09716599190283401</v>
@@ -7276,7 +7276,7 @@
         <v>0.0</v>
       </c>
       <c r="BE22" s="2" t="n">
-        <v>0.07038123167155425</v>
+        <v>0.0</v>
       </c>
       <c r="BF22" s="2" t="n">
         <v>16.25</v>
@@ -7327,10 +7327,10 @@
         <v>3.071174972139459</v>
       </c>
       <c r="BV22" s="2" t="n">
-        <v>461.53465277777775</v>
+        <v>0.0</v>
       </c>
       <c r="BW22" s="2" t="n">
-        <v>165.75256944444442</v>
+        <v>0.0</v>
       </c>
       <c r="BX22" s="2" t="n">
         <v>0.22784810126582278</v>
@@ -7345,10 +7345,10 @@
         <v>0.0428437472419685</v>
       </c>
       <c r="CB22" s="2" t="n">
-        <v>0.46336106765277574</v>
+        <v>0.0</v>
       </c>
       <c r="CC22" s="2" t="n">
-        <v>0.3978672392878973</v>
+        <v>0.0</v>
       </c>
       <c r="CD22" s="2" t="n">
         <v>20.75</v>
@@ -7414,7 +7414,7 @@
         <v>1.6879166666666665</v>
       </c>
       <c r="CY22" s="2" t="n">
-        <v>0.060570987654320986</v>
+        <v>0.0</v>
       </c>
       <c r="CZ22" s="2" t="n">
         <v>0.32128240109140516</v>
@@ -7432,7 +7432,7 @@
         <v>0.0018899440761302377</v>
       </c>
       <c r="DE22" s="2" t="n">
-        <v>0.32128240109140516</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -7500,10 +7500,10 @@
         <v>56.93983506159511</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>0.5247920953360768</v>
+        <v>0.0</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.00258659122085048</v>
+        <v>0.0</v>
       </c>
       <c r="X23" s="2" t="n">
         <v>1.0</v>
@@ -7518,10 +7518,10 @@
         <v>0.19858164411900373</v>
       </c>
       <c r="AB23" s="2" t="n">
-        <v>0.06362966121890301</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="2" t="n">
-        <v>0.0036102271020717817</v>
+        <v>0.0</v>
       </c>
       <c r="AD23" s="2" t="n">
         <v>0.3970588235294118</v>
@@ -7575,7 +7575,7 @@
         <v>5.313923611111111</v>
       </c>
       <c r="AU23" s="2" t="n">
-        <v>0.016203703703703703</v>
+        <v>0.0</v>
       </c>
       <c r="AV23" s="2" t="n">
         <v>0.048582995951417005</v>
@@ -7605,7 +7605,7 @@
         <v>0.04671763731916265</v>
       </c>
       <c r="BE23" s="2" t="n">
-        <v>0.061583577712609965</v>
+        <v>0.0</v>
       </c>
       <c r="BF23" s="2" t="n">
         <v>2.25</v>
@@ -7656,10 +7656,10 @@
         <v>14.234958765398778</v>
       </c>
       <c r="BV23" s="2" t="n">
-        <v>170.0326388888889</v>
+        <v>0.0</v>
       </c>
       <c r="BW23" s="2" t="n">
-        <v>0.8380555555555556</v>
+        <v>0.0</v>
       </c>
       <c r="BX23" s="2" t="n">
         <v>0.10126582278481013</v>
@@ -7674,10 +7674,10 @@
         <v>0.19858164411900373</v>
       </c>
       <c r="CB23" s="2" t="n">
-        <v>0.17070550308019666</v>
+        <v>0.0</v>
       </c>
       <c r="CC23" s="2" t="n">
-        <v>0.0020116421203988147</v>
+        <v>0.0</v>
       </c>
       <c r="CD23" s="2" t="n">
         <v>4.25</v>
@@ -7743,7 +7743,7 @@
         <v>10.627847222222222</v>
       </c>
       <c r="CY23" s="2" t="n">
-        <v>0.005208333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="CZ23" s="2" t="n">
         <v>0.02762619372442019</v>
@@ -7761,7 +7761,7 @@
         <v>0.011899898434750585</v>
       </c>
       <c r="DE23" s="2" t="n">
-        <v>0.02762619372442019</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -7829,10 +7829,10 @@
         <v>0.09971178290187624</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>0.7837341392318244</v>
+        <v>0.0</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.21510588134430728</v>
+        <v>0.0</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>1.0</v>
@@ -7847,10 +7847,10 @@
         <v>3.477517938938871E-4</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0.0950257029558984</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0.3002334023189457</v>
+        <v>0.0</v>
       </c>
       <c r="AD24" s="2" t="n">
         <v>0.6833333333333333</v>
@@ -7904,7 +7904,7 @@
         <v>17.888993055555556</v>
       </c>
       <c r="AU24" s="2" t="n">
-        <v>0.024691358024691357</v>
+        <v>0.0</v>
       </c>
       <c r="AV24" s="2" t="n">
         <v>0.07692307692307693</v>
@@ -7934,7 +7934,7 @@
         <v>0.15727201795430346</v>
       </c>
       <c r="BE24" s="2" t="n">
-        <v>0.093841642228739</v>
+        <v>0.0</v>
       </c>
       <c r="BF24" s="2" t="n">
         <v>1.75</v>
@@ -7985,10 +7985,10 @@
         <v>0.02492794572546906</v>
       </c>
       <c r="BV24" s="2" t="n">
-        <v>253.9298611111111</v>
+        <v>0.0</v>
       </c>
       <c r="BW24" s="2" t="n">
-        <v>69.69430555555556</v>
+        <v>0.0</v>
       </c>
       <c r="BX24" s="2" t="n">
         <v>0.10126582278481013</v>
@@ -8003,10 +8003,10 @@
         <v>3.477517938938871E-4</v>
       </c>
       <c r="CB24" s="2" t="n">
-        <v>0.2549347288339315</v>
+        <v>0.0</v>
       </c>
       <c r="CC24" s="2" t="n">
-        <v>0.16729201265727622</v>
+        <v>0.0</v>
       </c>
       <c r="CD24" s="2" t="n">
         <v>3.75</v>
@@ -8072,7 +8072,7 @@
         <v>35.778958333333335</v>
       </c>
       <c r="CY24" s="2" t="n">
-        <v>0.008680555555555556</v>
+        <v>0.0</v>
       </c>
       <c r="CZ24" s="2" t="n">
         <v>0.04604365620736698</v>
@@ -8090,7 +8090,7 @@
         <v>0.040061355923294364</v>
       </c>
       <c r="DE24" s="2" t="n">
-        <v>0.04604365620736699</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -8158,10 +8158,10 @@
         <v>0.006607644348436275</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>0.9695627572016461</v>
+        <v>0.0</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.029532321673525378</v>
+        <v>0.0</v>
       </c>
       <c r="X25" s="2" t="n">
         <v>0.8297872340425533</v>
@@ -8176,10 +8176,10 @@
         <v>2.304462029169355E-5</v>
       </c>
       <c r="AB25" s="2" t="n">
-        <v>0.11755693410682586</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>0.04121965126666081</v>
+        <v>0.0</v>
       </c>
       <c r="AD25" s="2" t="n">
         <v>0.6409090909090909</v>
@@ -8233,7 +8233,7 @@
         <v>0.017180851063829786</v>
       </c>
       <c r="AU25" s="2" t="n">
-        <v>0.05632716049382716</v>
+        <v>0.0</v>
       </c>
       <c r="AV25" s="2" t="n">
         <v>0.10526315789473684</v>
@@ -8263,7 +8263,7 @@
         <v>1.510463506017017E-4</v>
       </c>
       <c r="BE25" s="2" t="n">
-        <v>0.21407624633431085</v>
+        <v>0.0</v>
       </c>
       <c r="BF25" s="2" t="n">
         <v>2.0</v>
@@ -8314,10 +8314,10 @@
         <v>0.01771849276895105</v>
       </c>
       <c r="BV25" s="2" t="n">
-        <v>471.01618055555554</v>
+        <v>0.0</v>
       </c>
       <c r="BW25" s="2" t="n">
-        <v>176.354375</v>
+        <v>0.0</v>
       </c>
       <c r="BX25" s="2" t="n">
         <v>0.5949367088607594</v>
@@ -8332,10 +8332,10 @@
         <v>2.4717791483327907E-4</v>
       </c>
       <c r="CB25" s="2" t="n">
-        <v>0.4728801163474919</v>
+        <v>0.0</v>
       </c>
       <c r="CC25" s="2" t="n">
-        <v>0.4233154789260151</v>
+        <v>0.0</v>
       </c>
       <c r="CD25" s="2" t="n">
         <v>13.75</v>
@@ -8401,7 +8401,7 @@
         <v>38.75861111111111</v>
       </c>
       <c r="CY25" s="2" t="n">
-        <v>0.016203703703703703</v>
+        <v>0.0</v>
       </c>
       <c r="CZ25" s="2" t="n">
         <v>0.0859481582537517</v>
@@ -8419,7 +8419,7 @@
         <v>0.04339764451354039</v>
       </c>
       <c r="DE25" s="2" t="n">
-        <v>0.0859481582537517</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -8562,7 +8562,7 @@
         <v>0.0</v>
       </c>
       <c r="AU26" s="2" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.0</v>
       </c>
       <c r="AV26" s="2" t="n">
         <v>0.032388663967611336</v>
@@ -8592,7 +8592,7 @@
         <v>0.0</v>
       </c>
       <c r="BE26" s="2" t="n">
-        <v>0.02346041055718475</v>
+        <v>0.0</v>
       </c>
       <c r="BF26" s="2" t="n">
         <v>1.75</v>
@@ -8643,10 +8643,10 @@
         <v>0.02492794572546906</v>
       </c>
       <c r="BV26" s="2" t="n">
-        <v>253.9298611111111</v>
+        <v>0.0</v>
       </c>
       <c r="BW26" s="2" t="n">
-        <v>69.69430555555556</v>
+        <v>0.0</v>
       </c>
       <c r="BX26" s="2" t="n">
         <v>0.10126582278481013</v>
@@ -8661,10 +8661,10 @@
         <v>3.477517938938871E-4</v>
       </c>
       <c r="CB26" s="2" t="n">
-        <v>0.2549347288339315</v>
+        <v>0.0</v>
       </c>
       <c r="CC26" s="2" t="n">
-        <v>0.16729201265727622</v>
+        <v>0.0</v>
       </c>
       <c r="CD26" s="2" t="n">
         <v>3.75</v>
@@ -8730,7 +8730,7 @@
         <v>35.778958333333335</v>
       </c>
       <c r="CY26" s="2" t="n">
-        <v>0.008680555555555556</v>
+        <v>0.0</v>
       </c>
       <c r="CZ26" s="2" t="n">
         <v>0.04604365620736698</v>
@@ -8748,7 +8748,7 @@
         <v>0.040061355923294364</v>
       </c>
       <c r="DE26" s="2" t="n">
-        <v>0.04604365620736699</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -8891,7 +8891,7 @@
         <v>0.0015909090909090907</v>
       </c>
       <c r="AU27" s="2" t="n">
-        <v>0.047839506172839504</v>
+        <v>0.0</v>
       </c>
       <c r="AV27" s="2" t="n">
         <v>0.2388663967611336</v>
@@ -8921,7 +8921,7 @@
         <v>1.398656046945113E-5</v>
       </c>
       <c r="BE27" s="2" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.0</v>
       </c>
       <c r="BF27" s="2" t="n">
         <v>9.25</v>
@@ -8972,10 +8972,10 @@
         <v>13.587512733346115</v>
       </c>
       <c r="BV27" s="2" t="n">
-        <v>364.24090277777776</v>
+        <v>0.0</v>
       </c>
       <c r="BW27" s="2" t="n">
-        <v>416.60270833333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX27" s="2" t="n">
         <v>0.27848101265822783</v>
@@ -8990,10 +8990,10 @@
         <v>0.18954959143502526</v>
       </c>
       <c r="CB27" s="2" t="n">
-        <v>0.36568230051229705</v>
+        <v>0.0</v>
       </c>
       <c r="CC27" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD27" s="2" t="n">
         <v>14.75</v>
@@ -9059,7 +9059,7 @@
         <v>103.49361111111112</v>
       </c>
       <c r="CY27" s="2" t="n">
-        <v>0.046489197530864196</v>
+        <v>0.0</v>
       </c>
       <c r="CZ27" s="2" t="n">
         <v>0.2465893587994543</v>
@@ -9077,7 +9077,7 @@
         <v>0.11588080211509515</v>
       </c>
       <c r="DE27" s="2" t="n">
-        <v>0.2465893587994543</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -9220,7 +9220,7 @@
         <v>0.0</v>
       </c>
       <c r="AU28" s="2" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.0</v>
       </c>
       <c r="AV28" s="2" t="n">
         <v>0.032388663967611336</v>
@@ -9250,7 +9250,7 @@
         <v>0.0</v>
       </c>
       <c r="BE28" s="2" t="n">
-        <v>0.02346041055718475</v>
+        <v>0.0</v>
       </c>
       <c r="BF28" s="2" t="n">
         <v>3.3333333333333335</v>
@@ -9301,10 +9301,10 @@
         <v>0.0</v>
       </c>
       <c r="BV28" s="2" t="n">
-        <v>378.61462962962963</v>
+        <v>0.0</v>
       </c>
       <c r="BW28" s="2" t="n">
-        <v>53.38537037037037</v>
+        <v>0.0</v>
       </c>
       <c r="BX28" s="2" t="n">
         <v>0.016877637130801686</v>
@@ -9319,10 +9319,10 @@
         <v>0.0</v>
       </c>
       <c r="CB28" s="2" t="n">
-        <v>0.38011290800869724</v>
+        <v>0.0</v>
       </c>
       <c r="CC28" s="2" t="n">
-        <v>0.12814455907870745</v>
+        <v>0.0</v>
       </c>
       <c r="CD28" s="2" t="n">
         <v>3.6666666666666665</v>
@@ -9388,7 +9388,7 @@
         <v>0.0</v>
       </c>
       <c r="CY28" s="2" t="n">
-        <v>0.004629629629629629</v>
+        <v>0.0</v>
       </c>
       <c r="CZ28" s="2" t="n">
         <v>0.02455661664392906</v>
@@ -9406,7 +9406,7 @@
         <v>0.0</v>
       </c>
       <c r="DE28" s="2" t="n">
-        <v>0.02455661664392906</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -9474,10 +9474,10 @@
         <v>0.0</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>0.39542631172839504</v>
+        <v>0.0</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.35075467249657066</v>
+        <v>0.0</v>
       </c>
       <c r="X29" s="2" t="n">
         <v>0.888888888888889</v>
@@ -9492,10 +9492,10 @@
         <v>0.0</v>
       </c>
       <c r="AB29" s="2" t="n">
-        <v>0.047944400222349214</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>0.4895648042944591</v>
+        <v>0.0</v>
       </c>
       <c r="AD29" s="2" t="n">
         <v>0.16666666666666669</v>
@@ -9549,7 +9549,7 @@
         <v>38.41013888888889</v>
       </c>
       <c r="AU29" s="2" t="n">
-        <v>0.0030864197530864196</v>
+        <v>0.0</v>
       </c>
       <c r="AV29" s="2" t="n">
         <v>0.012145748987854251</v>
@@ -9579,7 +9579,7 @@
         <v>0.3376847447030897</v>
       </c>
       <c r="BE29" s="2" t="n">
-        <v>0.011730205278592375</v>
+        <v>0.0</v>
       </c>
       <c r="BF29" s="2" t="n">
         <v>2.6666666666666665</v>
@@ -9630,10 +9630,10 @@
         <v>0.0</v>
       </c>
       <c r="BV29" s="2" t="n">
-        <v>170.82416666666666</v>
+        <v>0.0</v>
       </c>
       <c r="BW29" s="2" t="n">
-        <v>151.52601851851853</v>
+        <v>0.0</v>
       </c>
       <c r="BX29" s="2" t="n">
         <v>0.03375527426160337</v>
@@ -9648,10 +9648,10 @@
         <v>0.0</v>
       </c>
       <c r="CB29" s="2" t="n">
-        <v>0.17150016314305552</v>
+        <v>0.0</v>
       </c>
       <c r="CC29" s="2" t="n">
-        <v>0.36371827519968764</v>
+        <v>0.0</v>
       </c>
       <c r="CD29" s="2" t="n">
         <v>3.3333333333333335</v>
@@ -9717,7 +9717,7 @@
         <v>25.60675925925926</v>
       </c>
       <c r="CY29" s="2" t="n">
-        <v>0.008230452674897118</v>
+        <v>0.0</v>
       </c>
       <c r="CZ29" s="2" t="n">
         <v>0.043656207366984986</v>
@@ -9735,7 +9735,7 @@
         <v>0.02867164234268881</v>
       </c>
       <c r="DE29" s="2" t="n">
-        <v>0.043656207366984986</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -9878,7 +9878,7 @@
         <v>0.0</v>
       </c>
       <c r="AU30" s="2" t="n">
-        <v>0.004629629629629629</v>
+        <v>0.0</v>
       </c>
       <c r="AV30" s="2" t="n">
         <v>0.024291497975708502</v>
@@ -9908,7 +9908,7 @@
         <v>0.0</v>
       </c>
       <c r="BE30" s="2" t="n">
-        <v>0.01759530791788856</v>
+        <v>0.0</v>
       </c>
       <c r="BF30" s="2" t="n">
         <v>3.3333333333333335</v>
@@ -9959,10 +9959,10 @@
         <v>0.0</v>
       </c>
       <c r="BV30" s="2" t="n">
-        <v>378.61462962962963</v>
+        <v>0.0</v>
       </c>
       <c r="BW30" s="2" t="n">
-        <v>53.38537037037037</v>
+        <v>0.0</v>
       </c>
       <c r="BX30" s="2" t="n">
         <v>0.016877637130801686</v>
@@ -9977,10 +9977,10 @@
         <v>0.0</v>
       </c>
       <c r="CB30" s="2" t="n">
-        <v>0.38011290800869724</v>
+        <v>0.0</v>
       </c>
       <c r="CC30" s="2" t="n">
-        <v>0.12814455907870745</v>
+        <v>0.0</v>
       </c>
       <c r="CD30" s="2" t="n">
         <v>3.6666666666666665</v>
@@ -10046,7 +10046,7 @@
         <v>0.0</v>
       </c>
       <c r="CY30" s="2" t="n">
-        <v>0.004629629629629629</v>
+        <v>0.0</v>
       </c>
       <c r="CZ30" s="2" t="n">
         <v>0.02455661664392906</v>
@@ -10064,7 +10064,7 @@
         <v>0.0</v>
       </c>
       <c r="DE30" s="2" t="n">
-        <v>0.02455661664392906</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -10207,7 +10207,7 @@
         <v>17.056277777777776</v>
       </c>
       <c r="AU31" s="2" t="n">
-        <v>0.010030864197530864</v>
+        <v>0.0</v>
       </c>
       <c r="AV31" s="2" t="n">
         <v>0.020242914979757085</v>
@@ -10237,7 +10237,7 @@
         <v>0.14995115804280507</v>
       </c>
       <c r="BE31" s="2" t="n">
-        <v>0.03812316715542522</v>
+        <v>0.0</v>
       </c>
       <c r="BF31" s="2" t="n">
         <v>2.6666666666666665</v>
@@ -10288,10 +10288,10 @@
         <v>0.2823468191905247</v>
       </c>
       <c r="BV31" s="2" t="n">
-        <v>179.05472222222224</v>
+        <v>0.0</v>
       </c>
       <c r="BW31" s="2" t="n">
-        <v>245.80425925925928</v>
+        <v>0.0</v>
       </c>
       <c r="BX31" s="2" t="n">
         <v>0.4219409282700422</v>
@@ -10306,10 +10306,10 @@
         <v>0.003938816858599784</v>
       </c>
       <c r="CB31" s="2" t="n">
-        <v>0.17976328918710138</v>
+        <v>0.0</v>
       </c>
       <c r="CC31" s="2" t="n">
-        <v>0.5900207904135507</v>
+        <v>0.0</v>
       </c>
       <c r="CD31" s="2" t="n">
         <v>11.0</v>
@@ -10375,7 +10375,7 @@
         <v>259.90305555555557</v>
       </c>
       <c r="CY31" s="2" t="n">
-        <v>0.02314814814814815</v>
+        <v>0.0</v>
       </c>
       <c r="CZ31" s="2" t="n">
         <v>0.12278308321964529</v>
@@ -10393,7 +10393,7 @@
         <v>0.291010954459859</v>
       </c>
       <c r="DE31" s="2" t="n">
-        <v>0.1227830832196453</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -11194,7 +11194,7 @@
         <v>4.861111111111111E-4</v>
       </c>
       <c r="AU34" s="2" t="n">
-        <v>0.0038580246913580245</v>
+        <v>0.0</v>
       </c>
       <c r="AV34" s="2" t="n">
         <v>0.012145748987854251</v>
@@ -11224,7 +11224,7 @@
         <v>4.273671254554512E-6</v>
       </c>
       <c r="BE34" s="2" t="n">
-        <v>0.014662756598240468</v>
+        <v>0.0</v>
       </c>
       <c r="BF34" s="2" t="n">
         <v>1.75</v>
@@ -11275,10 +11275,10 @@
         <v>0.02492794572546906</v>
       </c>
       <c r="BV34" s="2" t="n">
-        <v>253.9298611111111</v>
+        <v>0.0</v>
       </c>
       <c r="BW34" s="2" t="n">
-        <v>69.69430555555556</v>
+        <v>0.0</v>
       </c>
       <c r="BX34" s="2" t="n">
         <v>0.10126582278481013</v>
@@ -11293,10 +11293,10 @@
         <v>3.477517938938871E-4</v>
       </c>
       <c r="CB34" s="2" t="n">
-        <v>0.2549347288339315</v>
+        <v>0.0</v>
       </c>
       <c r="CC34" s="2" t="n">
-        <v>0.16729201265727622</v>
+        <v>0.0</v>
       </c>
       <c r="CD34" s="2" t="n">
         <v>3.75</v>
@@ -11362,7 +11362,7 @@
         <v>35.778958333333335</v>
       </c>
       <c r="CY34" s="2" t="n">
-        <v>0.008680555555555556</v>
+        <v>0.0</v>
       </c>
       <c r="CZ34" s="2" t="n">
         <v>0.04604365620736698</v>
@@ -11380,7 +11380,7 @@
         <v>0.040061355923294364</v>
       </c>
       <c r="DE34" s="2" t="n">
-        <v>0.04604365620736699</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -11448,10 +11448,10 @@
         <v>0.0</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>0.8764227537722907</v>
+        <v>0.0</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.12357724622770919</v>
+        <v>0.0</v>
       </c>
       <c r="X35" s="2" t="n">
         <v>0.888888888888889</v>
@@ -11466,10 +11466,10 @@
         <v>0.0</v>
       </c>
       <c r="AB35" s="2" t="n">
-        <v>0.1062639536736087</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>0.17248257859004895</v>
+        <v>0.0</v>
       </c>
       <c r="AD35" s="2" t="n">
         <v>0.03030303030303033</v>
@@ -11523,7 +11523,7 @@
         <v>0.0</v>
       </c>
       <c r="AU35" s="2" t="n">
-        <v>0.0030864197530864196</v>
+        <v>0.0</v>
       </c>
       <c r="AV35" s="2" t="n">
         <v>0.016194331983805668</v>
@@ -11553,7 +11553,7 @@
         <v>0.0</v>
       </c>
       <c r="BE35" s="2" t="n">
-        <v>0.011730205278592375</v>
+        <v>0.0</v>
       </c>
       <c r="BF35" s="2" t="n">
         <v>3.3333333333333335</v>
@@ -11604,10 +11604,10 @@
         <v>0.0</v>
       </c>
       <c r="BV35" s="2" t="n">
-        <v>378.61462962962963</v>
+        <v>0.0</v>
       </c>
       <c r="BW35" s="2" t="n">
-        <v>53.38537037037037</v>
+        <v>0.0</v>
       </c>
       <c r="BX35" s="2" t="n">
         <v>0.016877637130801686</v>
@@ -11622,10 +11622,10 @@
         <v>0.0</v>
       </c>
       <c r="CB35" s="2" t="n">
-        <v>0.38011290800869724</v>
+        <v>0.0</v>
       </c>
       <c r="CC35" s="2" t="n">
-        <v>0.12814455907870745</v>
+        <v>0.0</v>
       </c>
       <c r="CD35" s="2" t="n">
         <v>3.6666666666666665</v>
@@ -11691,7 +11691,7 @@
         <v>0.0</v>
       </c>
       <c r="CY35" s="2" t="n">
-        <v>0.004629629629629629</v>
+        <v>0.0</v>
       </c>
       <c r="CZ35" s="2" t="n">
         <v>0.02455661664392906</v>
@@ -11709,7 +11709,7 @@
         <v>0.0</v>
       </c>
       <c r="DE35" s="2" t="n">
-        <v>0.02455661664392906</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -11852,7 +11852,7 @@
         <v>0.0</v>
       </c>
       <c r="AU36" s="2" t="n">
-        <v>0.015432098765432098</v>
+        <v>0.0</v>
       </c>
       <c r="AV36" s="2" t="n">
         <v>0.08097165991902834</v>
@@ -11882,7 +11882,7 @@
         <v>0.0</v>
       </c>
       <c r="BE36" s="2" t="n">
-        <v>0.05865102639296187</v>
+        <v>0.0</v>
       </c>
       <c r="BF36" s="2" t="n">
         <v>2.6666666666666665</v>
@@ -11933,10 +11933,10 @@
         <v>0.0</v>
       </c>
       <c r="BV36" s="2" t="n">
-        <v>170.82416666666666</v>
+        <v>0.0</v>
       </c>
       <c r="BW36" s="2" t="n">
-        <v>151.52601851851853</v>
+        <v>0.0</v>
       </c>
       <c r="BX36" s="2" t="n">
         <v>0.03375527426160337</v>
@@ -11951,10 +11951,10 @@
         <v>0.0</v>
       </c>
       <c r="CB36" s="2" t="n">
-        <v>0.17150016314305552</v>
+        <v>0.0</v>
       </c>
       <c r="CC36" s="2" t="n">
-        <v>0.36371827519968764</v>
+        <v>0.0</v>
       </c>
       <c r="CD36" s="2" t="n">
         <v>3.3333333333333335</v>
@@ -12020,7 +12020,7 @@
         <v>25.60675925925926</v>
       </c>
       <c r="CY36" s="2" t="n">
-        <v>0.008230452674897118</v>
+        <v>0.0</v>
       </c>
       <c r="CZ36" s="2" t="n">
         <v>0.043656207366984986</v>
@@ -12038,7 +12038,7 @@
         <v>0.02867164234268881</v>
       </c>
       <c r="DE36" s="2" t="n">
-        <v>0.043656207366984986</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -12106,10 +12106,10 @@
         <v>46.515014299326076</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>0.46770811899862824</v>
+        <v>0.0</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.013138074417009604</v>
+        <v>0.0</v>
       </c>
       <c r="X37" s="2" t="n">
         <v>0.888888888888889</v>
@@ -12124,10 +12124,10 @@
         <v>0.16222435498429022</v>
       </c>
       <c r="AB37" s="2" t="n">
-        <v>0.05670837923378918</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0.018337428793146673</v>
+        <v>0.0</v>
       </c>
       <c r="AD37" s="2" t="n">
         <v>0.1568627450980392</v>
@@ -12181,7 +12181,7 @@
         <v>9.432283950617284</v>
       </c>
       <c r="AU37" s="2" t="n">
-        <v>0.05324074074074074</v>
+        <v>0.0</v>
       </c>
       <c r="AV37" s="2" t="n">
         <v>0.24696356275303644</v>
@@ -12211,7 +12211,7 @@
         <v>0.08292441761392928</v>
       </c>
       <c r="BE37" s="2" t="n">
-        <v>0.20234604105571846</v>
+        <v>0.0</v>
       </c>
       <c r="BF37" s="2" t="n">
         <v>14.0</v>
@@ -12262,10 +12262,10 @@
         <v>15.505004766442026</v>
       </c>
       <c r="BV37" s="2" t="n">
-        <v>202.0499074074074</v>
+        <v>0.0</v>
       </c>
       <c r="BW37" s="2" t="n">
-        <v>5.675648148148149</v>
+        <v>0.0</v>
       </c>
       <c r="BX37" s="2" t="n">
         <v>0.1518987341772152</v>
@@ -12280,10 +12280,10 @@
         <v>0.21629913997905365</v>
       </c>
       <c r="CB37" s="2" t="n">
-        <v>0.20284947241116139</v>
+        <v>0.0</v>
       </c>
       <c r="CC37" s="2" t="n">
-        <v>0.013623646785337106</v>
+        <v>0.0</v>
       </c>
       <c r="CD37" s="2" t="n">
         <v>17.0</v>
@@ -12349,7 +12349,7 @@
         <v>28.299166666666668</v>
       </c>
       <c r="CY37" s="2" t="n">
-        <v>0.031635802469135804</v>
+        <v>0.0</v>
       </c>
       <c r="CZ37" s="2" t="n">
         <v>0.16780354706684855</v>
@@ -12367,7 +12367,7 @@
         <v>0.03168630505124994</v>
       </c>
       <c r="DE37" s="2" t="n">
-        <v>0.16780354706684858</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -12510,7 +12510,7 @@
         <v>0.0</v>
       </c>
       <c r="AU38" s="2" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.0</v>
       </c>
       <c r="AV38" s="2" t="n">
         <v>0.032388663967611336</v>
@@ -12540,7 +12540,7 @@
         <v>0.0</v>
       </c>
       <c r="BE38" s="2" t="n">
-        <v>0.02346041055718475</v>
+        <v>0.0</v>
       </c>
       <c r="BF38" s="2" t="n">
         <v>11.75</v>
@@ -12591,10 +12591,10 @@
         <v>3.603842510337383</v>
       </c>
       <c r="BV38" s="2" t="n">
-        <v>324.90597222222226</v>
+        <v>0.0</v>
       </c>
       <c r="BW38" s="2" t="n">
-        <v>34.27909722222222</v>
+        <v>0.0</v>
       </c>
       <c r="BX38" s="2" t="n">
         <v>0.4936708860759494</v>
@@ -12609,10 +12609,10 @@
         <v>0.05027460793130768</v>
       </c>
       <c r="CB38" s="2" t="n">
-        <v>0.3261917112172703</v>
+        <v>0.0</v>
       </c>
       <c r="CC38" s="2" t="n">
-        <v>0.08228246369150997</v>
+        <v>0.0</v>
       </c>
       <c r="CD38" s="2" t="n">
         <v>21.5</v>
@@ -12678,7 +12678,7 @@
         <v>35.473888888888894</v>
       </c>
       <c r="CY38" s="2" t="n">
-        <v>0.04533179012345679</v>
+        <v>0.0</v>
       </c>
       <c r="CZ38" s="2" t="n">
         <v>0.24045020463847203</v>
@@ -12696,7 +12696,7 @@
         <v>0.03971977259710165</v>
       </c>
       <c r="DE38" s="2" t="n">
-        <v>0.24045020463847203</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -12839,7 +12839,7 @@
         <v>0.29080246913580243</v>
       </c>
       <c r="AU39" s="2" t="n">
-        <v>0.05169753086419753</v>
+        <v>0.0</v>
       </c>
       <c r="AV39" s="2" t="n">
         <v>0.2591093117408907</v>
@@ -12869,7 +12869,7 @@
         <v>0.002556605114946832</v>
       </c>
       <c r="BE39" s="2" t="n">
-        <v>0.19648093841642228</v>
+        <v>0.0</v>
       </c>
       <c r="BF39" s="2" t="n">
         <v>16.25</v>
@@ -12920,10 +12920,10 @@
         <v>3.071174972139459</v>
       </c>
       <c r="BV39" s="2" t="n">
-        <v>461.53465277777775</v>
+        <v>0.0</v>
       </c>
       <c r="BW39" s="2" t="n">
-        <v>165.75256944444442</v>
+        <v>0.0</v>
       </c>
       <c r="BX39" s="2" t="n">
         <v>0.22784810126582278</v>
@@ -12938,10 +12938,10 @@
         <v>0.0428437472419685</v>
       </c>
       <c r="CB39" s="2" t="n">
-        <v>0.46336106765277574</v>
+        <v>0.0</v>
       </c>
       <c r="CC39" s="2" t="n">
-        <v>0.3978672392878973</v>
+        <v>0.0</v>
       </c>
       <c r="CD39" s="2" t="n">
         <v>20.75</v>
@@ -13007,7 +13007,7 @@
         <v>1.6879166666666665</v>
       </c>
       <c r="CY39" s="2" t="n">
-        <v>0.060570987654320986</v>
+        <v>0.0</v>
       </c>
       <c r="CZ39" s="2" t="n">
         <v>0.32128240109140516</v>
@@ -13025,7 +13025,7 @@
         <v>0.0018899440761302377</v>
       </c>
       <c r="DE39" s="2" t="n">
-        <v>0.32128240109140516</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -13093,10 +13093,10 @@
         <v>0.847040457571574</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>0.41447852366255145</v>
+        <v>0.0</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.568991340877915</v>
+        <v>0.0</v>
       </c>
       <c r="X40" s="2" t="n">
         <v>0.888888888888889</v>
@@ -13111,10 +13111,10 @@
         <v>0.0029541126439498375</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>0.0502544308070606</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0.7941679934281184</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="2" t="n">
         <v>0.5151515151515151</v>
@@ -13168,7 +13168,7 @@
         <v>6.540300000000001</v>
       </c>
       <c r="AU40" s="2" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.0</v>
       </c>
       <c r="AV40" s="2" t="n">
         <v>0.0728744939271255</v>
@@ -13198,7 +13198,7 @@
         <v>0.05749938947553507</v>
       </c>
       <c r="BE40" s="2" t="n">
-        <v>0.187683284457478</v>
+        <v>0.0</v>
       </c>
       <c r="BF40" s="2" t="n">
         <v>2.6666666666666665</v>
@@ -13249,10 +13249,10 @@
         <v>0.2823468191905247</v>
       </c>
       <c r="BV40" s="2" t="n">
-        <v>179.05472222222224</v>
+        <v>0.0</v>
       </c>
       <c r="BW40" s="2" t="n">
-        <v>245.80425925925928</v>
+        <v>0.0</v>
       </c>
       <c r="BX40" s="2" t="n">
         <v>0.4219409282700422</v>
@@ -13267,10 +13267,10 @@
         <v>0.003938816858599784</v>
       </c>
       <c r="CB40" s="2" t="n">
-        <v>0.17976328918710138</v>
+        <v>0.0</v>
       </c>
       <c r="CC40" s="2" t="n">
-        <v>0.5900207904135507</v>
+        <v>0.0</v>
       </c>
       <c r="CD40" s="2" t="n">
         <v>11.0</v>
@@ -13336,7 +13336,7 @@
         <v>259.90305555555557</v>
       </c>
       <c r="CY40" s="2" t="n">
-        <v>0.02314814814814815</v>
+        <v>0.0</v>
       </c>
       <c r="CZ40" s="2" t="n">
         <v>0.12278308321964529</v>
@@ -13354,7 +13354,7 @@
         <v>0.291010954459859</v>
       </c>
       <c r="DE40" s="2" t="n">
-        <v>0.1227830832196453</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -13497,7 +13497,7 @@
         <v>7.591788888888889</v>
       </c>
       <c r="AU41" s="2" t="n">
-        <v>0.010030864197530864</v>
+        <v>0.0</v>
       </c>
       <c r="AV41" s="2" t="n">
         <v>0.03643724696356275</v>
@@ -13527,7 +13527,7 @@
         <v>0.06674360902990104</v>
       </c>
       <c r="BE41" s="2" t="n">
-        <v>0.03812316715542522</v>
+        <v>0.0</v>
       </c>
       <c r="BF41" s="2" t="n">
         <v>2.6666666666666665</v>
@@ -13578,10 +13578,10 @@
         <v>0.2823468191905247</v>
       </c>
       <c r="BV41" s="2" t="n">
-        <v>179.05472222222224</v>
+        <v>0.0</v>
       </c>
       <c r="BW41" s="2" t="n">
-        <v>245.80425925925928</v>
+        <v>0.0</v>
       </c>
       <c r="BX41" s="2" t="n">
         <v>0.4219409282700422</v>
@@ -13596,10 +13596,10 @@
         <v>0.003938816858599784</v>
       </c>
       <c r="CB41" s="2" t="n">
-        <v>0.17976328918710138</v>
+        <v>0.0</v>
       </c>
       <c r="CC41" s="2" t="n">
-        <v>0.5900207904135507</v>
+        <v>0.0</v>
       </c>
       <c r="CD41" s="2" t="n">
         <v>11.0</v>
@@ -13665,7 +13665,7 @@
         <v>259.90305555555557</v>
       </c>
       <c r="CY41" s="2" t="n">
-        <v>0.02314814814814815</v>
+        <v>0.0</v>
       </c>
       <c r="CZ41" s="2" t="n">
         <v>0.12278308321964529</v>
@@ -13683,7 +13683,7 @@
         <v>0.291010954459859</v>
       </c>
       <c r="DE41" s="2" t="n">
-        <v>0.1227830832196453</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -13826,7 +13826,7 @@
         <v>0.0</v>
       </c>
       <c r="AU42" s="2" t="n">
-        <v>0.015432098765432098</v>
+        <v>0.0</v>
       </c>
       <c r="AV42" s="2" t="n">
         <v>0.08097165991902834</v>
@@ -13856,7 +13856,7 @@
         <v>0.0</v>
       </c>
       <c r="BE42" s="2" t="n">
-        <v>0.05865102639296187</v>
+        <v>0.0</v>
       </c>
       <c r="BF42" s="2" t="n">
         <v>9.25</v>
@@ -13907,10 +13907,10 @@
         <v>6.483726078276982</v>
       </c>
       <c r="BV42" s="2" t="n">
-        <v>134.92930555555554</v>
+        <v>0.0</v>
       </c>
       <c r="BW42" s="2" t="n">
-        <v>-2.842361111111111</v>
+        <v>0.0</v>
       </c>
       <c r="BX42" s="2" t="n">
         <v>0.25316455696202533</v>
@@ -13925,10 +13925,10 @@
         <v>0.09044978674410892</v>
       </c>
       <c r="CB42" s="2" t="n">
-        <v>0.13546325655849026</v>
+        <v>0.0</v>
       </c>
       <c r="CC42" s="2" t="n">
-        <v>-0.0068227139532584915</v>
+        <v>0.0</v>
       </c>
       <c r="CD42" s="2" t="n">
         <v>14.25</v>
@@ -13994,7 +13994,7 @@
         <v>79.8484722222222</v>
       </c>
       <c r="CY42" s="2" t="n">
-        <v>0.0320216049382716</v>
+        <v>0.0</v>
       </c>
       <c r="CZ42" s="2" t="n">
         <v>0.16984993178717597</v>
@@ -14012,7 +14012,7 @@
         <v>0.08940556725614733</v>
       </c>
       <c r="DE42" s="2" t="n">
-        <v>0.16984993178717597</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -14155,7 +14155,7 @@
         <v>0.0</v>
       </c>
       <c r="AU43" s="2" t="n">
-        <v>0.04552469135802469</v>
+        <v>0.0</v>
       </c>
       <c r="AV43" s="2" t="n">
         <v>0.2388663967611336</v>
@@ -14185,7 +14185,7 @@
         <v>0.0</v>
       </c>
       <c r="BE43" s="2" t="n">
-        <v>0.17302052785923755</v>
+        <v>0.0</v>
       </c>
       <c r="BF43" s="2" t="n">
         <v>17.5</v>
@@ -14236,10 +14236,10 @@
         <v>8.855333386935868</v>
       </c>
       <c r="BV43" s="2" t="n">
-        <v>235.82944444444445</v>
+        <v>0.0</v>
       </c>
       <c r="BW43" s="2" t="n">
-        <v>3.7813194444444442</v>
+        <v>0.0</v>
       </c>
       <c r="BX43" s="2" t="n">
         <v>0.12658227848101267</v>
@@ -14254,10 +14254,10 @@
         <v>0.123534370009843</v>
       </c>
       <c r="CB43" s="2" t="n">
-        <v>0.23676268402397227</v>
+        <v>0.0</v>
       </c>
       <c r="CC43" s="2" t="n">
-        <v>0.009076559918614174</v>
+        <v>0.0</v>
       </c>
       <c r="CD43" s="2" t="n">
         <v>20.0</v>
@@ -14323,7 +14323,7 @@
         <v>0.13201388888888888</v>
       </c>
       <c r="CY43" s="2" t="n">
-        <v>0.05999228395061729</v>
+        <v>0.0</v>
       </c>
       <c r="CZ43" s="2" t="n">
         <v>0.31821282401091405</v>
@@ -14341,7 +14341,7 @@
         <v>1.4781468315327827E-4</v>
       </c>
       <c r="DE43" s="2" t="n">
-        <v>0.31821282401091405</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -14484,7 +14484,7 @@
         <v>0.0</v>
       </c>
       <c r="AU44" s="2" t="n">
-        <v>0.012345679012345678</v>
+        <v>0.0</v>
       </c>
       <c r="AV44" s="2" t="n">
         <v>0.06477732793522267</v>
@@ -14514,7 +14514,7 @@
         <v>0.0</v>
       </c>
       <c r="BE44" s="2" t="n">
-        <v>0.0469208211143695</v>
+        <v>0.0</v>
       </c>
       <c r="BF44" s="2" t="n">
         <v>11.75</v>
@@ -14565,10 +14565,10 @@
         <v>3.603842510337383</v>
       </c>
       <c r="BV44" s="2" t="n">
-        <v>324.90597222222226</v>
+        <v>0.0</v>
       </c>
       <c r="BW44" s="2" t="n">
-        <v>34.27909722222222</v>
+        <v>0.0</v>
       </c>
       <c r="BX44" s="2" t="n">
         <v>0.4936708860759494</v>
@@ -14583,10 +14583,10 @@
         <v>0.05027460793130768</v>
       </c>
       <c r="CB44" s="2" t="n">
-        <v>0.3261917112172703</v>
+        <v>0.0</v>
       </c>
       <c r="CC44" s="2" t="n">
-        <v>0.08228246369150997</v>
+        <v>0.0</v>
       </c>
       <c r="CD44" s="2" t="n">
         <v>21.5</v>
@@ -14652,7 +14652,7 @@
         <v>35.473888888888894</v>
       </c>
       <c r="CY44" s="2" t="n">
-        <v>0.04533179012345679</v>
+        <v>0.0</v>
       </c>
       <c r="CZ44" s="2" t="n">
         <v>0.24045020463847203</v>
@@ -14670,7 +14670,7 @@
         <v>0.03971977259710165</v>
       </c>
       <c r="DE44" s="2" t="n">
-        <v>0.24045020463847203</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -14813,7 +14813,7 @@
         <v>0.0</v>
       </c>
       <c r="AU45" s="2" t="n">
-        <v>0.03935185185185185</v>
+        <v>0.0</v>
       </c>
       <c r="AV45" s="2" t="n">
         <v>0.20647773279352227</v>
@@ -14843,7 +14843,7 @@
         <v>0.0</v>
       </c>
       <c r="BE45" s="2" t="n">
-        <v>0.1495601173020528</v>
+        <v>0.0</v>
       </c>
       <c r="BF45" s="2" t="n">
         <v>12.0</v>
@@ -14894,10 +14894,10 @@
         <v>11.07039093594741</v>
       </c>
       <c r="BV45" s="2" t="n">
-        <v>280.01048611111116</v>
+        <v>0.0</v>
       </c>
       <c r="BW45" s="2" t="n">
-        <v>186.275625</v>
+        <v>0.0</v>
       </c>
       <c r="BX45" s="2" t="n">
         <v>0.20253164556962025</v>
@@ -14912,10 +14912,10 @@
         <v>0.15443504047543813</v>
       </c>
       <c r="CB45" s="2" t="n">
-        <v>0.2811185617754427</v>
+        <v>0.0</v>
       </c>
       <c r="CC45" s="2" t="n">
-        <v>0.447130134475642</v>
+        <v>0.0</v>
       </c>
       <c r="CD45" s="2" t="n">
         <v>16.0</v>
@@ -14981,7 +14981,7 @@
         <v>96.62958333333334</v>
       </c>
       <c r="CY45" s="2" t="n">
-        <v>0.03279320987654321</v>
+        <v>0.0</v>
       </c>
       <c r="CZ45" s="2" t="n">
         <v>0.17394270122783081</v>
@@ -14999,7 +14999,7 @@
         <v>0.10819521615389771</v>
       </c>
       <c r="DE45" s="2" t="n">
-        <v>0.17394270122783084</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -15067,10 +15067,10 @@
         <v>14.415370041349531</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>0.09456768689986282</v>
+        <v>0.0</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0.014041709533607682</v>
+        <v>0.0</v>
       </c>
       <c r="X46" s="2" t="n">
         <v>0.9316239316239315</v>
@@ -15085,10 +15085,10 @@
         <v>0.05027460793130768</v>
       </c>
       <c r="AB46" s="2" t="n">
-        <v>0.011466083298834901</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0.01959867485399641</v>
+        <v>0.0</v>
       </c>
       <c r="AD46" s="2" t="n">
         <v>0.40116279069767447</v>
@@ -15142,7 +15142,7 @@
         <v>0.611331908831909</v>
       </c>
       <c r="AU46" s="2" t="n">
-        <v>0.09799382716049383</v>
+        <v>0.0</v>
       </c>
       <c r="AV46" s="2" t="n">
         <v>0.3562753036437247</v>
@@ -15172,7 +15172,7 @@
         <v>0.005374556446148988</v>
       </c>
       <c r="BE46" s="2" t="n">
-        <v>0.3724340175953079</v>
+        <v>0.0</v>
       </c>
       <c r="BF46" s="2" t="n">
         <v>11.75</v>
@@ -15223,10 +15223,10 @@
         <v>3.603842510337383</v>
       </c>
       <c r="BV46" s="2" t="n">
-        <v>324.90597222222226</v>
+        <v>0.0</v>
       </c>
       <c r="BW46" s="2" t="n">
-        <v>34.27909722222222</v>
+        <v>0.0</v>
       </c>
       <c r="BX46" s="2" t="n">
         <v>0.4936708860759494</v>
@@ -15241,10 +15241,10 @@
         <v>0.05027460793130768</v>
       </c>
       <c r="CB46" s="2" t="n">
-        <v>0.3261917112172703</v>
+        <v>0.0</v>
       </c>
       <c r="CC46" s="2" t="n">
-        <v>0.08228246369150997</v>
+        <v>0.0</v>
       </c>
       <c r="CD46" s="2" t="n">
         <v>21.5</v>
@@ -15310,7 +15310,7 @@
         <v>35.473888888888894</v>
       </c>
       <c r="CY46" s="2" t="n">
-        <v>0.04533179012345679</v>
+        <v>0.0</v>
       </c>
       <c r="CZ46" s="2" t="n">
         <v>0.24045020463847203</v>
@@ -15328,7 +15328,7 @@
         <v>0.03971977259710165</v>
       </c>
       <c r="DE46" s="2" t="n">
-        <v>0.24045020463847203</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -15471,7 +15471,7 @@
         <v>0.0</v>
       </c>
       <c r="AU47" s="2" t="n">
-        <v>0.0023148148148148147</v>
+        <v>0.0</v>
       </c>
       <c r="AV47" s="2" t="n">
         <v>0.012145748987854251</v>
@@ -15501,7 +15501,7 @@
         <v>0.0</v>
       </c>
       <c r="BE47" s="2" t="n">
-        <v>0.00879765395894428</v>
+        <v>0.0</v>
       </c>
       <c r="BF47" s="2" t="n">
         <v>3.0</v>
@@ -15552,10 +15552,10 @@
         <v>0.023093283747218325</v>
       </c>
       <c r="BV47" s="2" t="n">
-        <v>185.9561111111111</v>
+        <v>0.0</v>
       </c>
       <c r="BW47" s="2" t="n">
-        <v>245.84981481481483</v>
+        <v>0.0</v>
       </c>
       <c r="BX47" s="2" t="n">
         <v>0.06751054852320675</v>
@@ -15570,10 +15570,10 @@
         <v>3.221577477116642E-4</v>
       </c>
       <c r="CB47" s="2" t="n">
-        <v>0.18669198869990322</v>
+        <v>0.0</v>
       </c>
       <c r="CC47" s="2" t="n">
-        <v>0.5901301405321273</v>
+        <v>0.0</v>
       </c>
       <c r="CD47" s="2" t="n">
         <v>4.333333333333333</v>
@@ -15639,7 +15639,7 @@
         <v>112.64787037037037</v>
       </c>
       <c r="CY47" s="2" t="n">
-        <v>0.007973251028806584</v>
+        <v>0.0</v>
       </c>
       <c r="CZ47" s="2" t="n">
         <v>0.04229195088676671</v>
@@ -15657,7 +15657,7 @@
         <v>0.1261307382642321</v>
       </c>
       <c r="DE47" s="2" t="n">
-        <v>0.04229195088676672</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -15800,7 +15800,7 @@
         <v>0.0</v>
       </c>
       <c r="AU48" s="2" t="n">
-        <v>0.02700617283950617</v>
+        <v>0.0</v>
       </c>
       <c r="AV48" s="2" t="n">
         <v>0.1417004048582996</v>
@@ -15830,7 +15830,7 @@
         <v>0.0</v>
       </c>
       <c r="BE48" s="2" t="n">
-        <v>0.10263929618768328</v>
+        <v>0.0</v>
       </c>
       <c r="BF48" s="2" t="n">
         <v>8.25</v>
@@ -15881,10 +15881,10 @@
         <v>18.653117956825554</v>
       </c>
       <c r="BV48" s="2" t="n">
-        <v>140.86958333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BW48" s="2" t="n">
-        <v>1.1263194444444444</v>
+        <v>0.0</v>
       </c>
       <c r="BX48" s="2" t="n">
         <v>0.08860759493670886</v>
@@ -15899,10 +15899,10 @@
         <v>0.2602161968193353</v>
       </c>
       <c r="CB48" s="2" t="n">
-        <v>0.1414270415889297</v>
+        <v>0.0</v>
       </c>
       <c r="CC48" s="2" t="n">
-        <v>0.002703581666452467</v>
+        <v>0.0</v>
       </c>
       <c r="CD48" s="2" t="n">
         <v>10.0</v>
@@ -15968,7 +15968,7 @@
         <v>16.93013888888889</v>
       </c>
       <c r="CY48" s="2" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.0</v>
       </c>
       <c r="CZ48" s="2" t="n">
         <v>0.14733969986357434</v>
@@ -15986,7 +15986,7 @@
         <v>0.018956513868842888</v>
       </c>
       <c r="DE48" s="2" t="n">
-        <v>0.14733969986357434</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -16054,10 +16054,10 @@
         <v>44.28156374378964</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>0.4299513460219479</v>
+        <v>0.0</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>0.009203317901234569</v>
+        <v>0.0</v>
       </c>
       <c r="X49" s="2" t="n">
         <v>0.9166666666666666</v>
@@ -16072,10 +16072,10 @@
         <v>0.15443504047543813</v>
       </c>
       <c r="AB49" s="2" t="n">
-        <v>0.05213046982056398</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0.012845503939000686</v>
+        <v>0.0</v>
       </c>
       <c r="AD49" s="2" t="n">
         <v>0.3125</v>
@@ -16129,7 +16129,7 @@
         <v>0.10553819444444446</v>
       </c>
       <c r="AU49" s="2" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.0</v>
       </c>
       <c r="AV49" s="2" t="n">
         <v>0.2631578947368421</v>
@@ -16159,7 +16159,7 @@
         <v>9.278445555870315E-4</v>
       </c>
       <c r="BE49" s="2" t="n">
-        <v>0.2346041055718475</v>
+        <v>0.0</v>
       </c>
       <c r="BF49" s="2" t="n">
         <v>12.0</v>
@@ -16210,10 +16210,10 @@
         <v>11.07039093594741</v>
       </c>
       <c r="BV49" s="2" t="n">
-        <v>280.01048611111116</v>
+        <v>0.0</v>
       </c>
       <c r="BW49" s="2" t="n">
-        <v>186.275625</v>
+        <v>0.0</v>
       </c>
       <c r="BX49" s="2" t="n">
         <v>0.20253164556962025</v>
@@ -16228,10 +16228,10 @@
         <v>0.15443504047543813</v>
       </c>
       <c r="CB49" s="2" t="n">
-        <v>0.2811185617754427</v>
+        <v>0.0</v>
       </c>
       <c r="CC49" s="2" t="n">
-        <v>0.447130134475642</v>
+        <v>0.0</v>
       </c>
       <c r="CD49" s="2" t="n">
         <v>16.0</v>
@@ -16297,7 +16297,7 @@
         <v>96.62958333333334</v>
       </c>
       <c r="CY49" s="2" t="n">
-        <v>0.03279320987654321</v>
+        <v>0.0</v>
       </c>
       <c r="CZ49" s="2" t="n">
         <v>0.17394270122783081</v>
@@ -16315,7 +16315,7 @@
         <v>0.10819521615389771</v>
       </c>
       <c r="DE49" s="2" t="n">
-        <v>0.17394270122783084</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -16787,7 +16787,7 @@
         <v>0.0</v>
       </c>
       <c r="AU51" s="2" t="n">
-        <v>0.007716049382716049</v>
+        <v>0.0</v>
       </c>
       <c r="AV51" s="2" t="n">
         <v>0.04048582995951417</v>
@@ -16817,7 +16817,7 @@
         <v>0.0</v>
       </c>
       <c r="BE51" s="2" t="n">
-        <v>0.029325513196480937</v>
+        <v>0.0</v>
       </c>
       <c r="BF51" s="2" t="n">
         <v>3.75</v>
@@ -16868,10 +16868,10 @@
         <v>71.6831549489449</v>
       </c>
       <c r="BV51" s="2" t="n">
-        <v>138.9295138888889</v>
+        <v>0.0</v>
       </c>
       <c r="BW51" s="2" t="n">
-        <v>9.053888888888888</v>
+        <v>0.0</v>
       </c>
       <c r="BX51" s="2" t="n">
         <v>0.0379746835443038</v>
@@ -16886,10 +16886,10 @@
         <v>1.0</v>
       </c>
       <c r="CB51" s="2" t="n">
-        <v>0.13947929477579682</v>
+        <v>0.0</v>
       </c>
       <c r="CC51" s="2" t="n">
-        <v>0.021732669298070585</v>
+        <v>0.0</v>
       </c>
       <c r="CD51" s="2" t="n">
         <v>4.5</v>
@@ -16955,7 +16955,7 @@
         <v>29.463194444444447</v>
       </c>
       <c r="CY51" s="2" t="n">
-        <v>0.006558641975308642</v>
+        <v>0.0</v>
       </c>
       <c r="CZ51" s="2" t="n">
         <v>0.034788540245566164</v>
@@ -16973,7 +16973,7 @@
         <v>0.03298965577140525</v>
       </c>
       <c r="DE51" s="2" t="n">
-        <v>0.034788540245566164</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -17041,10 +17041,10 @@
         <v>286.7326197957796</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>0.4287947959533608</v>
+        <v>0.0</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0.02794410150891632</v>
+        <v>0.0</v>
       </c>
       <c r="X52" s="2" t="n">
         <v>1.0</v>
@@ -17059,10 +17059,10 @@
         <v>1.0</v>
       </c>
       <c r="AB52" s="2" t="n">
-        <v>0.051990241166777244</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0.03900289763504397</v>
+        <v>0.0</v>
       </c>
       <c r="AD52" s="2" t="n">
         <v>0.1388888888888889</v>
@@ -17116,7 +17116,7 @@
         <v>39.284259259259265</v>
       </c>
       <c r="AU52" s="2" t="n">
-        <v>0.006172839506172839</v>
+        <v>0.0</v>
       </c>
       <c r="AV52" s="2" t="n">
         <v>0.020242914979757085</v>
@@ -17146,7 +17146,7 @@
         <v>0.3453696196513987</v>
       </c>
       <c r="BE52" s="2" t="n">
-        <v>0.02346041055718475</v>
+        <v>0.0</v>
       </c>
       <c r="BF52" s="2" t="n">
         <v>3.75</v>
@@ -17197,10 +17197,10 @@
         <v>71.6831549489449</v>
       </c>
       <c r="BV52" s="2" t="n">
-        <v>138.9295138888889</v>
+        <v>0.0</v>
       </c>
       <c r="BW52" s="2" t="n">
-        <v>9.053888888888888</v>
+        <v>0.0</v>
       </c>
       <c r="BX52" s="2" t="n">
         <v>0.0379746835443038</v>
@@ -17215,10 +17215,10 @@
         <v>1.0</v>
       </c>
       <c r="CB52" s="2" t="n">
-        <v>0.13947929477579682</v>
+        <v>0.0</v>
       </c>
       <c r="CC52" s="2" t="n">
-        <v>0.021732669298070585</v>
+        <v>0.0</v>
       </c>
       <c r="CD52" s="2" t="n">
         <v>4.5</v>
@@ -17284,7 +17284,7 @@
         <v>29.463194444444447</v>
       </c>
       <c r="CY52" s="2" t="n">
-        <v>0.006558641975308642</v>
+        <v>0.0</v>
       </c>
       <c r="CZ52" s="2" t="n">
         <v>0.034788540245566164</v>
@@ -17302,7 +17302,7 @@
         <v>0.03298965577140525</v>
       </c>
       <c r="DE52" s="2" t="n">
-        <v>0.034788540245566164</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -17445,7 +17445,7 @@
         <v>0.0</v>
       </c>
       <c r="AU53" s="2" t="n">
-        <v>0.031635802469135804</v>
+        <v>0.0</v>
       </c>
       <c r="AV53" s="2" t="n">
         <v>0.1659919028340081</v>
@@ -17475,7 +17475,7 @@
         <v>0.0</v>
       </c>
       <c r="BE53" s="2" t="n">
-        <v>0.12023460410557185</v>
+        <v>0.0</v>
       </c>
       <c r="BF53" s="2" t="n">
         <v>17.5</v>
@@ -17526,10 +17526,10 @@
         <v>8.855333386935868</v>
       </c>
       <c r="BV53" s="2" t="n">
-        <v>235.82944444444445</v>
+        <v>0.0</v>
       </c>
       <c r="BW53" s="2" t="n">
-        <v>3.7813194444444442</v>
+        <v>0.0</v>
       </c>
       <c r="BX53" s="2" t="n">
         <v>0.12658227848101267</v>
@@ -17544,10 +17544,10 @@
         <v>0.123534370009843</v>
       </c>
       <c r="CB53" s="2" t="n">
-        <v>0.23676268402397227</v>
+        <v>0.0</v>
       </c>
       <c r="CC53" s="2" t="n">
-        <v>0.009076559918614174</v>
+        <v>0.0</v>
       </c>
       <c r="CD53" s="2" t="n">
         <v>20.0</v>
@@ -17613,7 +17613,7 @@
         <v>0.13201388888888888</v>
       </c>
       <c r="CY53" s="2" t="n">
-        <v>0.05999228395061729</v>
+        <v>0.0</v>
       </c>
       <c r="CZ53" s="2" t="n">
         <v>0.31821282401091405</v>
@@ -17631,7 +17631,7 @@
         <v>1.4781468315327827E-4</v>
       </c>
       <c r="DE53" s="2" t="n">
-        <v>0.31821282401091405</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -17774,7 +17774,7 @@
         <v>0.0</v>
       </c>
       <c r="AU54" s="2" t="n">
-        <v>0.013117283950617283</v>
+        <v>0.0</v>
       </c>
       <c r="AV54" s="2" t="n">
         <v>0.06882591093117409</v>
@@ -17804,7 +17804,7 @@
         <v>0.0</v>
       </c>
       <c r="BE54" s="2" t="n">
-        <v>0.04985337243401759</v>
+        <v>0.0</v>
       </c>
       <c r="BF54" s="2" t="n">
         <v>12.0</v>
@@ -17855,10 +17855,10 @@
         <v>11.07039093594741</v>
       </c>
       <c r="BV54" s="2" t="n">
-        <v>280.01048611111116</v>
+        <v>0.0</v>
       </c>
       <c r="BW54" s="2" t="n">
-        <v>186.275625</v>
+        <v>0.0</v>
       </c>
       <c r="BX54" s="2" t="n">
         <v>0.20253164556962025</v>
@@ -17873,10 +17873,10 @@
         <v>0.15443504047543813</v>
       </c>
       <c r="CB54" s="2" t="n">
-        <v>0.2811185617754427</v>
+        <v>0.0</v>
       </c>
       <c r="CC54" s="2" t="n">
-        <v>0.447130134475642</v>
+        <v>0.0</v>
       </c>
       <c r="CD54" s="2" t="n">
         <v>16.0</v>
@@ -17942,7 +17942,7 @@
         <v>96.62958333333334</v>
       </c>
       <c r="CY54" s="2" t="n">
-        <v>0.03279320987654321</v>
+        <v>0.0</v>
       </c>
       <c r="CZ54" s="2" t="n">
         <v>0.17394270122783081</v>
@@ -17960,7 +17960,7 @@
         <v>0.10819521615389771</v>
       </c>
       <c r="DE54" s="2" t="n">
-        <v>0.17394270122783084</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -18357,10 +18357,10 @@
         <v>0.7215622554411826</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>0.9943044838820301</v>
+        <v>0.0</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>-3.2257373113854596E-4</v>
+        <v>0.0</v>
       </c>
       <c r="X56" s="2" t="n">
         <v>0.48148148148148157</v>
@@ -18375,10 +18375,10 @@
         <v>0.0025164986667896485</v>
       </c>
       <c r="AB56" s="2" t="n">
-        <v>0.12055680338960409</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>-4.502313381354021E-4</v>
+        <v>0.0</v>
       </c>
       <c r="AD56" s="2" t="n">
         <v>0.14759036144578314</v>
@@ -18432,7 +18432,7 @@
         <v>0.0792746913580247</v>
       </c>
       <c r="AU56" s="2" t="n">
-        <v>0.08796296296296297</v>
+        <v>0.0</v>
       </c>
       <c r="AV56" s="2" t="n">
         <v>0.3603238866396761</v>
@@ -18462,7 +18462,7 @@
         <v>6.969475947506836E-4</v>
       </c>
       <c r="BE56" s="2" t="n">
-        <v>0.3343108504398827</v>
+        <v>0.0</v>
       </c>
       <c r="BF56" s="2" t="n">
         <v>16.25</v>
@@ -18513,10 +18513,10 @@
         <v>3.071174972139459</v>
       </c>
       <c r="BV56" s="2" t="n">
-        <v>461.53465277777775</v>
+        <v>0.0</v>
       </c>
       <c r="BW56" s="2" t="n">
-        <v>165.75256944444442</v>
+        <v>0.0</v>
       </c>
       <c r="BX56" s="2" t="n">
         <v>0.22784810126582278</v>
@@ -18531,10 +18531,10 @@
         <v>0.0428437472419685</v>
       </c>
       <c r="CB56" s="2" t="n">
-        <v>0.46336106765277574</v>
+        <v>0.0</v>
       </c>
       <c r="CC56" s="2" t="n">
-        <v>0.3978672392878973</v>
+        <v>0.0</v>
       </c>
       <c r="CD56" s="2" t="n">
         <v>20.75</v>
@@ -18600,7 +18600,7 @@
         <v>1.6879166666666665</v>
       </c>
       <c r="CY56" s="2" t="n">
-        <v>0.060570987654320986</v>
+        <v>0.0</v>
       </c>
       <c r="CZ56" s="2" t="n">
         <v>0.32128240109140516</v>
@@ -18618,7 +18618,7 @@
         <v>0.0018899440761302377</v>
       </c>
       <c r="DE56" s="2" t="n">
-        <v>0.32128240109140516</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -18686,10 +18686,10 @@
         <v>11.563137633116652</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>0.43018518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="W57" s="2" t="n">
-        <v>0.5119045781893004</v>
+        <v>0.0</v>
       </c>
       <c r="X57" s="2" t="n">
         <v>0.1851851851851852</v>
@@ -18704,10 +18704,10 @@
         <v>0.040327248575178845</v>
       </c>
       <c r="AB57" s="2" t="n">
-        <v>0.05215882220404828</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0.7144893120165996</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="2" t="n">
         <v>0.0753012048192771</v>
@@ -18761,7 +18761,7 @@
         <v>0.005015432098765433</v>
       </c>
       <c r="AU57" s="2" t="n">
-        <v>0.08410493827160494</v>
+        <v>0.0</v>
       </c>
       <c r="AV57" s="2" t="n">
         <v>0.38461538461538464</v>
@@ -18791,7 +18791,7 @@
         <v>4.4093433578737034E-5</v>
       </c>
       <c r="BE57" s="2" t="n">
-        <v>0.3196480938416422</v>
+        <v>0.0</v>
       </c>
       <c r="BF57" s="2" t="n">
         <v>16.25</v>
@@ -18842,10 +18842,10 @@
         <v>3.071174972139459</v>
       </c>
       <c r="BV57" s="2" t="n">
-        <v>461.53465277777775</v>
+        <v>0.0</v>
       </c>
       <c r="BW57" s="2" t="n">
-        <v>165.75256944444442</v>
+        <v>0.0</v>
       </c>
       <c r="BX57" s="2" t="n">
         <v>0.22784810126582278</v>
@@ -18860,10 +18860,10 @@
         <v>0.0428437472419685</v>
       </c>
       <c r="CB57" s="2" t="n">
-        <v>0.46336106765277574</v>
+        <v>0.0</v>
       </c>
       <c r="CC57" s="2" t="n">
-        <v>0.3978672392878973</v>
+        <v>0.0</v>
       </c>
       <c r="CD57" s="2" t="n">
         <v>20.75</v>
@@ -18929,7 +18929,7 @@
         <v>1.6879166666666665</v>
       </c>
       <c r="CY57" s="2" t="n">
-        <v>0.060570987654320986</v>
+        <v>0.0</v>
       </c>
       <c r="CZ57" s="2" t="n">
         <v>0.32128240109140516</v>
@@ -18947,7 +18947,7 @@
         <v>0.0018899440761302377</v>
       </c>
       <c r="DE57" s="2" t="n">
-        <v>0.32128240109140516</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -19090,7 +19090,7 @@
         <v>0.0</v>
       </c>
       <c r="AU58" s="2" t="n">
-        <v>0.020061728395061727</v>
+        <v>0.0</v>
       </c>
       <c r="AV58" s="2" t="n">
         <v>0.10526315789473684</v>
@@ -19120,7 +19120,7 @@
         <v>0.0</v>
       </c>
       <c r="BE58" s="2" t="n">
-        <v>0.07624633431085044</v>
+        <v>0.0</v>
       </c>
       <c r="BF58" s="2" t="n">
         <v>8.75</v>
@@ -19171,10 +19171,10 @@
         <v>4.289142915843663</v>
       </c>
       <c r="BV58" s="2" t="n">
-        <v>277.87194444444447</v>
+        <v>0.0</v>
       </c>
       <c r="BW58" s="2" t="n">
-        <v>183.68083333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX58" s="2" t="n">
         <v>0.4050632911392405</v>
@@ -19189,10 +19189,10 @@
         <v>0.05983473968045256</v>
       </c>
       <c r="CB58" s="2" t="n">
-        <v>0.2789715573329318</v>
+        <v>0.0</v>
       </c>
       <c r="CC58" s="2" t="n">
-        <v>0.44090167840763556</v>
+        <v>0.0</v>
       </c>
       <c r="CD58" s="2" t="n">
         <v>16.75</v>
@@ -19258,7 +19258,7 @@
         <v>8.681666666666668</v>
       </c>
       <c r="CY58" s="2" t="n">
-        <v>0.03587962962962963</v>
+        <v>0.0</v>
       </c>
       <c r="CZ58" s="2" t="n">
         <v>0.1903137789904502</v>
@@ -19276,7 +19276,7 @@
         <v>0.009720778763329954</v>
       </c>
       <c r="DE58" s="2" t="n">
-        <v>0.1903137789904502</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -19344,10 +19344,10 @@
         <v>0.0</v>
       </c>
       <c r="V59" s="2" t="n">
-        <v>0.42931391460905355</v>
+        <v>0.0</v>
       </c>
       <c r="W59" s="2" t="n">
-        <v>0.5529987568587106</v>
+        <v>0.0</v>
       </c>
       <c r="X59" s="2" t="n">
         <v>-0.25</v>
@@ -19362,10 +19362,10 @@
         <v>0.0</v>
       </c>
       <c r="AB59" s="2" t="n">
-        <v>0.05205318293836203</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>0.7718463912387674</v>
+        <v>0.0</v>
       </c>
       <c r="AD59" s="2" t="n">
         <v>-0.11567164179104478</v>
@@ -19419,7 +19419,7 @@
         <v>0.7585243055555556</v>
       </c>
       <c r="AU59" s="2" t="n">
-        <v>0.05015432098765432</v>
+        <v>0.0</v>
       </c>
       <c r="AV59" s="2" t="n">
         <v>0.18218623481781376</v>
@@ -19449,7 +19449,7 @@
         <v>0.006668606099383614</v>
       </c>
       <c r="BE59" s="2" t="n">
-        <v>0.1906158357771261</v>
+        <v>0.0</v>
       </c>
       <c r="BF59" s="2" t="n">
         <v>8.75</v>
@@ -19500,10 +19500,10 @@
         <v>4.289142915843663</v>
       </c>
       <c r="BV59" s="2" t="n">
-        <v>277.87194444444447</v>
+        <v>0.0</v>
       </c>
       <c r="BW59" s="2" t="n">
-        <v>183.68083333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX59" s="2" t="n">
         <v>0.4050632911392405</v>
@@ -19518,10 +19518,10 @@
         <v>0.05983473968045256</v>
       </c>
       <c r="CB59" s="2" t="n">
-        <v>0.2789715573329318</v>
+        <v>0.0</v>
       </c>
       <c r="CC59" s="2" t="n">
-        <v>0.44090167840763556</v>
+        <v>0.0</v>
       </c>
       <c r="CD59" s="2" t="n">
         <v>16.75</v>
@@ -19587,7 +19587,7 @@
         <v>8.681666666666668</v>
       </c>
       <c r="CY59" s="2" t="n">
-        <v>0.03587962962962963</v>
+        <v>0.0</v>
       </c>
       <c r="CZ59" s="2" t="n">
         <v>0.1903137789904502</v>
@@ -19605,7 +19605,7 @@
         <v>0.009720778763329954</v>
       </c>
       <c r="DE59" s="2" t="n">
-        <v>0.1903137789904502</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -19748,7 +19748,7 @@
         <v>0.4458052039381153</v>
       </c>
       <c r="AU60" s="2" t="n">
-        <v>0.07098765432098765</v>
+        <v>0.0</v>
       </c>
       <c r="AV60" s="2" t="n">
         <v>0.3441295546558704</v>
@@ -19778,7 +19778,7 @@
         <v>0.003919319763842335</v>
       </c>
       <c r="BE60" s="2" t="n">
-        <v>0.2697947214076246</v>
+        <v>0.0</v>
       </c>
       <c r="BF60" s="2" t="n">
         <v>21.75</v>
@@ -19829,10 +19829,10 @@
         <v>1.3671215080691337</v>
       </c>
       <c r="BV60" s="2" t="n">
-        <v>134.19472222222223</v>
+        <v>0.0</v>
       </c>
       <c r="BW60" s="2" t="n">
-        <v>-3.702916666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BX60" s="2" t="n">
         <v>1.0</v>
@@ -19847,10 +19847,10 @@
         <v>0.019071726252044046</v>
       </c>
       <c r="CB60" s="2" t="n">
-        <v>0.13472576628432628</v>
+        <v>0.0</v>
       </c>
       <c r="CC60" s="2" t="n">
-        <v>-0.008888364363929863</v>
+        <v>0.0</v>
       </c>
       <c r="CD60" s="2" t="n">
         <v>41.5</v>
@@ -19916,7 +19916,7 @@
         <v>16.87097222222222</v>
       </c>
       <c r="CY60" s="2" t="n">
-        <v>0.11786265432098765</v>
+        <v>0.0</v>
       </c>
       <c r="CZ60" s="2" t="n">
         <v>0.6251705320600273</v>
@@ -19934,7 +19934,7 @@
         <v>0.018890265520580606</v>
       </c>
       <c r="DE60" s="2" t="n">
-        <v>0.6251705320600273</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -20002,10 +20002,10 @@
         <v>18.49978280325221</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>0.6157255229766804</v>
+        <v>0.0</v>
       </c>
       <c r="W61" s="2" t="n">
-        <v>0.02951774691358025</v>
+        <v>0.0</v>
       </c>
       <c r="X61" s="2" t="n">
         <v>0.3055555555555556</v>
@@ -20020,10 +20020,10 @@
         <v>0.06451928216757606</v>
       </c>
       <c r="AB61" s="2" t="n">
-        <v>0.07465510014160599</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0.04119930858826001</v>
+        <v>0.0</v>
       </c>
       <c r="AD61" s="2" t="n">
         <v>0.22222222222222227</v>
@@ -20077,7 +20077,7 @@
         <v>9.573854166666669</v>
       </c>
       <c r="AU61" s="2" t="n">
-        <v>0.04243827160493827</v>
+        <v>0.0</v>
       </c>
       <c r="AV61" s="2" t="n">
         <v>0.12955465587044535</v>
@@ -20107,7 +20107,7 @@
         <v>0.08416903957175373</v>
       </c>
       <c r="BE61" s="2" t="n">
-        <v>0.16129032258064516</v>
+        <v>0.0</v>
       </c>
       <c r="BF61" s="2" t="n">
         <v>7.333333333333333</v>
@@ -20158,10 +20158,10 @@
         <v>10.933281689192476</v>
       </c>
       <c r="BV61" s="2" t="n">
-        <v>589.4125925925927</v>
+        <v>0.0</v>
       </c>
       <c r="BW61" s="2" t="n">
-        <v>25.985833333333336</v>
+        <v>0.0</v>
       </c>
       <c r="BX61" s="2" t="n">
         <v>0.540084388185654</v>
@@ -20176,10 +20176,10 @@
         <v>0.1525223282510308</v>
       </c>
       <c r="CB61" s="2" t="n">
-        <v>0.5917450543484829</v>
+        <v>0.0</v>
       </c>
       <c r="CC61" s="2" t="n">
-        <v>0.062375574650708886</v>
+        <v>0.0</v>
       </c>
       <c r="CD61" s="2" t="n">
         <v>18.0</v>
@@ -20245,7 +20245,7 @@
         <v>125.43027777777779</v>
       </c>
       <c r="CY61" s="2" t="n">
-        <v>0.034722222222222224</v>
+        <v>0.0</v>
       </c>
       <c r="CZ61" s="2" t="n">
         <v>0.18417462482946792</v>
@@ -20263,7 +20263,7 @@
         <v>0.14044307703983094</v>
       </c>
       <c r="DE61" s="2" t="n">
-        <v>0.18417462482946795</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -20406,7 +20406,7 @@
         <v>0.0</v>
       </c>
       <c r="AU62" s="2" t="n">
-        <v>0.004629629629629629</v>
+        <v>0.0</v>
       </c>
       <c r="AV62" s="2" t="n">
         <v>0.024291497975708502</v>
@@ -20436,7 +20436,7 @@
         <v>0.0</v>
       </c>
       <c r="BE62" s="2" t="n">
-        <v>0.01759530791788856</v>
+        <v>0.0</v>
       </c>
       <c r="BF62" s="2" t="n">
         <v>3.0</v>
@@ -20487,10 +20487,10 @@
         <v>0.023093283747218325</v>
       </c>
       <c r="BV62" s="2" t="n">
-        <v>185.9561111111111</v>
+        <v>0.0</v>
       </c>
       <c r="BW62" s="2" t="n">
-        <v>245.84981481481483</v>
+        <v>0.0</v>
       </c>
       <c r="BX62" s="2" t="n">
         <v>0.06751054852320675</v>
@@ -20505,10 +20505,10 @@
         <v>3.221577477116642E-4</v>
       </c>
       <c r="CB62" s="2" t="n">
-        <v>0.18669198869990322</v>
+        <v>0.0</v>
       </c>
       <c r="CC62" s="2" t="n">
-        <v>0.5901301405321273</v>
+        <v>0.0</v>
       </c>
       <c r="CD62" s="2" t="n">
         <v>4.333333333333333</v>
@@ -20574,7 +20574,7 @@
         <v>112.64787037037037</v>
       </c>
       <c r="CY62" s="2" t="n">
-        <v>0.007973251028806584</v>
+        <v>0.0</v>
       </c>
       <c r="CZ62" s="2" t="n">
         <v>0.04229195088676671</v>
@@ -20592,7 +20592,7 @@
         <v>0.1261307382642321</v>
       </c>
       <c r="DE62" s="2" t="n">
-        <v>0.04229195088676672</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -20660,10 +20660,10 @@
         <v>0.06927985124165498</v>
       </c>
       <c r="V63" s="2" t="n">
-        <v>0.4304539609053498</v>
+        <v>0.0</v>
       </c>
       <c r="W63" s="2" t="n">
-        <v>0.5690967935528121</v>
+        <v>0.0</v>
       </c>
       <c r="X63" s="2" t="n">
         <v>0.888888888888889</v>
@@ -20678,10 +20678,10 @@
         <v>2.4161831078374816E-4</v>
       </c>
       <c r="AB63" s="2" t="n">
-        <v>0.052191410553167734</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="2" t="n">
-        <v>0.7943151786894888</v>
+        <v>0.0</v>
       </c>
       <c r="AD63" s="2" t="n">
         <v>0.43589743589743596</v>
@@ -20735,7 +20735,7 @@
         <v>84.48590277777778</v>
       </c>
       <c r="AU63" s="2" t="n">
-        <v>0.016975308641975308</v>
+        <v>0.0</v>
       </c>
       <c r="AV63" s="2" t="n">
         <v>0.0728744939271255</v>
@@ -20765,7 +20765,7 @@
         <v>0.7427622324681794</v>
       </c>
       <c r="BE63" s="2" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="BF63" s="2" t="n">
         <v>3.0</v>
@@ -20816,10 +20816,10 @@
         <v>0.023093283747218325</v>
       </c>
       <c r="BV63" s="2" t="n">
-        <v>185.9561111111111</v>
+        <v>0.0</v>
       </c>
       <c r="BW63" s="2" t="n">
-        <v>245.84981481481483</v>
+        <v>0.0</v>
       </c>
       <c r="BX63" s="2" t="n">
         <v>0.06751054852320675</v>
@@ -20834,10 +20834,10 @@
         <v>3.221577477116642E-4</v>
       </c>
       <c r="CB63" s="2" t="n">
-        <v>0.18669198869990322</v>
+        <v>0.0</v>
       </c>
       <c r="CC63" s="2" t="n">
-        <v>0.5901301405321273</v>
+        <v>0.0</v>
       </c>
       <c r="CD63" s="2" t="n">
         <v>4.333333333333333</v>
@@ -20903,7 +20903,7 @@
         <v>112.64787037037037</v>
       </c>
       <c r="CY63" s="2" t="n">
-        <v>0.007973251028806584</v>
+        <v>0.0</v>
       </c>
       <c r="CZ63" s="2" t="n">
         <v>0.04229195088676671</v>
@@ -20921,7 +20921,7 @@
         <v>0.1261307382642321</v>
       </c>
       <c r="DE63" s="2" t="n">
-        <v>0.04229195088676672</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -20989,10 +20989,10 @@
         <v>54.32243306030234</v>
       </c>
       <c r="V64" s="2" t="n">
-        <v>0.40985446673525383</v>
+        <v>0.0</v>
       </c>
       <c r="W64" s="2" t="n">
-        <v>4.7946673525377226E-4</v>
+        <v>0.0</v>
       </c>
       <c r="X64" s="2" t="n">
         <v>0.5151515151515151</v>
@@ -21007,10 +21007,10 @@
         <v>0.1894532721773775</v>
       </c>
       <c r="AB64" s="2" t="n">
-        <v>0.04969377606710602</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>6.692142879793318E-4</v>
+        <v>0.0</v>
       </c>
       <c r="AD64" s="2" t="n">
         <v>0.1906779661016949</v>
@@ -21064,7 +21064,7 @@
         <v>18.807790404040404</v>
       </c>
       <c r="AU64" s="2" t="n">
-        <v>0.07253086419753087</v>
+        <v>0.0</v>
       </c>
       <c r="AV64" s="2" t="n">
         <v>0.2631578947368421</v>
@@ -21094,7 +21094,7 @@
         <v>0.1653496728920921</v>
       </c>
       <c r="BE64" s="2" t="n">
-        <v>0.27565982404692085</v>
+        <v>0.0</v>
       </c>
       <c r="BF64" s="2" t="n">
         <v>9.25</v>
@@ -21145,10 +21145,10 @@
         <v>13.587512733346115</v>
       </c>
       <c r="BV64" s="2" t="n">
-        <v>364.24090277777776</v>
+        <v>0.0</v>
       </c>
       <c r="BW64" s="2" t="n">
-        <v>416.60270833333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX64" s="2" t="n">
         <v>0.27848101265822783</v>
@@ -21163,10 +21163,10 @@
         <v>0.18954959143502526</v>
       </c>
       <c r="CB64" s="2" t="n">
-        <v>0.36568230051229705</v>
+        <v>0.0</v>
       </c>
       <c r="CC64" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD64" s="2" t="n">
         <v>14.75</v>
@@ -21232,7 +21232,7 @@
         <v>103.49361111111112</v>
       </c>
       <c r="CY64" s="2" t="n">
-        <v>0.046489197530864196</v>
+        <v>0.0</v>
       </c>
       <c r="CZ64" s="2" t="n">
         <v>0.2465893587994543</v>
@@ -21250,7 +21250,7 @@
         <v>0.11588080211509515</v>
       </c>
       <c r="DE64" s="2" t="n">
-        <v>0.2465893587994543</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -21318,10 +21318,10 @@
         <v>0.02761787308212285</v>
       </c>
       <c r="V65" s="2" t="n">
-        <v>0.43083590534979427</v>
+        <v>0.0</v>
       </c>
       <c r="W65" s="2" t="n">
-        <v>0.5688691700960219</v>
+        <v>0.0</v>
       </c>
       <c r="X65" s="2" t="n">
         <v>-0.030303030303030314</v>
@@ -21336,10 +21336,10 @@
         <v>9.631925764774585E-5</v>
       </c>
       <c r="AB65" s="2" t="n">
-        <v>0.05223772031244275</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="2" t="n">
-        <v>0.7939974739179938</v>
+        <v>0.0</v>
       </c>
       <c r="AD65" s="2" t="n">
         <v>-0.029661016949152547</v>
@@ -21393,7 +21393,7 @@
         <v>0.006868686868686869</v>
       </c>
       <c r="AU65" s="2" t="n">
-        <v>0.043209876543209874</v>
+        <v>0.0</v>
       </c>
       <c r="AV65" s="2" t="n">
         <v>0.1902834008097166</v>
@@ -21423,7 +21423,7 @@
         <v>6.0386419804614405E-5</v>
       </c>
       <c r="BE65" s="2" t="n">
-        <v>0.16422287390029325</v>
+        <v>0.0</v>
       </c>
       <c r="BF65" s="2" t="n">
         <v>9.25</v>
@@ -21474,10 +21474,10 @@
         <v>13.587512733346115</v>
       </c>
       <c r="BV65" s="2" t="n">
-        <v>364.24090277777776</v>
+        <v>0.0</v>
       </c>
       <c r="BW65" s="2" t="n">
-        <v>416.60270833333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX65" s="2" t="n">
         <v>0.27848101265822783</v>
@@ -21492,10 +21492,10 @@
         <v>0.18954959143502526</v>
       </c>
       <c r="CB65" s="2" t="n">
-        <v>0.36568230051229705</v>
+        <v>0.0</v>
       </c>
       <c r="CC65" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD65" s="2" t="n">
         <v>14.75</v>
@@ -21561,7 +21561,7 @@
         <v>103.49361111111112</v>
       </c>
       <c r="CY65" s="2" t="n">
-        <v>0.046489197530864196</v>
+        <v>0.0</v>
       </c>
       <c r="CZ65" s="2" t="n">
         <v>0.2465893587994543</v>
@@ -21579,7 +21579,7 @@
         <v>0.11588080211509515</v>
       </c>
       <c r="DE65" s="2" t="n">
-        <v>0.2465893587994543</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -21722,7 +21722,7 @@
         <v>9.809027777777778E-4</v>
       </c>
       <c r="AU66" s="2" t="n">
-        <v>0.020833333333333332</v>
+        <v>0.0</v>
       </c>
       <c r="AV66" s="2" t="n">
         <v>0.08906882591093117</v>
@@ -21752,7 +21752,7 @@
         <v>8.62365806722607E-6</v>
       </c>
       <c r="BE66" s="2" t="n">
-        <v>0.07917888563049853</v>
+        <v>0.0</v>
       </c>
       <c r="BF66" s="2" t="n">
         <v>8.75</v>
@@ -21803,10 +21803,10 @@
         <v>4.289142915843663</v>
       </c>
       <c r="BV66" s="2" t="n">
-        <v>277.87194444444447</v>
+        <v>0.0</v>
       </c>
       <c r="BW66" s="2" t="n">
-        <v>183.68083333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX66" s="2" t="n">
         <v>0.4050632911392405</v>
@@ -21821,10 +21821,10 @@
         <v>0.05983473968045256</v>
       </c>
       <c r="CB66" s="2" t="n">
-        <v>0.2789715573329318</v>
+        <v>0.0</v>
       </c>
       <c r="CC66" s="2" t="n">
-        <v>0.44090167840763556</v>
+        <v>0.0</v>
       </c>
       <c r="CD66" s="2" t="n">
         <v>16.75</v>
@@ -21890,7 +21890,7 @@
         <v>8.681666666666668</v>
       </c>
       <c r="CY66" s="2" t="n">
-        <v>0.03587962962962963</v>
+        <v>0.0</v>
       </c>
       <c r="CZ66" s="2" t="n">
         <v>0.1903137789904502</v>
@@ -21908,7 +21908,7 @@
         <v>0.009720778763329954</v>
       </c>
       <c r="DE66" s="2" t="n">
-        <v>0.1903137789904502</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -22051,7 +22051,7 @@
         <v>0.0</v>
       </c>
       <c r="AU67" s="2" t="n">
-        <v>0.015432098765432098</v>
+        <v>0.0</v>
       </c>
       <c r="AV67" s="2" t="n">
         <v>0.08097165991902834</v>
@@ -22081,7 +22081,7 @@
         <v>0.0</v>
       </c>
       <c r="BE67" s="2" t="n">
-        <v>0.05865102639296187</v>
+        <v>0.0</v>
       </c>
       <c r="BF67" s="2" t="n">
         <v>8.25</v>
@@ -22132,10 +22132,10 @@
         <v>18.653117956825554</v>
       </c>
       <c r="BV67" s="2" t="n">
-        <v>140.86958333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BW67" s="2" t="n">
-        <v>1.1263194444444444</v>
+        <v>0.0</v>
       </c>
       <c r="BX67" s="2" t="n">
         <v>0.08860759493670886</v>
@@ -22150,10 +22150,10 @@
         <v>0.2602161968193353</v>
       </c>
       <c r="CB67" s="2" t="n">
-        <v>0.1414270415889297</v>
+        <v>0.0</v>
       </c>
       <c r="CC67" s="2" t="n">
-        <v>0.002703581666452467</v>
+        <v>0.0</v>
       </c>
       <c r="CD67" s="2" t="n">
         <v>10.0</v>
@@ -22219,7 +22219,7 @@
         <v>16.93013888888889</v>
       </c>
       <c r="CY67" s="2" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.0</v>
       </c>
       <c r="CZ67" s="2" t="n">
         <v>0.14733969986357434</v>
@@ -22237,7 +22237,7 @@
         <v>0.018956513868842888</v>
       </c>
       <c r="DE67" s="2" t="n">
-        <v>0.14733969986357434</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -22380,7 +22380,7 @@
         <v>0.0021464646464646464</v>
       </c>
       <c r="AU68" s="2" t="n">
-        <v>0.023919753086419752</v>
+        <v>0.0</v>
       </c>
       <c r="AV68" s="2" t="n">
         <v>0.10931174089068826</v>
@@ -22410,7 +22410,7 @@
         <v>1.8870756188942E-5</v>
       </c>
       <c r="BE68" s="2" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="BF68" s="2" t="n">
         <v>6.25</v>
@@ -22461,10 +22461,10 @@
         <v>5.852152990071137</v>
       </c>
       <c r="BV68" s="2" t="n">
-        <v>134.19256944444444</v>
+        <v>0.0</v>
       </c>
       <c r="BW68" s="2" t="n">
-        <v>26.206180555555555</v>
+        <v>0.0</v>
       </c>
       <c r="BX68" s="2" t="n">
         <v>0.27848101265822783</v>
@@ -22479,10 +22479,10 @@
         <v>0.08163916605287858</v>
       </c>
       <c r="CB68" s="2" t="n">
-        <v>0.13472360498743657</v>
+        <v>0.0</v>
       </c>
       <c r="CC68" s="2" t="n">
-        <v>0.0629044891724213</v>
+        <v>0.0</v>
       </c>
       <c r="CD68" s="2" t="n">
         <v>11.75</v>
@@ -22548,7 +22548,7 @@
         <v>1.6766666666666667</v>
       </c>
       <c r="CY68" s="2" t="n">
-        <v>0.02565586419753086</v>
+        <v>0.0</v>
       </c>
       <c r="CZ68" s="2" t="n">
         <v>0.13608458390177353</v>
@@ -22566,7 +22566,7 @@
         <v>0.0018773475592071284</v>
       </c>
       <c r="DE68" s="2" t="n">
-        <v>0.13608458390177353</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -22709,7 +22709,7 @@
         <v>0.02162095639943741</v>
       </c>
       <c r="AU69" s="2" t="n">
-        <v>0.08873456790123457</v>
+        <v>0.0</v>
       </c>
       <c r="AV69" s="2" t="n">
         <v>0.4574898785425101</v>
@@ -22739,7 +22739,7 @@
         <v>1.900817688553757E-4</v>
       </c>
       <c r="BE69" s="2" t="n">
-        <v>0.3372434017595308</v>
+        <v>0.0</v>
       </c>
       <c r="BF69" s="2" t="n">
         <v>21.75</v>
@@ -22790,10 +22790,10 @@
         <v>1.3671215080691337</v>
       </c>
       <c r="BV69" s="2" t="n">
-        <v>134.19472222222223</v>
+        <v>0.0</v>
       </c>
       <c r="BW69" s="2" t="n">
-        <v>-3.702916666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BX69" s="2" t="n">
         <v>1.0</v>
@@ -22808,10 +22808,10 @@
         <v>0.019071726252044046</v>
       </c>
       <c r="CB69" s="2" t="n">
-        <v>0.13472576628432628</v>
+        <v>0.0</v>
       </c>
       <c r="CC69" s="2" t="n">
-        <v>-0.008888364363929863</v>
+        <v>0.0</v>
       </c>
       <c r="CD69" s="2" t="n">
         <v>41.5</v>
@@ -22877,7 +22877,7 @@
         <v>16.87097222222222</v>
       </c>
       <c r="CY69" s="2" t="n">
-        <v>0.11786265432098765</v>
+        <v>0.0</v>
       </c>
       <c r="CZ69" s="2" t="n">
         <v>0.6251705320600273</v>
@@ -22895,7 +22895,7 @@
         <v>0.018890265520580606</v>
       </c>
       <c r="DE69" s="2" t="n">
-        <v>0.6251705320600273</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -22963,10 +22963,10 @@
         <v>0.0</v>
       </c>
       <c r="V70" s="2" t="n">
-        <v>0.9082285236625516</v>
+        <v>0.0</v>
       </c>
       <c r="W70" s="2" t="n">
-        <v>0.09175797325102882</v>
+        <v>0.0</v>
       </c>
       <c r="X70" s="2" t="n">
         <v>-0.26495726495726496</v>
@@ -22981,10 +22981,10 @@
         <v>0.0</v>
       </c>
       <c r="AB70" s="2" t="n">
-        <v>0.11012031961530157</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="2" t="n">
-        <v>0.12807092175667406</v>
+        <v>0.0</v>
       </c>
       <c r="AD70" s="2" t="n">
         <v>-0.017441860465116282</v>
@@ -23038,7 +23038,7 @@
         <v>3.0270156695156696</v>
       </c>
       <c r="AU70" s="2" t="n">
-        <v>0.06481481481481481</v>
+        <v>0.0</v>
       </c>
       <c r="AV70" s="2" t="n">
         <v>0.29554655870445345</v>
@@ -23068,7 +23068,7 @@
         <v>0.026612166556584407</v>
       </c>
       <c r="BE70" s="2" t="n">
-        <v>0.24633431085043986</v>
+        <v>0.0</v>
       </c>
       <c r="BF70" s="2" t="n">
         <v>11.75</v>
@@ -23119,10 +23119,10 @@
         <v>3.603842510337383</v>
       </c>
       <c r="BV70" s="2" t="n">
-        <v>324.90597222222226</v>
+        <v>0.0</v>
       </c>
       <c r="BW70" s="2" t="n">
-        <v>34.27909722222222</v>
+        <v>0.0</v>
       </c>
       <c r="BX70" s="2" t="n">
         <v>0.4936708860759494</v>
@@ -23137,10 +23137,10 @@
         <v>0.05027460793130768</v>
       </c>
       <c r="CB70" s="2" t="n">
-        <v>0.3261917112172703</v>
+        <v>0.0</v>
       </c>
       <c r="CC70" s="2" t="n">
-        <v>0.08228246369150997</v>
+        <v>0.0</v>
       </c>
       <c r="CD70" s="2" t="n">
         <v>21.5</v>
@@ -23206,7 +23206,7 @@
         <v>35.473888888888894</v>
       </c>
       <c r="CY70" s="2" t="n">
-        <v>0.04533179012345679</v>
+        <v>0.0</v>
       </c>
       <c r="CZ70" s="2" t="n">
         <v>0.24045020463847203</v>
@@ -23224,7 +23224,7 @@
         <v>0.03971977259710165</v>
       </c>
       <c r="DE70" s="2" t="n">
-        <v>0.24045020463847203</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -23367,7 +23367,7 @@
         <v>0.0</v>
       </c>
       <c r="AU71" s="2" t="n">
-        <v>0.044753086419753084</v>
+        <v>0.0</v>
       </c>
       <c r="AV71" s="2" t="n">
         <v>0.23481781376518218</v>
@@ -23397,7 +23397,7 @@
         <v>0.0</v>
       </c>
       <c r="BE71" s="2" t="n">
-        <v>0.17008797653958943</v>
+        <v>0.0</v>
       </c>
       <c r="BF71" s="2" t="n">
         <v>6.75</v>
@@ -23448,10 +23448,10 @@
         <v>6.337769339083014</v>
       </c>
       <c r="BV71" s="2" t="n">
-        <v>502.5624305555555</v>
+        <v>0.0</v>
       </c>
       <c r="BW71" s="2" t="n">
-        <v>39.632083333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX71" s="2" t="n">
         <v>0.3924050632911392</v>
@@ -23466,10 +23466,10 @@
         <v>0.08841364953310134</v>
       </c>
       <c r="CB71" s="2" t="n">
-        <v>0.5045512032148942</v>
+        <v>0.0</v>
       </c>
       <c r="CC71" s="2" t="n">
-        <v>0.0951316027010146</v>
+        <v>0.0</v>
       </c>
       <c r="CD71" s="2" t="n">
         <v>14.5</v>
@@ -23535,7 +23535,7 @@
         <v>893.1040277777779</v>
       </c>
       <c r="CY71" s="2" t="n">
-        <v>0.040123456790123455</v>
+        <v>0.0</v>
       </c>
       <c r="CZ71" s="2" t="n">
         <v>0.21282401091405184</v>
@@ -23553,7 +23553,7 @@
         <v>1.0</v>
       </c>
       <c r="DE71" s="2" t="n">
-        <v>0.21282401091405184</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -23621,10 +23621,10 @@
         <v>0.06426632672736793</v>
       </c>
       <c r="V72" s="2" t="n">
-        <v>0.4841908864883402</v>
+        <v>0.0</v>
       </c>
       <c r="W72" s="2" t="n">
-        <v>0.5147713048696845</v>
+        <v>0.0</v>
       </c>
       <c r="X72" s="2" t="n">
         <v>-0.16312056737588654</v>
@@ -23639,10 +23639,10 @@
         <v>2.2413329454158552E-4</v>
       </c>
       <c r="AB72" s="2" t="n">
-        <v>0.05870687143792322</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="2" t="n">
-        <v>0.7184905373638162</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="2" t="n">
         <v>-0.14090909090909093</v>
@@ -23696,7 +23696,7 @@
         <v>3.2814243498817963</v>
       </c>
       <c r="AU72" s="2" t="n">
-        <v>0.008487654320987654</v>
+        <v>0.0</v>
       </c>
       <c r="AV72" s="2" t="n">
         <v>0.004048582995951417</v>
@@ -23726,7 +23726,7 @@
         <v>0.02884881377434641</v>
       </c>
       <c r="BE72" s="2" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="BF72" s="2" t="n">
         <v>2.0</v>
@@ -23777,10 +23777,10 @@
         <v>0.01771849276895105</v>
       </c>
       <c r="BV72" s="2" t="n">
-        <v>471.01618055555554</v>
+        <v>0.0</v>
       </c>
       <c r="BW72" s="2" t="n">
-        <v>176.354375</v>
+        <v>0.0</v>
       </c>
       <c r="BX72" s="2" t="n">
         <v>0.5949367088607594</v>
@@ -23795,10 +23795,10 @@
         <v>2.4717791483327907E-4</v>
       </c>
       <c r="CB72" s="2" t="n">
-        <v>0.4728801163474919</v>
+        <v>0.0</v>
       </c>
       <c r="CC72" s="2" t="n">
-        <v>0.4233154789260151</v>
+        <v>0.0</v>
       </c>
       <c r="CD72" s="2" t="n">
         <v>13.75</v>
@@ -23864,7 +23864,7 @@
         <v>38.75861111111111</v>
       </c>
       <c r="CY72" s="2" t="n">
-        <v>0.016203703703703703</v>
+        <v>0.0</v>
       </c>
       <c r="CZ72" s="2" t="n">
         <v>0.0859481582537517</v>
@@ -23882,7 +23882,7 @@
         <v>0.04339764451354039</v>
       </c>
       <c r="DE72" s="2" t="n">
-        <v>0.0859481582537517</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -24025,7 +24025,7 @@
         <v>0.0</v>
       </c>
       <c r="AU73" s="2" t="n">
-        <v>0.030864197530864196</v>
+        <v>0.0</v>
       </c>
       <c r="AV73" s="2" t="n">
         <v>0.16194331983805668</v>
@@ -24055,7 +24055,7 @@
         <v>0.0</v>
       </c>
       <c r="BE73" s="2" t="n">
-        <v>0.11730205278592375</v>
+        <v>0.0</v>
       </c>
       <c r="BF73" s="2" t="n">
         <v>8.25</v>
@@ -24106,10 +24106,10 @@
         <v>18.653117956825554</v>
       </c>
       <c r="BV73" s="2" t="n">
-        <v>140.86958333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BW73" s="2" t="n">
-        <v>1.1263194444444444</v>
+        <v>0.0</v>
       </c>
       <c r="BX73" s="2" t="n">
         <v>0.08860759493670886</v>
@@ -24124,10 +24124,10 @@
         <v>0.2602161968193353</v>
       </c>
       <c r="CB73" s="2" t="n">
-        <v>0.1414270415889297</v>
+        <v>0.0</v>
       </c>
       <c r="CC73" s="2" t="n">
-        <v>0.002703581666452467</v>
+        <v>0.0</v>
       </c>
       <c r="CD73" s="2" t="n">
         <v>10.0</v>
@@ -24193,7 +24193,7 @@
         <v>16.93013888888889</v>
       </c>
       <c r="CY73" s="2" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.0</v>
       </c>
       <c r="CZ73" s="2" t="n">
         <v>0.14733969986357434</v>
@@ -24211,7 +24211,7 @@
         <v>0.018956513868842888</v>
       </c>
       <c r="DE73" s="2" t="n">
-        <v>0.14733969986357434</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -24608,10 +24608,10 @@
         <v>5.468486032276535</v>
       </c>
       <c r="V75" s="2" t="n">
-        <v>0.4141812414266118</v>
+        <v>0.0</v>
       </c>
       <c r="W75" s="2" t="n">
-        <v>-0.011428755144032923</v>
+        <v>0.0</v>
       </c>
       <c r="X75" s="2" t="n">
         <v>1.0</v>
@@ -24626,10 +24626,10 @@
         <v>0.019071726252044046</v>
       </c>
       <c r="AB75" s="2" t="n">
-        <v>0.05021838611788302</v>
+        <v>0.0</v>
       </c>
       <c r="AC75" s="2" t="n">
-        <v>-0.015951651436582</v>
+        <v>0.0</v>
       </c>
       <c r="AD75" s="2" t="n">
         <v>0.5210843373493976</v>
@@ -24683,7 +24683,7 @@
         <v>0.3866104078762306</v>
       </c>
       <c r="AU75" s="2" t="n">
-        <v>0.2631172839506173</v>
+        <v>0.0</v>
       </c>
       <c r="AV75" s="2" t="n">
         <v>0.8785425101214575</v>
@@ -24713,7 +24713,7 @@
         <v>0.003398905618667469</v>
       </c>
       <c r="BE75" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF75" s="2" t="n">
         <v>21.75</v>
@@ -24764,10 +24764,10 @@
         <v>1.3671215080691337</v>
       </c>
       <c r="BV75" s="2" t="n">
-        <v>134.19472222222223</v>
+        <v>0.0</v>
       </c>
       <c r="BW75" s="2" t="n">
-        <v>-3.702916666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BX75" s="2" t="n">
         <v>1.0</v>
@@ -24782,10 +24782,10 @@
         <v>0.019071726252044046</v>
       </c>
       <c r="CB75" s="2" t="n">
-        <v>0.13472576628432628</v>
+        <v>0.0</v>
       </c>
       <c r="CC75" s="2" t="n">
-        <v>-0.008888364363929863</v>
+        <v>0.0</v>
       </c>
       <c r="CD75" s="2" t="n">
         <v>41.5</v>
@@ -24851,7 +24851,7 @@
         <v>16.87097222222222</v>
       </c>
       <c r="CY75" s="2" t="n">
-        <v>0.11786265432098765</v>
+        <v>0.0</v>
       </c>
       <c r="CZ75" s="2" t="n">
         <v>0.6251705320600273</v>
@@ -24869,7 +24869,7 @@
         <v>0.018890265520580606</v>
       </c>
       <c r="DE75" s="2" t="n">
-        <v>0.6251705320600273</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -25162,10 +25162,10 @@
         <v>17.156571663374653</v>
       </c>
       <c r="V77" s="2" t="n">
-        <v>0.4283155435528121</v>
+        <v>0.0</v>
       </c>
       <c r="W77" s="2" t="n">
-        <v>0.013917395404663923</v>
+        <v>0.0</v>
       </c>
       <c r="X77" s="2" t="n">
         <v>0.9166666666666666</v>
@@ -25180,10 +25180,10 @@
         <v>0.05983473968045256</v>
       </c>
       <c r="AB77" s="2" t="n">
-        <v>0.051932133073769995</v>
+        <v>0.0</v>
       </c>
       <c r="AC77" s="2" t="n">
-        <v>0.019425163773518977</v>
+        <v>0.0</v>
       </c>
       <c r="AD77" s="2" t="n">
         <v>0.46641791044776115</v>
@@ -25237,7 +25237,7 @@
         <v>0.32570312500000004</v>
       </c>
       <c r="AU77" s="2" t="n">
-        <v>0.05246913580246913</v>
+        <v>0.0</v>
       </c>
       <c r="AV77" s="2" t="n">
         <v>0.14979757085020243</v>
@@ -25267,7 +25267,7 @@
         <v>0.0028634360561096404</v>
       </c>
       <c r="BE77" s="2" t="n">
-        <v>0.19941348973607037</v>
+        <v>0.0</v>
       </c>
       <c r="BF77" s="2" t="n">
         <v>8.75</v>
@@ -25318,10 +25318,10 @@
         <v>4.289142915843663</v>
       </c>
       <c r="BV77" s="2" t="n">
-        <v>277.87194444444447</v>
+        <v>0.0</v>
       </c>
       <c r="BW77" s="2" t="n">
-        <v>183.68083333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX77" s="2" t="n">
         <v>0.4050632911392405</v>
@@ -25336,10 +25336,10 @@
         <v>0.05983473968045256</v>
       </c>
       <c r="CB77" s="2" t="n">
-        <v>0.2789715573329318</v>
+        <v>0.0</v>
       </c>
       <c r="CC77" s="2" t="n">
-        <v>0.44090167840763556</v>
+        <v>0.0</v>
       </c>
       <c r="CD77" s="2" t="n">
         <v>16.75</v>
@@ -25405,7 +25405,7 @@
         <v>8.681666666666668</v>
       </c>
       <c r="CY77" s="2" t="n">
-        <v>0.03587962962962963</v>
+        <v>0.0</v>
       </c>
       <c r="CZ77" s="2" t="n">
         <v>0.1903137789904502</v>
@@ -25423,7 +25423,7 @@
         <v>0.009720778763329954</v>
       </c>
       <c r="DE77" s="2" t="n">
-        <v>0.1903137789904502</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -25566,7 +25566,7 @@
         <v>0.0</v>
       </c>
       <c r="AU78" s="2" t="n">
-        <v>0.022376543209876542</v>
+        <v>0.0</v>
       </c>
       <c r="AV78" s="2" t="n">
         <v>0.11740890688259109</v>
@@ -25596,7 +25596,7 @@
         <v>0.0</v>
       </c>
       <c r="BE78" s="2" t="n">
-        <v>0.08504398826979472</v>
+        <v>0.0</v>
       </c>
       <c r="BF78" s="2" t="n">
         <v>12.25</v>
@@ -25647,10 +25647,10 @@
         <v>26.280764549924626</v>
       </c>
       <c r="BV78" s="2" t="n">
-        <v>139.7025</v>
+        <v>0.0</v>
       </c>
       <c r="BW78" s="2" t="n">
-        <v>-2.870833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="BX78" s="2" t="n">
         <v>0.06329113924050633</v>
@@ -25665,10 +25665,10 @@
         <v>0.36662399372129545</v>
       </c>
       <c r="CB78" s="2" t="n">
-        <v>0.14025533979770258</v>
+        <v>0.0</v>
       </c>
       <c r="CC78" s="2" t="n">
-        <v>-0.0068910577773688255</v>
+        <v>0.0</v>
       </c>
       <c r="CD78" s="2" t="n">
         <v>13.5</v>
@@ -25734,7 +25734,7 @@
         <v>0.84125</v>
       </c>
       <c r="CY78" s="2" t="n">
-        <v>0.03780864197530864</v>
+        <v>0.0</v>
       </c>
       <c r="CZ78" s="2" t="n">
         <v>0.20054570259208732</v>
@@ -25752,7 +25752,7 @@
         <v>9.419395432502963E-4</v>
       </c>
       <c r="DE78" s="2" t="n">
-        <v>0.20054570259208732</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -25895,7 +25895,7 @@
         <v>0.0</v>
       </c>
       <c r="AU79" s="2" t="n">
-        <v>0.007716049382716049</v>
+        <v>0.0</v>
       </c>
       <c r="AV79" s="2" t="n">
         <v>0.04048582995951417</v>
@@ -25925,7 +25925,7 @@
         <v>0.0</v>
       </c>
       <c r="BE79" s="2" t="n">
-        <v>0.029325513196480937</v>
+        <v>0.0</v>
       </c>
       <c r="BF79" s="2" t="n">
         <v>3.75</v>
@@ -25976,10 +25976,10 @@
         <v>71.6831549489449</v>
       </c>
       <c r="BV79" s="2" t="n">
-        <v>138.9295138888889</v>
+        <v>0.0</v>
       </c>
       <c r="BW79" s="2" t="n">
-        <v>9.053888888888888</v>
+        <v>0.0</v>
       </c>
       <c r="BX79" s="2" t="n">
         <v>0.0379746835443038</v>
@@ -25994,10 +25994,10 @@
         <v>1.0</v>
       </c>
       <c r="CB79" s="2" t="n">
-        <v>0.13947929477579682</v>
+        <v>0.0</v>
       </c>
       <c r="CC79" s="2" t="n">
-        <v>0.021732669298070585</v>
+        <v>0.0</v>
       </c>
       <c r="CD79" s="2" t="n">
         <v>4.5</v>
@@ -26063,7 +26063,7 @@
         <v>29.463194444444447</v>
       </c>
       <c r="CY79" s="2" t="n">
-        <v>0.006558641975308642</v>
+        <v>0.0</v>
       </c>
       <c r="CZ79" s="2" t="n">
         <v>0.034788540245566164</v>
@@ -26081,7 +26081,7 @@
         <v>0.03298965577140525</v>
       </c>
       <c r="DE79" s="2" t="n">
-        <v>0.034788540245566164</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -26224,7 +26224,7 @@
         <v>0.007114898989898991</v>
       </c>
       <c r="AU80" s="2" t="n">
-        <v>0.19907407407407407</v>
+        <v>0.0</v>
       </c>
       <c r="AV80" s="2" t="n">
         <v>0.979757085020243</v>
@@ -26254,7 +26254,7 @@
         <v>6.255100654393422E-5</v>
       </c>
       <c r="BE80" s="2" t="n">
-        <v>0.7565982404692082</v>
+        <v>0.0</v>
       </c>
       <c r="BF80" s="2" t="n">
         <v>48.0</v>
@@ -26305,10 +26305,10 @@
         <v>5.903770808137047</v>
       </c>
       <c r="BV80" s="2" t="n">
-        <v>32.73324074074074</v>
+        <v>0.0</v>
       </c>
       <c r="BW80" s="2" t="n">
-        <v>15.29574074074074</v>
+        <v>0.0</v>
       </c>
       <c r="BX80" s="2" t="n">
         <v>0.7426160337552742</v>
@@ -26323,10 +26323,10 @@
         <v>0.08235924900824895</v>
       </c>
       <c r="CB80" s="2" t="n">
-        <v>0.03286277484492114</v>
+        <v>0.0</v>
       </c>
       <c r="CC80" s="2" t="n">
-        <v>0.03671541359376442</v>
+        <v>0.0</v>
       </c>
       <c r="CD80" s="2" t="n">
         <v>62.666666666666664</v>
@@ -26392,7 +26392,7 @@
         <v>28.450370370370354</v>
       </c>
       <c r="CY80" s="2" t="n">
-        <v>0.18852880658436214</v>
+        <v>0.0</v>
       </c>
       <c r="CZ80" s="2" t="n">
         <v>1.0</v>
@@ -26410,7 +26410,7 @@
         <v>0.03185560638569797</v>
       </c>
       <c r="DE80" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -26553,7 +26553,7 @@
         <v>0.08281565656565656</v>
       </c>
       <c r="AU81" s="2" t="n">
-        <v>0.12191358024691358</v>
+        <v>0.0</v>
       </c>
       <c r="AV81" s="2" t="n">
         <v>0.6032388663967612</v>
@@ -26583,7 +26583,7 @@
         <v>7.280781755486504E-4</v>
       </c>
       <c r="BE81" s="2" t="n">
-        <v>0.4633431085043988</v>
+        <v>0.0</v>
       </c>
       <c r="BF81" s="2" t="n">
         <v>48.0</v>
@@ -26634,10 +26634,10 @@
         <v>5.903770808137047</v>
       </c>
       <c r="BV81" s="2" t="n">
-        <v>32.73324074074074</v>
+        <v>0.0</v>
       </c>
       <c r="BW81" s="2" t="n">
-        <v>15.29574074074074</v>
+        <v>0.0</v>
       </c>
       <c r="BX81" s="2" t="n">
         <v>0.7426160337552742</v>
@@ -26652,10 +26652,10 @@
         <v>0.08235924900824895</v>
       </c>
       <c r="CB81" s="2" t="n">
-        <v>0.03286277484492114</v>
+        <v>0.0</v>
       </c>
       <c r="CC81" s="2" t="n">
-        <v>0.03671541359376442</v>
+        <v>0.0</v>
       </c>
       <c r="CD81" s="2" t="n">
         <v>62.666666666666664</v>
@@ -26721,7 +26721,7 @@
         <v>28.450370370370354</v>
       </c>
       <c r="CY81" s="2" t="n">
-        <v>0.18852880658436214</v>
+        <v>0.0</v>
       </c>
       <c r="CZ81" s="2" t="n">
         <v>1.0</v>
@@ -26739,7 +26739,7 @@
         <v>0.03185560638569797</v>
       </c>
       <c r="DE81" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -26807,10 +26807,10 @@
         <v>0.0</v>
       </c>
       <c r="V82" s="2" t="n">
-        <v>0.973363554526749</v>
+        <v>0.0</v>
       </c>
       <c r="W82" s="2" t="n">
-        <v>0.00832454561042524</v>
+        <v>0.0</v>
       </c>
       <c r="X82" s="2" t="n">
         <v>-0.35842293906810035</v>
@@ -26825,10 +26825,10 @@
         <v>0.0</v>
       </c>
       <c r="AB82" s="2" t="n">
-        <v>0.11801777078540261</v>
+        <v>0.0</v>
       </c>
       <c r="AC82" s="2" t="n">
-        <v>0.011618960094246433</v>
+        <v>0.0</v>
       </c>
       <c r="AD82" s="2" t="n">
         <v>-0.1627906976744186</v>
@@ -26882,7 +26882,7 @@
         <v>1.1213709677419357</v>
       </c>
       <c r="AU82" s="2" t="n">
-        <v>0.08796296296296297</v>
+        <v>0.0</v>
       </c>
       <c r="AV82" s="2" t="n">
         <v>0.4291497975708502</v>
@@ -26912,7 +26912,7 @@
         <v>0.009858591505091696</v>
       </c>
       <c r="BE82" s="2" t="n">
-        <v>0.3343108504398827</v>
+        <v>0.0</v>
       </c>
       <c r="BF82" s="2" t="n">
         <v>32.666666666666664</v>
@@ -26963,10 +26963,10 @@
         <v>19.288957393063207</v>
       </c>
       <c r="BV82" s="2" t="n">
-        <v>996.0583333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BW82" s="2" t="n">
-        <v>30.15185185185185</v>
+        <v>0.0</v>
       </c>
       <c r="BX82" s="2" t="n">
         <v>0.5232067510548524</v>
@@ -26981,10 +26981,10 @@
         <v>0.2690863342552575</v>
       </c>
       <c r="CB82" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC82" s="2" t="n">
-        <v>0.07237555409199756</v>
+        <v>0.0</v>
       </c>
       <c r="CD82" s="2" t="n">
         <v>43.0</v>
@@ -27050,7 +27050,7 @@
         <v>85.54166666666667</v>
       </c>
       <c r="CY82" s="2" t="n">
-        <v>0.11471193415637859</v>
+        <v>0.0</v>
       </c>
       <c r="CZ82" s="2" t="n">
         <v>0.6084583901773533</v>
@@ -27068,7 +27068,7 @@
         <v>0.09578018238201379</v>
       </c>
       <c r="DE82" s="2" t="n">
-        <v>0.6084583901773533</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -27136,10 +27136,10 @@
         <v>53.23477369640532</v>
       </c>
       <c r="V83" s="2" t="n">
-        <v>0.396428969478738</v>
+        <v>0.0</v>
       </c>
       <c r="W83" s="2" t="n">
-        <v>0.053635116598079555</v>
+        <v>0.0</v>
       </c>
       <c r="X83" s="2" t="n">
         <v>0.11469534050179216</v>
@@ -27154,10 +27154,10 @@
         <v>0.1856599843237957</v>
       </c>
       <c r="AB83" s="2" t="n">
-        <v>0.048065969837325924</v>
+        <v>0.0</v>
       </c>
       <c r="AC83" s="2" t="n">
-        <v>0.07486105651495216</v>
+        <v>0.0</v>
       </c>
       <c r="AD83" s="2" t="n">
         <v>0.13953488372093026</v>
@@ -27211,7 +27211,7 @@
         <v>7.133127240143369</v>
       </c>
       <c r="AU83" s="2" t="n">
-        <v>0.14814814814814814</v>
+        <v>0.0</v>
       </c>
       <c r="AV83" s="2" t="n">
         <v>0.6558704453441295</v>
@@ -27241,7 +27241,7 @@
         <v>0.06271126115920556</v>
       </c>
       <c r="BE83" s="2" t="n">
-        <v>0.563049853372434</v>
+        <v>0.0</v>
       </c>
       <c r="BF83" s="2" t="n">
         <v>32.666666666666664</v>
@@ -27292,10 +27292,10 @@
         <v>19.288957393063207</v>
       </c>
       <c r="BV83" s="2" t="n">
-        <v>996.0583333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BW83" s="2" t="n">
-        <v>30.15185185185185</v>
+        <v>0.0</v>
       </c>
       <c r="BX83" s="2" t="n">
         <v>0.5232067510548524</v>
@@ -27310,10 +27310,10 @@
         <v>0.2690863342552575</v>
       </c>
       <c r="CB83" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC83" s="2" t="n">
-        <v>0.07237555409199756</v>
+        <v>0.0</v>
       </c>
       <c r="CD83" s="2" t="n">
         <v>43.0</v>
@@ -27379,7 +27379,7 @@
         <v>85.54166666666667</v>
       </c>
       <c r="CY83" s="2" t="n">
-        <v>0.11471193415637859</v>
+        <v>0.0</v>
       </c>
       <c r="CZ83" s="2" t="n">
         <v>0.6084583901773533</v>
@@ -27397,7 +27397,7 @@
         <v>0.09578018238201379</v>
       </c>
       <c r="DE83" s="2" t="n">
-        <v>0.6084583901773533</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -27540,7 +27540,7 @@
         <v>7.702020202020201E-4</v>
       </c>
       <c r="AU84" s="2" t="n">
-        <v>0.010802469135802469</v>
+        <v>0.0</v>
       </c>
       <c r="AV84" s="2" t="n">
         <v>0.04048582995951417</v>
@@ -27570,7 +27570,7 @@
         <v>6.7712713383850695E-6</v>
       </c>
       <c r="BE84" s="2" t="n">
-        <v>0.04105571847507331</v>
+        <v>0.0</v>
       </c>
       <c r="BF84" s="2" t="n">
         <v>6.25</v>
@@ -27621,10 +27621,10 @@
         <v>5.852152990071137</v>
       </c>
       <c r="BV84" s="2" t="n">
-        <v>134.19256944444444</v>
+        <v>0.0</v>
       </c>
       <c r="BW84" s="2" t="n">
-        <v>26.206180555555555</v>
+        <v>0.0</v>
       </c>
       <c r="BX84" s="2" t="n">
         <v>0.27848101265822783</v>
@@ -27639,10 +27639,10 @@
         <v>0.08163916605287858</v>
       </c>
       <c r="CB84" s="2" t="n">
-        <v>0.13472360498743657</v>
+        <v>0.0</v>
       </c>
       <c r="CC84" s="2" t="n">
-        <v>0.0629044891724213</v>
+        <v>0.0</v>
       </c>
       <c r="CD84" s="2" t="n">
         <v>11.75</v>
@@ -27708,7 +27708,7 @@
         <v>1.6766666666666667</v>
       </c>
       <c r="CY84" s="2" t="n">
-        <v>0.02565586419753086</v>
+        <v>0.0</v>
       </c>
       <c r="CZ84" s="2" t="n">
         <v>0.13608458390177353</v>
@@ -27726,7 +27726,7 @@
         <v>0.0018773475592071284</v>
       </c>
       <c r="DE84" s="2" t="n">
-        <v>0.13608458390177353</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -27869,7 +27869,7 @@
         <v>0.0</v>
       </c>
       <c r="AU85" s="2" t="n">
-        <v>0.023148148148148147</v>
+        <v>0.0</v>
       </c>
       <c r="AV85" s="2" t="n">
         <v>0.1214574898785425</v>
@@ -27899,7 +27899,7 @@
         <v>0.0</v>
       </c>
       <c r="BE85" s="2" t="n">
-        <v>0.0879765395894428</v>
+        <v>0.0</v>
       </c>
       <c r="BF85" s="2" t="n">
         <v>9.25</v>
@@ -27950,10 +27950,10 @@
         <v>6.483726078276982</v>
       </c>
       <c r="BV85" s="2" t="n">
-        <v>134.92930555555554</v>
+        <v>0.0</v>
       </c>
       <c r="BW85" s="2" t="n">
-        <v>-2.842361111111111</v>
+        <v>0.0</v>
       </c>
       <c r="BX85" s="2" t="n">
         <v>0.25316455696202533</v>
@@ -27968,10 +27968,10 @@
         <v>0.09044978674410892</v>
       </c>
       <c r="CB85" s="2" t="n">
-        <v>0.13546325655849026</v>
+        <v>0.0</v>
       </c>
       <c r="CC85" s="2" t="n">
-        <v>-0.0068227139532584915</v>
+        <v>0.0</v>
       </c>
       <c r="CD85" s="2" t="n">
         <v>14.25</v>
@@ -28037,7 +28037,7 @@
         <v>79.8484722222222</v>
       </c>
       <c r="CY85" s="2" t="n">
-        <v>0.0320216049382716</v>
+        <v>0.0</v>
       </c>
       <c r="CZ85" s="2" t="n">
         <v>0.16984993178717597</v>
@@ -28055,7 +28055,7 @@
         <v>0.08940556725614733</v>
       </c>
       <c r="DE85" s="2" t="n">
-        <v>0.16984993178717597</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -28123,10 +28123,10 @@
         <v>74.61247182730222</v>
       </c>
       <c r="V86" s="2" t="n">
-        <v>0.4347826646090535</v>
+        <v>0.0</v>
       </c>
       <c r="W86" s="2" t="n">
-        <v>0.0034762945816186556</v>
+        <v>0.0</v>
       </c>
       <c r="X86" s="2" t="n">
         <v>1.0</v>
@@ -28141,10 +28141,10 @@
         <v>0.2602161968193353</v>
       </c>
       <c r="AB86" s="2" t="n">
-        <v>0.052716254491617855</v>
+        <v>0.0</v>
       </c>
       <c r="AC86" s="2" t="n">
-        <v>0.004852027955626635</v>
+        <v>0.0</v>
       </c>
       <c r="AD86" s="2" t="n">
         <v>0.25</v>
@@ -28198,7 +28198,7 @@
         <v>9.67436507936508</v>
       </c>
       <c r="AU86" s="2" t="n">
-        <v>0.03780864197530864</v>
+        <v>0.0</v>
       </c>
       <c r="AV86" s="2" t="n">
         <v>0.1700404858299595</v>
@@ -28228,7 +28228,7 @@
         <v>0.08505268651696839</v>
       </c>
       <c r="BE86" s="2" t="n">
-        <v>0.1436950146627566</v>
+        <v>0.0</v>
       </c>
       <c r="BF86" s="2" t="n">
         <v>8.25</v>
@@ -28279,10 +28279,10 @@
         <v>18.653117956825554</v>
       </c>
       <c r="BV86" s="2" t="n">
-        <v>140.86958333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BW86" s="2" t="n">
-        <v>1.1263194444444444</v>
+        <v>0.0</v>
       </c>
       <c r="BX86" s="2" t="n">
         <v>0.08860759493670886</v>
@@ -28297,10 +28297,10 @@
         <v>0.2602161968193353</v>
       </c>
       <c r="CB86" s="2" t="n">
-        <v>0.1414270415889297</v>
+        <v>0.0</v>
       </c>
       <c r="CC86" s="2" t="n">
-        <v>0.002703581666452467</v>
+        <v>0.0</v>
       </c>
       <c r="CD86" s="2" t="n">
         <v>10.0</v>
@@ -28366,7 +28366,7 @@
         <v>16.93013888888889</v>
       </c>
       <c r="CY86" s="2" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.0</v>
       </c>
       <c r="CZ86" s="2" t="n">
         <v>0.14733969986357434</v>
@@ -28384,7 +28384,7 @@
         <v>0.018956513868842888</v>
       </c>
       <c r="DE86" s="2" t="n">
-        <v>0.14733969986357434</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -28937,10 +28937,10 @@
         <v>0.01771849276895105</v>
       </c>
       <c r="BV88" s="2" t="n">
-        <v>471.01618055555554</v>
+        <v>0.0</v>
       </c>
       <c r="BW88" s="2" t="n">
-        <v>176.354375</v>
+        <v>0.0</v>
       </c>
       <c r="BX88" s="2" t="n">
         <v>0.5949367088607594</v>
@@ -28955,10 +28955,10 @@
         <v>2.4717791483327907E-4</v>
       </c>
       <c r="CB88" s="2" t="n">
-        <v>0.4728801163474919</v>
+        <v>0.0</v>
       </c>
       <c r="CC88" s="2" t="n">
-        <v>0.4233154789260151</v>
+        <v>0.0</v>
       </c>
       <c r="CD88" s="2" t="n">
         <v>13.75</v>
@@ -29024,7 +29024,7 @@
         <v>38.75861111111111</v>
       </c>
       <c r="CY88" s="2" t="n">
-        <v>0.016203703703703703</v>
+        <v>0.0</v>
       </c>
       <c r="CZ88" s="2" t="n">
         <v>0.0859481582537517</v>
@@ -29042,7 +29042,7 @@
         <v>0.04339764451354039</v>
       </c>
       <c r="DE88" s="2" t="n">
-        <v>0.0859481582537517</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
@@ -29110,10 +29110,10 @@
         <v>0.0</v>
       </c>
       <c r="V89" s="2" t="n">
-        <v>0.4342785493827161</v>
+        <v>0.0</v>
       </c>
       <c r="W89" s="2" t="n">
-        <v>0.565721450617284</v>
+        <v>0.0</v>
       </c>
       <c r="X89" s="2" t="n">
         <v>-0.25</v>
@@ -29128,10 +29128,10 @@
         <v>0.0</v>
       </c>
       <c r="AB89" s="2" t="n">
-        <v>0.05265513184637946</v>
+        <v>0.0</v>
       </c>
       <c r="AC89" s="2" t="n">
-        <v>0.7896040536974912</v>
+        <v>0.0</v>
       </c>
       <c r="AD89" s="2" t="n">
         <v>-0.078125</v>
@@ -29185,7 +29185,7 @@
         <v>24.05185763888889</v>
       </c>
       <c r="AU89" s="2" t="n">
-        <v>0.016975308641975308</v>
+        <v>0.0</v>
       </c>
       <c r="AV89" s="2" t="n">
         <v>0.08502024291497975</v>
@@ -29215,7 +29215,7 @@
         <v>0.21145316422619687</v>
       </c>
       <c r="BE89" s="2" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="BF89" s="2" t="n">
         <v>12.0</v>
@@ -29266,10 +29266,10 @@
         <v>11.07039093594741</v>
       </c>
       <c r="BV89" s="2" t="n">
-        <v>280.01048611111116</v>
+        <v>0.0</v>
       </c>
       <c r="BW89" s="2" t="n">
-        <v>186.275625</v>
+        <v>0.0</v>
       </c>
       <c r="BX89" s="2" t="n">
         <v>0.20253164556962025</v>
@@ -29284,10 +29284,10 @@
         <v>0.15443504047543813</v>
       </c>
       <c r="CB89" s="2" t="n">
-        <v>0.2811185617754427</v>
+        <v>0.0</v>
       </c>
       <c r="CC89" s="2" t="n">
-        <v>0.447130134475642</v>
+        <v>0.0</v>
       </c>
       <c r="CD89" s="2" t="n">
         <v>16.0</v>
@@ -29353,7 +29353,7 @@
         <v>96.62958333333334</v>
       </c>
       <c r="CY89" s="2" t="n">
-        <v>0.03279320987654321</v>
+        <v>0.0</v>
       </c>
       <c r="CZ89" s="2" t="n">
         <v>0.17394270122783081</v>
@@ -29371,7 +29371,7 @@
         <v>0.10819521615389771</v>
       </c>
       <c r="DE89" s="2" t="n">
-        <v>0.17394270122783084</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -29739,7 +29739,7 @@
         <v>1.89873417721519E-4</v>
       </c>
       <c r="AU91" s="2" t="n">
-        <v>0.04861111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="AV91" s="2" t="n">
         <v>0.242914979757085</v>
@@ -29769,7 +29769,7 @@
         <v>1.6692820813449814E-6</v>
       </c>
       <c r="BE91" s="2" t="n">
-        <v>0.18475073313782991</v>
+        <v>0.0</v>
       </c>
       <c r="BF91" s="2" t="n">
         <v>21.75</v>
@@ -29820,10 +29820,10 @@
         <v>1.3671215080691337</v>
       </c>
       <c r="BV91" s="2" t="n">
-        <v>134.19472222222223</v>
+        <v>0.0</v>
       </c>
       <c r="BW91" s="2" t="n">
-        <v>-3.702916666666667</v>
+        <v>0.0</v>
       </c>
       <c r="BX91" s="2" t="n">
         <v>1.0</v>
@@ -29838,10 +29838,10 @@
         <v>0.019071726252044046</v>
       </c>
       <c r="CB91" s="2" t="n">
-        <v>0.13472576628432628</v>
+        <v>0.0</v>
       </c>
       <c r="CC91" s="2" t="n">
-        <v>-0.008888364363929863</v>
+        <v>0.0</v>
       </c>
       <c r="CD91" s="2" t="n">
         <v>41.5</v>
@@ -29907,7 +29907,7 @@
         <v>16.87097222222222</v>
       </c>
       <c r="CY91" s="2" t="n">
-        <v>0.11786265432098765</v>
+        <v>0.0</v>
       </c>
       <c r="CZ91" s="2" t="n">
         <v>0.6251705320600273</v>
@@ -29925,7 +29925,7 @@
         <v>0.018890265520580606</v>
       </c>
       <c r="DE91" s="2" t="n">
-        <v>0.6251705320600273</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -30068,7 +30068,7 @@
         <v>0.0</v>
       </c>
       <c r="AU92" s="2" t="n">
-        <v>0.014660493827160493</v>
+        <v>0.0</v>
       </c>
       <c r="AV92" s="2" t="n">
         <v>0.07692307692307693</v>
@@ -30098,7 +30098,7 @@
         <v>0.0</v>
       </c>
       <c r="BE92" s="2" t="n">
-        <v>0.05571847507331378</v>
+        <v>0.0</v>
       </c>
       <c r="BF92" s="2" t="n">
         <v>9.25</v>
@@ -30149,10 +30149,10 @@
         <v>6.483726078276982</v>
       </c>
       <c r="BV92" s="2" t="n">
-        <v>134.92930555555554</v>
+        <v>0.0</v>
       </c>
       <c r="BW92" s="2" t="n">
-        <v>-2.842361111111111</v>
+        <v>0.0</v>
       </c>
       <c r="BX92" s="2" t="n">
         <v>0.25316455696202533</v>
@@ -30167,10 +30167,10 @@
         <v>0.09044978674410892</v>
       </c>
       <c r="CB92" s="2" t="n">
-        <v>0.13546325655849026</v>
+        <v>0.0</v>
       </c>
       <c r="CC92" s="2" t="n">
-        <v>-0.0068227139532584915</v>
+        <v>0.0</v>
       </c>
       <c r="CD92" s="2" t="n">
         <v>14.25</v>
@@ -30236,7 +30236,7 @@
         <v>79.8484722222222</v>
       </c>
       <c r="CY92" s="2" t="n">
-        <v>0.0320216049382716</v>
+        <v>0.0</v>
       </c>
       <c r="CZ92" s="2" t="n">
         <v>0.16984993178717597</v>
@@ -30254,7 +30254,7 @@
         <v>0.08940556725614733</v>
       </c>
       <c r="DE92" s="2" t="n">
-        <v>0.16984993178717597</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
@@ -30322,10 +30322,10 @@
         <v>4.632098482784298</v>
       </c>
       <c r="V93" s="2" t="n">
-        <v>0.9358980624142662</v>
+        <v>0.0</v>
       </c>
       <c r="W93" s="2" t="n">
-        <v>0.007836291152263374</v>
+        <v>0.0</v>
       </c>
       <c r="X93" s="2" t="n">
         <v>0.24372759856630824</v>
@@ -30340,10 +30340,10 @@
         <v>0.016154766367647427</v>
       </c>
       <c r="AB93" s="2" t="n">
-        <v>0.11347517841081643</v>
+        <v>0.0</v>
       </c>
       <c r="AC93" s="2" t="n">
-        <v>0.010937480367819557</v>
+        <v>0.0</v>
       </c>
       <c r="AD93" s="2" t="n">
         <v>0.023255813953488413</v>
@@ -30397,7 +30397,7 @@
         <v>0.02372759856630824</v>
       </c>
       <c r="AU93" s="2" t="n">
-        <v>0.10802469135802469</v>
+        <v>0.0</v>
       </c>
       <c r="AV93" s="2" t="n">
         <v>0.4534412955465587</v>
@@ -30427,7 +30427,7 @@
         <v>2.0860242363244876E-4</v>
       </c>
       <c r="BE93" s="2" t="n">
-        <v>0.4105571847507331</v>
+        <v>0.0</v>
       </c>
       <c r="BF93" s="2" t="n">
         <v>32.666666666666664</v>
@@ -30478,10 +30478,10 @@
         <v>19.288957393063207</v>
       </c>
       <c r="BV93" s="2" t="n">
-        <v>996.0583333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BW93" s="2" t="n">
-        <v>30.15185185185185</v>
+        <v>0.0</v>
       </c>
       <c r="BX93" s="2" t="n">
         <v>0.5232067510548524</v>
@@ -30496,10 +30496,10 @@
         <v>0.2690863342552575</v>
       </c>
       <c r="CB93" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CC93" s="2" t="n">
-        <v>0.07237555409199756</v>
+        <v>0.0</v>
       </c>
       <c r="CD93" s="2" t="n">
         <v>43.0</v>
@@ -30565,7 +30565,7 @@
         <v>85.54166666666667</v>
       </c>
       <c r="CY93" s="2" t="n">
-        <v>0.11471193415637859</v>
+        <v>0.0</v>
       </c>
       <c r="CZ93" s="2" t="n">
         <v>0.6084583901773533</v>
@@ -30583,7 +30583,7 @@
         <v>0.09578018238201379</v>
       </c>
       <c r="DE93" s="2" t="n">
-        <v>0.6084583901773533</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -30876,10 +30876,10 @@
         <v>14.300062264325218</v>
       </c>
       <c r="V95" s="2" t="n">
-        <v>0.7486554783950617</v>
+        <v>0.0</v>
       </c>
       <c r="W95" s="2" t="n">
-        <v>0.030634645061728395</v>
+        <v>0.0</v>
       </c>
       <c r="X95" s="2" t="n">
         <v>0.13888888888888892</v>
@@ -30894,10 +30894,10 @@
         <v>0.049872464020697026</v>
       </c>
       <c r="AB95" s="2" t="n">
-        <v>0.09077250759550218</v>
+        <v>0.0</v>
       </c>
       <c r="AC95" s="2" t="n">
-        <v>0.04275821589923912</v>
+        <v>0.0</v>
       </c>
       <c r="AD95" s="2" t="n">
         <v>0.037037037037037035</v>
@@ -30951,7 +30951,7 @@
         <v>2.185234374999999</v>
       </c>
       <c r="AU95" s="2" t="n">
-        <v>0.04861111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="AV95" s="2" t="n">
         <v>0.0931174089068826</v>
@@ -30981,7 +30981,7 @@
         <v>0.019211602284826747</v>
       </c>
       <c r="BE95" s="2" t="n">
-        <v>0.18475073313782991</v>
+        <v>0.0</v>
       </c>
       <c r="BF95" s="2" t="n">
         <v>7.333333333333333</v>
@@ -31032,10 +31032,10 @@
         <v>10.933281689192476</v>
       </c>
       <c r="BV95" s="2" t="n">
-        <v>589.4125925925927</v>
+        <v>0.0</v>
       </c>
       <c r="BW95" s="2" t="n">
-        <v>25.985833333333336</v>
+        <v>0.0</v>
       </c>
       <c r="BX95" s="2" t="n">
         <v>0.540084388185654</v>
@@ -31050,10 +31050,10 @@
         <v>0.1525223282510308</v>
       </c>
       <c r="CB95" s="2" t="n">
-        <v>0.5917450543484829</v>
+        <v>0.0</v>
       </c>
       <c r="CC95" s="2" t="n">
-        <v>0.062375574650708886</v>
+        <v>0.0</v>
       </c>
       <c r="CD95" s="2" t="n">
         <v>18.0</v>
@@ -31119,7 +31119,7 @@
         <v>125.43027777777779</v>
       </c>
       <c r="CY95" s="2" t="n">
-        <v>0.034722222222222224</v>
+        <v>0.0</v>
       </c>
       <c r="CZ95" s="2" t="n">
         <v>0.18417462482946792</v>
@@ -31137,7 +31137,7 @@
         <v>0.14044307703983094</v>
       </c>
       <c r="DE95" s="2" t="n">
-        <v>0.18417462482946795</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
@@ -31505,7 +31505,7 @@
         <v>0.0</v>
       </c>
       <c r="AU97" s="2" t="n">
-        <v>0.05169753086419753</v>
+        <v>0.0</v>
       </c>
       <c r="AV97" s="2" t="n">
         <v>0.27125506072874495</v>
@@ -31535,7 +31535,7 @@
         <v>0.0</v>
       </c>
       <c r="BE97" s="2" t="n">
-        <v>0.19648093841642228</v>
+        <v>0.0</v>
       </c>
       <c r="BF97" s="2" t="n">
         <v>17.5</v>
@@ -31586,10 +31586,10 @@
         <v>8.855333386935868</v>
       </c>
       <c r="BV97" s="2" t="n">
-        <v>235.82944444444445</v>
+        <v>0.0</v>
       </c>
       <c r="BW97" s="2" t="n">
-        <v>3.7813194444444442</v>
+        <v>0.0</v>
       </c>
       <c r="BX97" s="2" t="n">
         <v>0.12658227848101267</v>
@@ -31604,10 +31604,10 @@
         <v>0.123534370009843</v>
       </c>
       <c r="CB97" s="2" t="n">
-        <v>0.23676268402397227</v>
+        <v>0.0</v>
       </c>
       <c r="CC97" s="2" t="n">
-        <v>0.009076559918614174</v>
+        <v>0.0</v>
       </c>
       <c r="CD97" s="2" t="n">
         <v>20.0</v>
@@ -31673,7 +31673,7 @@
         <v>0.13201388888888888</v>
       </c>
       <c r="CY97" s="2" t="n">
-        <v>0.05999228395061729</v>
+        <v>0.0</v>
       </c>
       <c r="CZ97" s="2" t="n">
         <v>0.31821282401091405</v>
@@ -31691,7 +31691,7 @@
         <v>1.4781468315327827E-4</v>
       </c>
       <c r="DE97" s="2" t="n">
-        <v>0.31821282401091405</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -31759,10 +31759,10 @@
         <v>17.71131242441114</v>
       </c>
       <c r="V98" s="2" t="n">
-        <v>0.07577139060356652</v>
+        <v>0.0</v>
       </c>
       <c r="W98" s="2" t="n">
-        <v>0.035406807270233195</v>
+        <v>0.0</v>
       </c>
       <c r="X98" s="2" t="n">
         <v>0.888888888888889</v>
@@ -31777,10 +31777,10 @@
         <v>0.061769436756186714</v>
       </c>
       <c r="AB98" s="2" t="n">
-        <v>0.009187081812088925</v>
+        <v>0.0</v>
       </c>
       <c r="AC98" s="2" t="n">
-        <v>0.04941894729032532</v>
+        <v>0.0</v>
       </c>
       <c r="AD98" s="2" t="n">
         <v>0.33156028368794327</v>
@@ -31834,7 +31834,7 @@
         <v>1.8498674242424231</v>
       </c>
       <c r="AU98" s="2" t="n">
-        <v>0.24459876543209877</v>
+        <v>0.0</v>
       </c>
       <c r="AV98" s="2" t="n">
         <v>1.0</v>
@@ -31864,7 +31864,7 @@
         <v>0.016263206199198802</v>
       </c>
       <c r="BE98" s="2" t="n">
-        <v>0.9296187683284457</v>
+        <v>0.0</v>
       </c>
       <c r="BF98" s="2" t="n">
         <v>48.0</v>
@@ -31915,10 +31915,10 @@
         <v>5.903770808137047</v>
       </c>
       <c r="BV98" s="2" t="n">
-        <v>32.73324074074074</v>
+        <v>0.0</v>
       </c>
       <c r="BW98" s="2" t="n">
-        <v>15.29574074074074</v>
+        <v>0.0</v>
       </c>
       <c r="BX98" s="2" t="n">
         <v>0.7426160337552742</v>
@@ -31933,10 +31933,10 @@
         <v>0.08235924900824895</v>
       </c>
       <c r="CB98" s="2" t="n">
-        <v>0.03286277484492114</v>
+        <v>0.0</v>
       </c>
       <c r="CC98" s="2" t="n">
-        <v>0.03671541359376442</v>
+        <v>0.0</v>
       </c>
       <c r="CD98" s="2" t="n">
         <v>62.666666666666664</v>
@@ -32002,7 +32002,7 @@
         <v>28.450370370370354</v>
       </c>
       <c r="CY98" s="2" t="n">
-        <v>0.18852880658436214</v>
+        <v>0.0</v>
       </c>
       <c r="CZ98" s="2" t="n">
         <v>1.0</v>
@@ -32020,7 +32020,7 @@
         <v>0.03185560638569797</v>
       </c>
       <c r="DE98" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -32313,10 +32313,10 @@
         <v>105.1230581996985</v>
       </c>
       <c r="V100" s="2" t="n">
-        <v>0.4311805555555555</v>
+        <v>0.0</v>
       </c>
       <c r="W100" s="2" t="n">
-        <v>-0.008860596707818929</v>
+        <v>0.0</v>
       </c>
       <c r="X100" s="2" t="n">
         <v>1.0</v>
@@ -32331,10 +32331,10 @@
         <v>0.36662399372129545</v>
       </c>
       <c r="AB100" s="2" t="n">
-        <v>0.052279508243371034</v>
+        <v>0.0</v>
       </c>
       <c r="AC100" s="2" t="n">
-        <v>-0.012367151839546524</v>
+        <v>0.0</v>
       </c>
       <c r="AD100" s="2" t="n">
         <v>0.19444444444444442</v>
@@ -32388,7 +32388,7 @@
         <v>0.669</v>
       </c>
       <c r="AU100" s="2" t="n">
-        <v>0.0787037037037037</v>
+        <v>0.0</v>
       </c>
       <c r="AV100" s="2" t="n">
         <v>0.3724696356275304</v>
@@ -32418,7 +32418,7 @@
         <v>0.005881548485410907</v>
       </c>
       <c r="BE100" s="2" t="n">
-        <v>0.2991202346041056</v>
+        <v>0.0</v>
       </c>
       <c r="BF100" s="2" t="n">
         <v>12.25</v>
@@ -32469,10 +32469,10 @@
         <v>26.280764549924626</v>
       </c>
       <c r="BV100" s="2" t="n">
-        <v>139.7025</v>
+        <v>0.0</v>
       </c>
       <c r="BW100" s="2" t="n">
-        <v>-2.870833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="BX100" s="2" t="n">
         <v>0.06329113924050633</v>
@@ -32487,10 +32487,10 @@
         <v>0.36662399372129545</v>
       </c>
       <c r="CB100" s="2" t="n">
-        <v>0.14025533979770258</v>
+        <v>0.0</v>
       </c>
       <c r="CC100" s="2" t="n">
-        <v>-0.0068910577773688255</v>
+        <v>0.0</v>
       </c>
       <c r="CD100" s="2" t="n">
         <v>13.5</v>
@@ -32556,7 +32556,7 @@
         <v>0.84125</v>
       </c>
       <c r="CY100" s="2" t="n">
-        <v>0.03780864197530864</v>
+        <v>0.0</v>
       </c>
       <c r="CZ100" s="2" t="n">
         <v>0.20054570259208732</v>
@@ -32574,7 +32574,7 @@
         <v>9.419395432502963E-4</v>
       </c>
       <c r="DE100" s="2" t="n">
-        <v>0.20054570259208732</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -32642,10 +32642,10 @@
         <v>35.42133354774347</v>
       </c>
       <c r="V101" s="2" t="n">
-        <v>0.7278686556927297</v>
+        <v>0.0</v>
       </c>
       <c r="W101" s="2" t="n">
-        <v>0.011670739026063099</v>
+        <v>0.0</v>
       </c>
       <c r="X101" s="2" t="n">
         <v>1.0</v>
@@ -32660,10 +32660,10 @@
         <v>0.123534370009843</v>
       </c>
       <c r="AB101" s="2" t="n">
-        <v>0.08825216001762992</v>
+        <v>0.0</v>
       </c>
       <c r="AC101" s="2" t="n">
-        <v>0.016289399729442374</v>
+        <v>0.0</v>
       </c>
       <c r="AD101" s="2" t="n">
         <v>0.22499999999999998</v>
@@ -32717,7 +32717,7 @@
         <v>0.05280555555555555</v>
       </c>
       <c r="AU101" s="2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="AV101" s="2" t="n">
         <v>0.5384615384615384</v>
@@ -32747,7 +32747,7 @@
         <v>4.642428031376072E-4</v>
       </c>
       <c r="BE101" s="2" t="n">
-        <v>0.42228739002932547</v>
+        <v>0.0</v>
       </c>
       <c r="BF101" s="2" t="n">
         <v>17.5</v>
@@ -32798,10 +32798,10 @@
         <v>8.855333386935868</v>
       </c>
       <c r="BV101" s="2" t="n">
-        <v>235.82944444444445</v>
+        <v>0.0</v>
       </c>
       <c r="BW101" s="2" t="n">
-        <v>3.7813194444444442</v>
+        <v>0.0</v>
       </c>
       <c r="BX101" s="2" t="n">
         <v>0.12658227848101267</v>
@@ -32816,10 +32816,10 @@
         <v>0.123534370009843</v>
       </c>
       <c r="CB101" s="2" t="n">
-        <v>0.23676268402397227</v>
+        <v>0.0</v>
       </c>
       <c r="CC101" s="2" t="n">
-        <v>0.009076559918614174</v>
+        <v>0.0</v>
       </c>
       <c r="CD101" s="2" t="n">
         <v>20.0</v>
@@ -32885,7 +32885,7 @@
         <v>0.13201388888888888</v>
       </c>
       <c r="CY101" s="2" t="n">
-        <v>0.05999228395061729</v>
+        <v>0.0</v>
       </c>
       <c r="CZ101" s="2" t="n">
         <v>0.31821282401091405</v>
@@ -32903,7 +32903,7 @@
         <v>1.4781468315327827E-4</v>
       </c>
       <c r="DE101" s="2" t="n">
-        <v>0.31821282401091405</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
@@ -33271,7 +33271,7 @@
         <v>0.0</v>
       </c>
       <c r="AU103" s="2" t="n">
-        <v>0.024691358024691357</v>
+        <v>0.0</v>
       </c>
       <c r="AV103" s="2" t="n">
         <v>0.12955465587044535</v>
@@ -33301,7 +33301,7 @@
         <v>0.0</v>
       </c>
       <c r="BE103" s="2" t="n">
-        <v>0.093841642228739</v>
+        <v>0.0</v>
       </c>
       <c r="BF103" s="2" t="n">
         <v>14.0</v>
@@ -33352,10 +33352,10 @@
         <v>15.505004766442026</v>
       </c>
       <c r="BV103" s="2" t="n">
-        <v>202.0499074074074</v>
+        <v>0.0</v>
       </c>
       <c r="BW103" s="2" t="n">
-        <v>5.675648148148149</v>
+        <v>0.0</v>
       </c>
       <c r="BX103" s="2" t="n">
         <v>0.1518987341772152</v>
@@ -33370,10 +33370,10 @@
         <v>0.21629913997905365</v>
       </c>
       <c r="CB103" s="2" t="n">
-        <v>0.20284947241116139</v>
+        <v>0.0</v>
       </c>
       <c r="CC103" s="2" t="n">
-        <v>0.013623646785337106</v>
+        <v>0.0</v>
       </c>
       <c r="CD103" s="2" t="n">
         <v>17.0</v>
@@ -33439,7 +33439,7 @@
         <v>28.299166666666668</v>
       </c>
       <c r="CY103" s="2" t="n">
-        <v>0.031635802469135804</v>
+        <v>0.0</v>
       </c>
       <c r="CZ103" s="2" t="n">
         <v>0.16780354706684855</v>
@@ -33457,7 +33457,7 @@
         <v>0.03168630505124994</v>
       </c>
       <c r="DE103" s="2" t="n">
-        <v>0.16780354706684858</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -33525,10 +33525,10 @@
         <v>17.36771259520912</v>
       </c>
       <c r="V104" s="2" t="n">
-        <v>0.747619598765432</v>
+        <v>0.0</v>
       </c>
       <c r="W104" s="2" t="n">
-        <v>0.017064471879286693</v>
+        <v>0.0</v>
       </c>
       <c r="X104" s="2" t="n">
         <v>0.4408602150537635</v>
@@ -33543,10 +33543,10 @@
         <v>0.06057110839910358</v>
       </c>
       <c r="AB104" s="2" t="n">
-        <v>0.09064690991504419</v>
+        <v>0.0</v>
       </c>
       <c r="AC104" s="2" t="n">
-        <v>0.023817686522915726</v>
+        <v>0.0</v>
       </c>
       <c r="AD104" s="2" t="n">
         <v>0.09482758620689657</v>
@@ -33600,7 +33600,7 @@
         <v>0.8505465949820789</v>
       </c>
       <c r="AU104" s="2" t="n">
-        <v>0.02854938271604938</v>
+        <v>0.0</v>
       </c>
       <c r="AV104" s="2" t="n">
         <v>0.044534412955465584</v>
@@ -33630,7 +33630,7 @@
         <v>0.007477624869190209</v>
       </c>
       <c r="BE104" s="2" t="n">
-        <v>0.10850439882697946</v>
+        <v>0.0</v>
       </c>
       <c r="BF104" s="2" t="n">
         <v>6.75</v>
@@ -33681,10 +33681,10 @@
         <v>6.337769339083014</v>
       </c>
       <c r="BV104" s="2" t="n">
-        <v>502.5624305555555</v>
+        <v>0.0</v>
       </c>
       <c r="BW104" s="2" t="n">
-        <v>39.632083333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX104" s="2" t="n">
         <v>0.3924050632911392</v>
@@ -33699,10 +33699,10 @@
         <v>0.08841364953310134</v>
       </c>
       <c r="CB104" s="2" t="n">
-        <v>0.5045512032148942</v>
+        <v>0.0</v>
       </c>
       <c r="CC104" s="2" t="n">
-        <v>0.0951316027010146</v>
+        <v>0.0</v>
       </c>
       <c r="CD104" s="2" t="n">
         <v>14.5</v>
@@ -33768,7 +33768,7 @@
         <v>893.1040277777779</v>
       </c>
       <c r="CY104" s="2" t="n">
-        <v>0.040123456790123455</v>
+        <v>0.0</v>
       </c>
       <c r="CZ104" s="2" t="n">
         <v>0.21282401091405184</v>
@@ -33786,7 +33786,7 @@
         <v>1.0</v>
       </c>
       <c r="DE104" s="2" t="n">
-        <v>0.21282401091405184</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -33854,10 +33854,10 @@
         <v>7.983364761122937</v>
       </c>
       <c r="V105" s="2" t="n">
-        <v>0.8034990140603566</v>
+        <v>0.0</v>
       </c>
       <c r="W105" s="2" t="n">
-        <v>0.10525677297668039</v>
+        <v>0.0</v>
       </c>
       <c r="X105" s="2" t="n">
         <v>0.22580645161290325</v>
@@ -33872,10 +33872,10 @@
         <v>0.02784254113399777</v>
       </c>
       <c r="AB105" s="2" t="n">
-        <v>0.09742214204206287</v>
+        <v>0.0</v>
       </c>
       <c r="AC105" s="2" t="n">
-        <v>0.14691183184024056</v>
+        <v>0.0</v>
       </c>
       <c r="AD105" s="2" t="n">
         <v>0.18103448275862066</v>
@@ -33929,7 +33929,7 @@
         <v>0.6431272401433692</v>
       </c>
       <c r="AU105" s="2" t="n">
-        <v>0.05092592592592592</v>
+        <v>0.0</v>
       </c>
       <c r="AV105" s="2" t="n">
         <v>0.1659919028340081</v>
@@ -33959,7 +33959,7 @@
         <v>0.005654086764113198</v>
       </c>
       <c r="BE105" s="2" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.0</v>
       </c>
       <c r="BF105" s="2" t="n">
         <v>6.75</v>
@@ -34010,10 +34010,10 @@
         <v>6.337769339083014</v>
       </c>
       <c r="BV105" s="2" t="n">
-        <v>502.5624305555555</v>
+        <v>0.0</v>
       </c>
       <c r="BW105" s="2" t="n">
-        <v>39.632083333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX105" s="2" t="n">
         <v>0.3924050632911392</v>
@@ -34028,10 +34028,10 @@
         <v>0.08841364953310134</v>
       </c>
       <c r="CB105" s="2" t="n">
-        <v>0.5045512032148942</v>
+        <v>0.0</v>
       </c>
       <c r="CC105" s="2" t="n">
-        <v>0.0951316027010146</v>
+        <v>0.0</v>
       </c>
       <c r="CD105" s="2" t="n">
         <v>14.5</v>
@@ -34097,7 +34097,7 @@
         <v>893.1040277777779</v>
       </c>
       <c r="CY105" s="2" t="n">
-        <v>0.040123456790123455</v>
+        <v>0.0</v>
       </c>
       <c r="CZ105" s="2" t="n">
         <v>0.21282401091405184</v>
@@ -34115,7 +34115,7 @@
         <v>1.0</v>
       </c>
       <c r="DE105" s="2" t="n">
-        <v>0.21282401091405184</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -34183,10 +34183,10 @@
         <v>25.93490431310793</v>
       </c>
       <c r="V106" s="2" t="n">
-        <v>0.4164484739368998</v>
+        <v>0.0</v>
       </c>
       <c r="W106" s="2" t="n">
-        <v>-0.008772719478737997</v>
+        <v>0.0</v>
       </c>
       <c r="X106" s="2" t="n">
         <v>1.0</v>
@@ -34201,10 +34201,10 @@
         <v>0.09044978674410892</v>
       </c>
       <c r="AB106" s="2" t="n">
-        <v>0.05049328209634041</v>
+        <v>0.0</v>
       </c>
       <c r="AC106" s="2" t="n">
-        <v>-0.0122444974550711</v>
+        <v>0.0</v>
       </c>
       <c r="AD106" s="2" t="n">
         <v>0.45175438596491224</v>
@@ -34258,7 +34258,7 @@
         <v>15.969694444444439</v>
       </c>
       <c r="AU106" s="2" t="n">
-        <v>0.07484567901234568</v>
+        <v>0.0</v>
       </c>
       <c r="AV106" s="2" t="n">
         <v>0.2631578947368421</v>
@@ -34288,7 +34288,7 @@
         <v>0.14039840384483881</v>
       </c>
       <c r="BE106" s="2" t="n">
-        <v>0.28445747800586507</v>
+        <v>0.0</v>
       </c>
       <c r="BF106" s="2" t="n">
         <v>9.25</v>
@@ -34339,10 +34339,10 @@
         <v>6.483726078276982</v>
       </c>
       <c r="BV106" s="2" t="n">
-        <v>134.92930555555554</v>
+        <v>0.0</v>
       </c>
       <c r="BW106" s="2" t="n">
-        <v>-2.842361111111111</v>
+        <v>0.0</v>
       </c>
       <c r="BX106" s="2" t="n">
         <v>0.25316455696202533</v>
@@ -34357,10 +34357,10 @@
         <v>0.09044978674410892</v>
       </c>
       <c r="CB106" s="2" t="n">
-        <v>0.13546325655849026</v>
+        <v>0.0</v>
       </c>
       <c r="CC106" s="2" t="n">
-        <v>-0.0068227139532584915</v>
+        <v>0.0</v>
       </c>
       <c r="CD106" s="2" t="n">
         <v>14.25</v>
@@ -34426,7 +34426,7 @@
         <v>79.8484722222222</v>
       </c>
       <c r="CY106" s="2" t="n">
-        <v>0.0320216049382716</v>
+        <v>0.0</v>
       </c>
       <c r="CZ106" s="2" t="n">
         <v>0.16984993178717597</v>
@@ -34444,7 +34444,7 @@
         <v>0.08940556725614733</v>
       </c>
       <c r="DE106" s="2" t="n">
-        <v>0.16984993178717597</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
@@ -34512,10 +34512,10 @@
         <v>23.40861196028455</v>
       </c>
       <c r="V107" s="2" t="n">
-        <v>0.41417459705075443</v>
+        <v>0.0</v>
       </c>
       <c r="W107" s="2" t="n">
-        <v>0.08088327331961591</v>
+        <v>0.0</v>
       </c>
       <c r="X107" s="2" t="n">
         <v>1.0</v>
@@ -34530,10 +34530,10 @@
         <v>0.08163916605287858</v>
       </c>
       <c r="AB107" s="2" t="n">
-        <v>0.050217580504786766</v>
+        <v>0.0</v>
       </c>
       <c r="AC107" s="2" t="n">
-        <v>0.11289259125635782</v>
+        <v>0.0</v>
       </c>
       <c r="AD107" s="2" t="n">
         <v>0.4521276595744681</v>
@@ -34587,7 +34587,7 @@
         <v>0.014835858585858584</v>
       </c>
       <c r="AU107" s="2" t="n">
-        <v>0.03780864197530864</v>
+        <v>0.0</v>
       </c>
       <c r="AV107" s="2" t="n">
         <v>0.11740890688259109</v>
@@ -34617,7 +34617,7 @@
         <v>1.3043022660004028E-4</v>
       </c>
       <c r="BE107" s="2" t="n">
-        <v>0.1436950146627566</v>
+        <v>0.0</v>
       </c>
       <c r="BF107" s="2" t="n">
         <v>6.25</v>
@@ -34668,10 +34668,10 @@
         <v>5.852152990071137</v>
       </c>
       <c r="BV107" s="2" t="n">
-        <v>134.19256944444444</v>
+        <v>0.0</v>
       </c>
       <c r="BW107" s="2" t="n">
-        <v>26.206180555555555</v>
+        <v>0.0</v>
       </c>
       <c r="BX107" s="2" t="n">
         <v>0.27848101265822783</v>
@@ -34686,10 +34686,10 @@
         <v>0.08163916605287858</v>
       </c>
       <c r="CB107" s="2" t="n">
-        <v>0.13472360498743657</v>
+        <v>0.0</v>
       </c>
       <c r="CC107" s="2" t="n">
-        <v>0.0629044891724213</v>
+        <v>0.0</v>
       </c>
       <c r="CD107" s="2" t="n">
         <v>11.75</v>
@@ -34755,7 +34755,7 @@
         <v>1.6766666666666667</v>
       </c>
       <c r="CY107" s="2" t="n">
-        <v>0.02565586419753086</v>
+        <v>0.0</v>
       </c>
       <c r="CZ107" s="2" t="n">
         <v>0.13608458390177353</v>
@@ -34773,7 +34773,7 @@
         <v>0.0018773475592071284</v>
       </c>
       <c r="DE107" s="2" t="n">
-        <v>0.13608458390177353</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -34916,7 +34916,7 @@
         <v>0.0</v>
       </c>
       <c r="AU108" s="2" t="n">
-        <v>0.020061728395061727</v>
+        <v>0.0</v>
       </c>
       <c r="AV108" s="2" t="n">
         <v>0.10526315789473684</v>
@@ -34946,7 +34946,7 @@
         <v>0.0</v>
       </c>
       <c r="BE108" s="2" t="n">
-        <v>0.07624633431085044</v>
+        <v>0.0</v>
       </c>
       <c r="BF108" s="2" t="n">
         <v>6.333333333333333</v>
@@ -34997,10 +34997,10 @@
         <v>0.004426519002717164</v>
       </c>
       <c r="BV108" s="2" t="n">
-        <v>187.69268518518518</v>
+        <v>0.0</v>
       </c>
       <c r="BW108" s="2" t="n">
-        <v>244.17972222222224</v>
+        <v>0.0</v>
       </c>
       <c r="BX108" s="2" t="n">
         <v>0.1518987341772152</v>
@@ -35015,10 +35015,10 @@
         <v>6.175117439892085E-5</v>
       </c>
       <c r="CB108" s="2" t="n">
-        <v>0.18843543485758213</v>
+        <v>0.0</v>
       </c>
       <c r="CC108" s="2" t="n">
-        <v>0.5861213029533368</v>
+        <v>0.0</v>
       </c>
       <c r="CD108" s="2" t="n">
         <v>9.333333333333334</v>
@@ -35084,7 +35084,7 @@
         <v>19.30416666666667</v>
       </c>
       <c r="CY108" s="2" t="n">
-        <v>0.019032921810699585</v>
+        <v>0.0</v>
       </c>
       <c r="CZ108" s="2" t="n">
         <v>0.1009549795361528</v>
@@ -35102,7 +35102,7 @@
         <v>0.0216146899647282</v>
       </c>
       <c r="DE108" s="2" t="n">
-        <v>0.10095497953615278</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
@@ -35470,7 +35470,7 @@
         <v>113.74555555555557</v>
       </c>
       <c r="AU110" s="2" t="n">
-        <v>0.036265432098765434</v>
+        <v>0.0</v>
       </c>
       <c r="AV110" s="2" t="n">
         <v>0.10526315789473684</v>
@@ -35500,7 +35500,7 @@
         <v>1.0</v>
       </c>
       <c r="BE110" s="2" t="n">
-        <v>0.13782991202346043</v>
+        <v>0.0</v>
       </c>
       <c r="BF110" s="2" t="n">
         <v>6.75</v>
@@ -35551,10 +35551,10 @@
         <v>6.337769339083014</v>
       </c>
       <c r="BV110" s="2" t="n">
-        <v>502.5624305555555</v>
+        <v>0.0</v>
       </c>
       <c r="BW110" s="2" t="n">
-        <v>39.632083333333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX110" s="2" t="n">
         <v>0.3924050632911392</v>
@@ -35569,10 +35569,10 @@
         <v>0.08841364953310134</v>
       </c>
       <c r="CB110" s="2" t="n">
-        <v>0.5045512032148942</v>
+        <v>0.0</v>
       </c>
       <c r="CC110" s="2" t="n">
-        <v>0.0951316027010146</v>
+        <v>0.0</v>
       </c>
       <c r="CD110" s="2" t="n">
         <v>14.5</v>
@@ -35638,7 +35638,7 @@
         <v>893.1040277777779</v>
       </c>
       <c r="CY110" s="2" t="n">
-        <v>0.040123456790123455</v>
+        <v>0.0</v>
       </c>
       <c r="CZ110" s="2" t="n">
         <v>0.21282401091405184</v>
@@ -35656,7 +35656,7 @@
         <v>1.0</v>
       </c>
       <c r="DE110" s="2" t="n">
-        <v>0.21282401091405184</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
@@ -35799,7 +35799,7 @@
         <v>0.0</v>
       </c>
       <c r="AU111" s="2" t="n">
-        <v>0.013117283950617283</v>
+        <v>0.0</v>
       </c>
       <c r="AV111" s="2" t="n">
         <v>0.06882591093117409</v>
@@ -35829,7 +35829,7 @@
         <v>0.0</v>
       </c>
       <c r="BE111" s="2" t="n">
-        <v>0.04985337243401759</v>
+        <v>0.0</v>
       </c>
       <c r="BF111" s="2" t="n">
         <v>7.333333333333333</v>
@@ -35880,10 +35880,10 @@
         <v>10.933281689192476</v>
       </c>
       <c r="BV111" s="2" t="n">
-        <v>589.4125925925927</v>
+        <v>0.0</v>
       </c>
       <c r="BW111" s="2" t="n">
-        <v>25.985833333333336</v>
+        <v>0.0</v>
       </c>
       <c r="BX111" s="2" t="n">
         <v>0.540084388185654</v>
@@ -35898,10 +35898,10 @@
         <v>0.1525223282510308</v>
       </c>
       <c r="CB111" s="2" t="n">
-        <v>0.5917450543484829</v>
+        <v>0.0</v>
       </c>
       <c r="CC111" s="2" t="n">
-        <v>0.062375574650708886</v>
+        <v>0.0</v>
       </c>
       <c r="CD111" s="2" t="n">
         <v>18.0</v>
@@ -35967,7 +35967,7 @@
         <v>125.43027777777779</v>
       </c>
       <c r="CY111" s="2" t="n">
-        <v>0.034722222222222224</v>
+        <v>0.0</v>
       </c>
       <c r="CZ111" s="2" t="n">
         <v>0.18417462482946792</v>
@@ -35985,7 +35985,7 @@
         <v>0.14044307703983094</v>
       </c>
       <c r="DE111" s="2" t="n">
-        <v>0.18417462482946795</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -36053,10 +36053,10 @@
         <v>0.0</v>
       </c>
       <c r="V112" s="2" t="n">
-        <v>0.28350994513031547</v>
+        <v>0.0</v>
       </c>
       <c r="W112" s="2" t="n">
-        <v>0.7164621913580247</v>
+        <v>0.0</v>
       </c>
       <c r="X112" s="2" t="n">
         <v>-0.15151515151515152</v>
@@ -36071,10 +36071,10 @@
         <v>0.0</v>
       </c>
       <c r="AB112" s="2" t="n">
-        <v>0.03437483514167485</v>
+        <v>0.0</v>
       </c>
       <c r="AC112" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD112" s="2" t="n">
         <v>-0.04661016949152541</v>
@@ -36128,7 +36128,7 @@
         <v>7.702020202020203E-4</v>
       </c>
       <c r="AU112" s="2" t="n">
-        <v>0.022376543209876542</v>
+        <v>0.0</v>
       </c>
       <c r="AV112" s="2" t="n">
         <v>0.10121457489878542</v>
@@ -36158,7 +36158,7 @@
         <v>6.771271338385072E-6</v>
       </c>
       <c r="BE112" s="2" t="n">
-        <v>0.08504398826979472</v>
+        <v>0.0</v>
       </c>
       <c r="BF112" s="2" t="n">
         <v>9.25</v>
@@ -36209,10 +36209,10 @@
         <v>13.587512733346115</v>
       </c>
       <c r="BV112" s="2" t="n">
-        <v>364.24090277777776</v>
+        <v>0.0</v>
       </c>
       <c r="BW112" s="2" t="n">
-        <v>416.60270833333334</v>
+        <v>0.0</v>
       </c>
       <c r="BX112" s="2" t="n">
         <v>0.27848101265822783</v>
@@ -36227,10 +36227,10 @@
         <v>0.18954959143502526</v>
       </c>
       <c r="CB112" s="2" t="n">
-        <v>0.36568230051229705</v>
+        <v>0.0</v>
       </c>
       <c r="CC112" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CD112" s="2" t="n">
         <v>14.75</v>
@@ -36296,7 +36296,7 @@
         <v>103.49361111111112</v>
       </c>
       <c r="CY112" s="2" t="n">
-        <v>0.046489197530864196</v>
+        <v>0.0</v>
       </c>
       <c r="CZ112" s="2" t="n">
         <v>0.2465893587994543</v>
@@ -36314,7 +36314,7 @@
         <v>0.11588080211509515</v>
       </c>
       <c r="DE112" s="2" t="n">
-        <v>0.2465893587994543</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
@@ -36457,7 +36457,7 @@
         <v>0.0</v>
       </c>
       <c r="AU113" s="2" t="n">
-        <v>0.05941358024691358</v>
+        <v>0.0</v>
       </c>
       <c r="AV113" s="2" t="n">
         <v>0.3117408906882591</v>
@@ -36487,7 +36487,7 @@
         <v>0.0</v>
       </c>
       <c r="BE113" s="2" t="n">
-        <v>0.22580645161290322</v>
+        <v>0.0</v>
       </c>
       <c r="BF113" s="2" t="n">
         <v>22.666666666666668</v>
@@ -36538,10 +36538,10 @@
         <v>5.425044745031183</v>
       </c>
       <c r="BV113" s="2" t="n">
-        <v>186.0562962962963</v>
+        <v>0.0</v>
       </c>
       <c r="BW113" s="2" t="n">
-        <v>1.6975925925925928</v>
+        <v>0.0</v>
       </c>
       <c r="BX113" s="2" t="n">
         <v>0.5738396624472574</v>
@@ -36556,10 +36556,10 @@
         <v>0.07568088693773423</v>
       </c>
       <c r="CB113" s="2" t="n">
-        <v>0.1867925703444038</v>
+        <v>0.0</v>
       </c>
       <c r="CC113" s="2" t="n">
-        <v>0.004074847711345914</v>
+        <v>0.0</v>
       </c>
       <c r="CD113" s="2" t="n">
         <v>34.0</v>
@@ -36625,7 +36625,7 @@
         <v>83.03842592592589</v>
       </c>
       <c r="CY113" s="2" t="n">
-        <v>0.08667695473251029</v>
+        <v>0.0</v>
       </c>
       <c r="CZ113" s="2" t="n">
         <v>0.4597544338335607</v>
@@ -36643,7 +36643,7 @@
         <v>0.09297732777282638</v>
       </c>
       <c r="DE113" s="2" t="n">
-        <v>0.45975443383356074</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
@@ -37011,7 +37011,7 @@
         <v>7.716049382716049E-4</v>
       </c>
       <c r="AU115" s="2" t="n">
-        <v>0.016975308641975308</v>
+        <v>0.0</v>
       </c>
       <c r="AV115" s="2" t="n">
         <v>0.07692307692307693</v>
@@ -37041,7 +37041,7 @@
         <v>6.783605165959542E-6</v>
       </c>
       <c r="BE115" s="2" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="BF115" s="2" t="n">
         <v>14.0</v>
@@ -37092,10 +37092,10 @@
         <v>15.505004766442026</v>
       </c>
       <c r="BV115" s="2" t="n">
-        <v>202.0499074074074</v>
+        <v>0.0</v>
       </c>
       <c r="BW115" s="2" t="n">
-        <v>5.675648148148149</v>
+        <v>0.0</v>
       </c>
       <c r="BX115" s="2" t="n">
         <v>0.1518987341772152</v>
@@ -37110,10 +37110,10 @@
         <v>0.21629913997905365</v>
       </c>
       <c r="CB115" s="2" t="n">
-        <v>0.20284947241116139</v>
+        <v>0.0</v>
       </c>
       <c r="CC115" s="2" t="n">
-        <v>0.013623646785337106</v>
+        <v>0.0</v>
       </c>
       <c r="CD115" s="2" t="n">
         <v>17.0</v>
@@ -37179,7 +37179,7 @@
         <v>28.299166666666668</v>
       </c>
       <c r="CY115" s="2" t="n">
-        <v>0.031635802469135804</v>
+        <v>0.0</v>
       </c>
       <c r="CZ115" s="2" t="n">
         <v>0.16780354706684855</v>
@@ -37197,7 +37197,7 @@
         <v>0.03168630505124994</v>
       </c>
       <c r="DE115" s="2" t="n">
-        <v>0.16780354706684858</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
